--- a/excercises/excercises/120.self_flow_well_with_ESP_новопорт.xlsx
+++ b/excercises/excercises/120.self_flow_well_with_ESP_новопорт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C079873-CD45-4D8F-AA83-CAACA64A328F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F6081-52F7-448C-A86E-80118913F35B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,19 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Bob_" localSheetId="0">well!$C$14</definedName>
     <definedName name="d_annular_pr">well!$C$37</definedName>
+    <definedName name="d_tube_all_in">well!$V$62</definedName>
     <definedName name="Dcas_" localSheetId="0">well!$C$22</definedName>
     <definedName name="Dintake_" localSheetId="0">well!$C$26</definedName>
     <definedName name="Dtub_" localSheetId="0">well!$C$25</definedName>
     <definedName name="Dtub_out_" localSheetId="0">well!$C$23</definedName>
     <definedName name="ESPstr">well!$G$47</definedName>
     <definedName name="Freq_" localSheetId="0">well!$C$42</definedName>
-    <definedName name="Freq1_" localSheetId="0">well!$D$99</definedName>
+    <definedName name="Freq1_" localSheetId="0">well!$D$100</definedName>
     <definedName name="fw_">well!$C$35</definedName>
     <definedName name="gamma_gas_" localSheetId="0">well!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">well!$C$7</definedName>
@@ -35,11 +37,11 @@
     <definedName name="Head_ESP_" localSheetId="0">well!$C$41</definedName>
     <definedName name="Hmes_" localSheetId="0">well!$C$18</definedName>
     <definedName name="Hpump_" localSheetId="0">well!$C$21</definedName>
-    <definedName name="k_split_liquid">well!$N$65</definedName>
-    <definedName name="Kdegr_" localSheetId="0">well!$D$65</definedName>
+    <definedName name="k_split_liquid">well!$N$66</definedName>
+    <definedName name="Kdegr_" localSheetId="0">well!$D$66</definedName>
     <definedName name="KsepGasSep_" localSheetId="0">well!$C$47</definedName>
     <definedName name="mu_">well!$C$15</definedName>
-    <definedName name="N_" localSheetId="0">well!$C$57</definedName>
+    <definedName name="N_" localSheetId="0">well!$C$58</definedName>
     <definedName name="NumStage_" localSheetId="0">well!$C$46</definedName>
     <definedName name="Pannular_">well!$C$27</definedName>
     <definedName name="Pb_" localSheetId="0">well!$C$12</definedName>
@@ -53,15 +55,45 @@
     <definedName name="PVT_str_">well!$G$44</definedName>
     <definedName name="PVT_str_annular_">well!$G$50</definedName>
     <definedName name="Pwf_" localSheetId="0">well!$C$33</definedName>
-    <definedName name="Pwf1_" localSheetId="0">well!$D$97</definedName>
+    <definedName name="Pwf1_" localSheetId="0">well!$D$98</definedName>
     <definedName name="Q_" localSheetId="0">well!$C$34</definedName>
     <definedName name="Q_annular_">well!$C$36</definedName>
+    <definedName name="Q_annular_all_in">well!$T$67</definedName>
     <definedName name="Q_ESP_" localSheetId="0">well!$C$40</definedName>
     <definedName name="Q_total_">well!$C$32</definedName>
+    <definedName name="Q_tube_all_in">well!$V$67</definedName>
     <definedName name="Qmax" localSheetId="0">well!$C$45</definedName>
-    <definedName name="Qreal_" localSheetId="0">well!$D$98</definedName>
+    <definedName name="qmax_">well!$C$55</definedName>
+    <definedName name="Qreal_" localSheetId="0">well!$D$99</definedName>
     <definedName name="Rp_" localSheetId="0">well!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">well!$C$10</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">well!$V$67</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">well!$V$64</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="Tgrad" localSheetId="0">well!$C$54</definedName>
     <definedName name="theta_">well!$C$24</definedName>
     <definedName name="Tintake_" localSheetId="0">well!$C$30</definedName>
@@ -82,14 +114,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>Q</t>
   </si>
   <si>
-    <t>Частота</t>
-  </si>
-  <si>
     <t>атм</t>
   </si>
   <si>
@@ -150,15 +179,9 @@
     <t>Пласт</t>
   </si>
   <si>
-    <t>Доля газа</t>
-  </si>
-  <si>
     <t>Общая сепарация</t>
   </si>
   <si>
-    <t>P снизу вверх</t>
-  </si>
-  <si>
     <t>Построить распределение давления в скважине при постоянном дебите</t>
   </si>
   <si>
@@ -168,22 +191,10 @@
     <t>Давление в НКТ сверху вниз</t>
   </si>
   <si>
-    <t>Перепад давления в насосе</t>
-  </si>
-  <si>
-    <t>Давление в НКТ</t>
-  </si>
-  <si>
-    <t>Давление затруб</t>
-  </si>
-  <si>
     <t>Глубина установки насоса</t>
   </si>
   <si>
     <t>Построить распределение давления для скважины с постоянной продуктивностью</t>
-  </si>
-  <si>
-    <t>Pзаб</t>
   </si>
   <si>
     <t>Ксепарации естественной</t>
@@ -841,9 +852,6 @@
     <t>PVT строка НКТ</t>
   </si>
   <si>
-    <t>PVT строка ЭЦН</t>
-  </si>
-  <si>
     <t>P снизу вверх в ОК</t>
   </si>
   <si>
@@ -851,6 +859,63 @@
   </si>
   <si>
     <t>Ошибка Pзатр</t>
+  </si>
+  <si>
+    <t>Работа насоса в режиме фонтанирования через затруб при работающем насосе</t>
+  </si>
+  <si>
+    <t>Pwf</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>PVT строка затруб</t>
+  </si>
+  <si>
+    <t>Дебит в затрубе прогнозный</t>
+  </si>
+  <si>
+    <t>Дебит в затрубе по IPR</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Диаметр НКТ</t>
+  </si>
+  <si>
+    <t>Дебит в НКТ прогнозный</t>
+  </si>
+  <si>
+    <t>Дебит в НКТ по IPR</t>
+  </si>
+  <si>
+    <t>Давление в ОК сверху вниз</t>
+  </si>
+  <si>
+    <t>Фонтан через затруб при закрытой НКТ</t>
+  </si>
+  <si>
+    <t>Фонтан через НКТ при закрытом затрубе</t>
+  </si>
+  <si>
+    <t>Результаты крд</t>
+  </si>
+  <si>
+    <t>Текущий режим работы</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>All annulus</t>
+  </si>
+  <si>
+    <t>All tube</t>
+  </si>
+  <si>
+    <t>сепарация проверка</t>
   </si>
 </sst>
 </file>
@@ -959,24 +1024,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1021,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1098,6 +1151,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1107,10 +1171,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1119,17 +1183,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1138,115 +1202,136 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1360,7 +1445,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$F$67</c:f>
+              <c:f>well!$F$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1395,7 +1480,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>well!$F$68:$F$93</c:f>
+              <c:f>well!$F$69:$F$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1482,7 +1567,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>well!$C$68:$C$93</c:f>
+              <c:f>well!$C$69:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1579,7 +1664,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$Q$67</c:f>
+              <c:f>well!$Q$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1614,7 +1699,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>well!$Q$68:$Q$91</c:f>
+              <c:f>well!$Q$69:$Q$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1695,7 +1780,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>well!$C$68:$C$93</c:f>
+              <c:f>well!$C$69:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1792,7 +1877,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$M$67</c:f>
+              <c:f>well!$M$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1827,7 +1912,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>well!$M$68:$M$91</c:f>
+              <c:f>well!$M$69:$M$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1908,7 +1993,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>well!$C$68:$C$93</c:f>
+              <c:f>well!$C$69:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2366,774 +2451,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Распределение</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> давления в скважине</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>P снизу вверх</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>well!$F$103:$F$123</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>well!$C$103:$C$123</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>226.56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>302.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>377.59999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>453.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>528.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>604.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>679.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>755.19999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>830.71999999999991</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>906.2399999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>981.75999999999988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1057.28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1132.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1208.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1283.8399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1359.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1434.8799999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1510.3999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2A30-4962-9B53-F3495E0C2214}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Давление в НКТ</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>well!$N$103:$N$123</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>well!$C$103:$C$123</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>226.56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>302.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>377.59999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>453.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>528.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>604.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>679.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>755.19999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>830.71999999999991</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>906.2399999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>981.75999999999988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1057.28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1132.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1208.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1283.8399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1359.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1434.8799999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1510.3999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2A30-4962-9B53-F3495E0C2214}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Давление затруб</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>well!$P$103:$P$123</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>well!$C$103:$C$123</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>151.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>226.56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>302.08</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>377.59999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>453.11999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>528.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>604.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>679.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>755.19999999999993</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>830.71999999999991</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>906.2399999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>981.75999999999988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1057.28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1132.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1208.32</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1283.8399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1359.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1434.8799999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1510.3999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2A30-4962-9B53-F3495E0C2214}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="304307520"/>
-        <c:axId val="304005120"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="304307520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Давление,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> атм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304005120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="304005120"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Глубина,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="304307520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
               <a:t>Доля газа в</a:t>
             </a:r>
             <a:r>
@@ -3184,7 +2501,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$I$67</c:f>
+              <c:f>well!$I$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3219,7 +2536,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>well!$I$68:$I$93</c:f>
+              <c:f>well!$I$69:$I$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3237,7 +2554,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>well!$C$68:$C$93</c:f>
+              <c:f>well!$C$69:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3334,7 +2651,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$J$67</c:f>
+              <c:f>well!$J$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3369,78 +2686,78 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>well!$J$68:$J$91</c:f>
+              <c:f>well!$J$69:$J$92</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.50229413704823289</c:v>
+                  <c:v>0.92015271286730826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4941850418497914</c:v>
+                  <c:v>0.91873980465304317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48616254470641063</c:v>
+                  <c:v>0.9173410026336507</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47821221171303918</c:v>
+                  <c:v>0.91595358111919012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47032541444197234</c:v>
+                  <c:v>0.91457590114523357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46249690070322397</c:v>
+                  <c:v>0.91320695678594999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45472351106136694</c:v>
+                  <c:v>0.91184613587156615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44700345043390494</c:v>
+                  <c:v>0.91049308452883115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43933585006413156</c:v>
+                  <c:v>0.90914762597562448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43172049102991317</c:v>
+                  <c:v>0.9078097094403984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42415762227257192</c:v>
+                  <c:v>0.90647937665642953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4166478363370093</c:v>
+                  <c:v>0.90515673904059391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40919198166857274</c:v>
+                  <c:v>0.90384196160066221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40179109883500724</c:v>
+                  <c:v>0.90253525121336853</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.39444637287971951</c:v>
+                  <c:v>0.9012368478231445</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38715909685830718</c:v>
+                  <c:v>0.89994701764546969</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.37993064333618082</c:v>
+                  <c:v>0.89866604778269643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37276244169986689</c:v>
+                  <c:v>0.89739424186179462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3656559598194587</c:v>
+                  <c:v>0.89613191643171164</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.35861268904502897</c:v>
+                  <c:v>0.89487939794116089</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.351634131814684</c:v>
+                  <c:v>0.89363702017237079</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.34472179135037884</c:v>
+                  <c:v>0.8924051220428072</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.33787716305323628</c:v>
+                  <c:v>0.89118404571146481</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.88997413494303046</c:v>
@@ -3450,7 +2767,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>well!$C$68:$C$93</c:f>
+              <c:f>well!$C$69:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3547,7 +2864,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$K$67</c:f>
+              <c:f>well!$K$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3582,7 +2899,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>well!$K$68:$K$91</c:f>
+              <c:f>well!$K$69:$K$92</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3663,7 +2980,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>well!$C$68:$C$93</c:f>
+              <c:f>well!$C$69:$C$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4086,6 +3403,1819 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Индикаторная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> кривая</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4282688271518871E-2"/>
+          <c:y val="0.10465538417239591"/>
+          <c:w val="0.79459995901803337"/>
+          <c:h val="0.70531459280289899"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$D$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pwf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$C$105:$C$130</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9721872986300664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.944374597260133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.916561895890197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.888749194520265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.860936493150334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.833123791780402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.80531109041047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.777498389040538</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.749685687670606</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.721872986300667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.694060284930728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.666247583560789</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.63843488219085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.61062218082091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119.58280947945097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>127.55499677808103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.52718407671111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>143.49937137534118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151.47155867397126</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>159.44374597260133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>167.41593327123141</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>175.38812056986148</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>183.36030786849156</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>191.33249516712164</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>199.30468246575171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$D$105:$D$130</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.98745853724779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.89524754200974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.71815527585028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.45037570800866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.08540907920187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152.61593999330049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148.03368649920665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143.32921125103562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.49168240625781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.50856687463528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.36523094110316</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.04441159557162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.52550340427216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.78357557453319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.78798285456902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.500344110601063</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.871496577300789</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.836709443450957</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.307760388935193</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.158923227481381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.199934212999409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.11714503152136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.319962454073703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.391676146544469</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4EC-4D43-AA3B-855FE5CCD591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Измеренные значения дебита и давления</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>101.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B4EC-4D43-AA3B-855FE5CCD591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$S$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дебит в затрубе прогнозный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$T$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>160.561814722165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$T$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>68.956782768131518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B4EC-4D43-AA3B-855FE5CCD591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$U$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дебит в НКТ прогнозный</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="38100"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:spPr>
+                <a:ln w="6350"/>
+                <a:scene3d>
+                  <a:camera prst="orthographicFront"/>
+                  <a:lightRig rig="threePt" dir="t"/>
+                </a:scene3d>
+                <a:sp3d>
+                  <a:bevelT w="38100"/>
+                </a:sp3d>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-B4EC-4D43-AA3B-855FE5CCD591}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$V$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>150.47536053462488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$V$94</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>79.279412720342748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B4EC-4D43-AA3B-855FE5CCD591}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="228804864"/>
+        <c:axId val="228805440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="228804864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="165"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м3/сут</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39625196877125629"/>
+              <c:y val="0.86477093200508615"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228805440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="228805440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Давление на забое, атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="228804864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27809283506698373"/>
+          <c:y val="0.91188603978379823"/>
+          <c:w val="0.44481086818313098"/>
+          <c:h val="8.811427279763015E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распределение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> давления в скважине</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$D$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Текущий режим работы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$D$137:$D$162</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>36.577710077539486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.579388524205001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.789374102308528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.198812704115035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.799132021723409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.581220391191245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.535710943398179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.652254359901335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.911073063387562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.317520938934564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.859317218567682</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.528442166674054</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.317504847455112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>102.21961922187499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>108.22842982902787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>114.33812624613876</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120.54344884428109</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126.83969010382674</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.22270969560535</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139.66722286524171</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>146.11645422890436</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152.56799823476953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>159.02155168569101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>165.47684551001419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$C$69:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453.11999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>604.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>679.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>755.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>830.71999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906.2399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>981.75999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1057.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1132.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1208.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1283.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1359.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1434.8799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1510.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1585.9199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1661.4399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1736.9599999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1812.4799999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1887.9999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-EA9A-46F9-86B8-0830EC5B6167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$D$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Текущий режим работы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$E$137:$E$162</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>52.65737430622481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.114873109414077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.585072142926819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.06933968016191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.568492791918572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.083028961936847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.613248042741503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.159321140728018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.721331755278115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.299301487217193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.893206721573932</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.502989805401981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.128566747846563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.769832656480276</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74.426665661882907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.098929810020806</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.786477236111153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.489149829761843</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.206780534443908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.939194380522281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84.686209321695443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86.447636924654788</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.223282947877337</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.012947835693382</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>95.752907921750307</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$C$69:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453.11999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>604.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>679.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>755.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>830.71999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906.2399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>981.75999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1057.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1132.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1208.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1283.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1359.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1434.8799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1510.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1585.9199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1661.4399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1736.9599999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1812.4799999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1887.9999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-EA9A-46F9-86B8-0830EC5B6167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$G$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All tube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$G$137:$G$162</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.886835479293495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.679980482938056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.411714892395302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.101691540237574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.762696313942598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.40347778715013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.030263623864791</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.647629967673112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.259027559124085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.867114560742706</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.473975075683562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.081267232781876</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.69032632335243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.302238371136788</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.917893730980829</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.538026878242285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.163246448546751</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64.794058264135444</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.430883229236727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.074071413697624</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69.723913265095263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.380648629789661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73.044474082363507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.163566484058208</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.279412720342748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$C$69:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453.11999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>604.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>679.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>755.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>830.71999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906.2399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>981.75999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1057.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1132.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1208.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1283.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1359.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1434.8799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1510.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1585.9199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1661.4399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1736.9599999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1812.4799999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1887.9999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-EA9A-46F9-86B8-0830EC5B6167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>well!$F$134</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All annulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>well!$F$137:$F$162</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.160146867682002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.303800171146939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.439214226147868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.571508418698741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.704048719298328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.839149092173834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.978456656015922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.12317662805156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.274210398614208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.432243837935104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.59780576069582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.77130779588655</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.953072283811515</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.143352241771431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.342345943322428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.550207758020562</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.76705634351444</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.992980929638492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.22804620536094</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58.472296167647976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59.725757188664886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.988440487117522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.260344140177573</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>65.622035052583101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.956782768131518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>well!$C$69:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453.11999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>528.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>604.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>679.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>755.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>830.71999999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>906.2399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>981.75999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1057.28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1132.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1208.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1283.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1359.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1434.8799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1510.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1585.9199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1661.4399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1736.9599999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1812.4799999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1887.9999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-EA9A-46F9-86B8-0830EC5B6167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="304304640"/>
+        <c:axId val="304305216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="304304640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> атм</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304305216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="304305216"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Глубина,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="304304640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4127,46 +5257,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5238,536 +6328,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>382801</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>149077</xdr:rowOff>
+      <xdr:colOff>573300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>70637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>287951</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>90847</xdr:rowOff>
+      <xdr:colOff>478450</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>12406</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5796,23 +6370,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>103855</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>559295</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Диаграмма 11">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A341C-034A-4821-9250-305E0F3C9814}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5834,23 +6408,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>529678</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>102256</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132869</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>20009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>380000</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>40624</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15A341C-034A-4821-9250-305E0F3C9814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5F08BE-BD6C-4214-B895-E2347C493DB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5865,6 +6439,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>629332</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>158483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FFFA529-20E7-4F65-98E3-0C3547CF4456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5889,6 +6501,7 @@
       <definedName name="ESP_name"/>
       <definedName name="getUFVersion"/>
       <definedName name="IPR_PI_sm3dayatm"/>
+      <definedName name="IPR_Pwf_atma"/>
       <definedName name="IPR_Qliq_sm3Day"/>
       <definedName name="MF_gas_fraction_d"/>
       <definedName name="MF_ksep_natural_d"/>
@@ -5899,6 +6512,261 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IPR"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="20">
+          <cell r="C20">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+          <cell r="D40">
+            <v>250</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9.9187474546011547</v>
+          </cell>
+          <cell r="D41">
+            <v>240.08125254539885</v>
+          </cell>
+          <cell r="E41">
+            <v>9.9187474546011458</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>19.837494909202309</v>
+          </cell>
+          <cell r="D42">
+            <v>230.16250509079768</v>
+          </cell>
+          <cell r="E42">
+            <v>19.83749490920232</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>29.756242363803466</v>
+          </cell>
+          <cell r="D43">
+            <v>220.24375763619653</v>
+          </cell>
+          <cell r="E43">
+            <v>29.756242363803466</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>39.674989818404619</v>
+          </cell>
+          <cell r="D44">
+            <v>210.32501018159539</v>
+          </cell>
+          <cell r="E44">
+            <v>39.674989818404612</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>49.593737273005772</v>
+          </cell>
+          <cell r="D45">
+            <v>200.40626272699421</v>
+          </cell>
+          <cell r="E45">
+            <v>49.593737273005786</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>59.512484727606925</v>
+          </cell>
+          <cell r="D46">
+            <v>190.48751527239307</v>
+          </cell>
+          <cell r="E46">
+            <v>59.512484727606932</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>69.431232182208078</v>
+          </cell>
+          <cell r="D47">
+            <v>180.56876781779192</v>
+          </cell>
+          <cell r="E47">
+            <v>69.431232182208078</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>79.349979636809238</v>
+          </cell>
+          <cell r="D48">
+            <v>170.65002036319078</v>
+          </cell>
+          <cell r="E48">
+            <v>79.349979636809223</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>89.268727091410398</v>
+          </cell>
+          <cell r="D49">
+            <v>160.7312729085896</v>
+          </cell>
+          <cell r="E49">
+            <v>89.268727091410398</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>99.187474546011558</v>
+          </cell>
+          <cell r="D50">
+            <v>150.81252545398843</v>
+          </cell>
+          <cell r="E50">
+            <v>99.187474546011572</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>109.10622200061272</v>
+          </cell>
+          <cell r="D51">
+            <v>140.89377799938728</v>
+          </cell>
+          <cell r="E51">
+            <v>109.10622200061272</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>119.02496945521388</v>
+          </cell>
+          <cell r="D52">
+            <v>130.97503054478614</v>
+          </cell>
+          <cell r="E52">
+            <v>119.02496945521386</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>128.94371690981504</v>
+          </cell>
+          <cell r="D53">
+            <v>121.05628309018496</v>
+          </cell>
+          <cell r="E53">
+            <v>128.94371690981504</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>138.86246436441618</v>
+          </cell>
+          <cell r="D54">
+            <v>110.89439013405214</v>
+          </cell>
+          <cell r="E54">
+            <v>138.86246436441624</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>148.78121181901733</v>
+          </cell>
+          <cell r="D55">
+            <v>100.02727433529388</v>
+          </cell>
+          <cell r="E55">
+            <v>148.78121181901744</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>158.69995927361848</v>
+          </cell>
+          <cell r="D56">
+            <v>88.220870330268156</v>
+          </cell>
+          <cell r="E56">
+            <v>158.69995927361836</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>168.61870672821962</v>
+          </cell>
+          <cell r="D57">
+            <v>75.082562520816197</v>
+          </cell>
+          <cell r="E57">
+            <v>168.61870672821959</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>178.53745418282077</v>
+          </cell>
+          <cell r="D58">
+            <v>59.833402917957898</v>
+          </cell>
+          <cell r="E58">
+            <v>178.53745418282082</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>188.45620163742191</v>
+          </cell>
+          <cell r="D59">
+            <v>40.383204097085397</v>
+          </cell>
+          <cell r="E59">
+            <v>188.45620163742174</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>198.37494909202306</v>
+          </cell>
+          <cell r="D60">
+            <v>2.8181536965155018E-13</v>
+          </cell>
+          <cell r="E60">
+            <v>198.37494909202306</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6204,10 +7072,10 @@
   <sheetPr codeName="Worksheet_well">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R196"/>
+  <dimension ref="A1:AE197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -6223,14 +7091,18 @@
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -6239,2070 +7111,3402 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
-        <v>40</v>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14">
         <f>gamma_oil_*1000</f>
         <v>841</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>41</v>
+      <c r="F7" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>42</v>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14">
         <f>gamma_wat_*1000</f>
         <v>1004.9999999999999</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>41</v>
+      <c r="F8" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
-        <v>43</v>
+      <c r="B9" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14">
         <f>gamma_gas_*1.22</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>41</v>
+      <c r="F9" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>44</v>
+      <c r="B10" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>200</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="D10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="17">
         <f>Rsb_/gamma_oil_</f>
         <v>237.81212841854935</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>46</v>
+      <c r="F10" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>47</v>
+      <c r="B11" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>862</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17">
         <f>Rsb_/gamma_oil_</f>
         <v>237.81212841854935</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>46</v>
+      <c r="F11" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
-        <v>48</v>
+      <c r="B12" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>178</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="17">
         <f>Pb_*1.01325</f>
         <v>180.35849999999999</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
+      <c r="F12" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>51</v>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="D13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17">
         <f>Tres_*9/5+32</f>
         <v>140</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>52</v>
+      <c r="F13" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>53</v>
+      <c r="B14" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="2">
         <v>1.149</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>45</v>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
-        <v>81</v>
+      <c r="B15" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>1.5</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>82</v>
+      <c r="D15" s="15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>54</v>
+    <row r="18" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="2">
         <f>E18-E20</f>
         <v>1888</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>5</v>
+      <c r="D18" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>3361</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
-        <v>94</v>
+    <row r="19" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C19" s="2">
         <v>234</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>5</v>
+      <c r="D19" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="E19" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>55</v>
+    <row r="20" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>1473</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>5</v>
+      <c r="D20" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="2">
         <v>1473</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
-        <v>56</v>
+    <row r="21" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="2">
         <f>E21-C19</f>
         <v>1766</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>5</v>
+      <c r="D21" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
-        <v>57</v>
+    <row r="22" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="2">
         <v>157</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
-        <v>58</v>
+      <c r="D22" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="2">
         <v>73</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30" t="s">
-        <v>83</v>
+      <c r="D23" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23" t="s">
-        <v>59</v>
+      <c r="D24" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="2">
         <f>Dtub_out_-11</f>
         <v>62</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>60</v>
+      <c r="D25" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="2">
         <v>100</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23" t="s">
-        <v>95</v>
+      <c r="D26" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C27" s="2">
         <v>56</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>61</v>
+      <c r="D27" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="2">
         <v>35</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>62</v>
+      <c r="D28" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="2">
         <f>PKsep</f>
         <v>93</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>63</v>
+      <c r="D29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="2">
         <f>TKsep</f>
         <v>33.984000000000002</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
-        <v>64</v>
+      <c r="D30" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="2">
         <v>150</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
-        <v>92</v>
+      <c r="D31" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C32" s="2">
         <v>125</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>7</v>
+      <c r="D32" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>65</v>
+      <c r="B33" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="2">
         <v>101.55</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>2</v>
+      <c r="D33" s="19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>66</v>
+      <c r="B34" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C34" s="2">
         <f>Q_total_*k_split_liquid</f>
         <v>37.5</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>7</v>
+      <c r="D34" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
-        <v>67</v>
+      <c r="B35" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>4</v>
+      <c r="D35" s="19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>85</v>
+      <c r="B36" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="2">
         <f>Q_total_*(1-k_split_liquid)</f>
         <v>87.5</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>7</v>
+      <c r="D36" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="42">
+      <c r="B37" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="36">
         <f>Dcas_-Dtub_out_</f>
         <v>84</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24" t="s">
-        <v>68</v>
+      <c r="B40" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C40" s="2">
         <v>250</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>7</v>
+      <c r="D40" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="24" t="s">
-        <v>69</v>
+      <c r="B41" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="2">
         <v>2147</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>8</v>
+      <c r="D41" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="24" t="s">
-        <v>70</v>
+      <c r="B42" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="C42" s="2">
         <v>36</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>9</v>
+      <c r="D42" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="19">
+      <c r="B43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="14">
         <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
         <v>1033</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="G43" s="25" t="s">
-        <v>99</v>
+      <c r="D43" s="19"/>
+      <c r="G43" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="19" t="str">
+      <c r="B44" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="14" t="str">
         <f>[1]!ESP_name(C43)</f>
         <v>ЭЦН5А-320Э</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="G44" s="26" t="str">
+      <c r="D44" s="19"/>
+      <c r="G44" s="21" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
         <v>gamma_gas:0,800;gamma_oil:0,841;gamma_wat:1,005;rsb_m3m3:200,000;rp_m3m3:862,000;pb_atma:178,000;tres_C:60,000;bob_m3m3:1,149;muob_cP:1,500;PVTcorr:0;ksep_fr:0,950;pksep_atma:93,000;tksep_C:33,984;</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="19">
+      <c r="B45" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="14">
         <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>396</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="B46" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="14">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
         <v>399</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>74</v>
+      <c r="D46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
-        <v>75</v>
+      <c r="B47" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C47" s="5">
         <v>0.95</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="G47" s="26" t="str">
+      <c r="D47" s="19"/>
+      <c r="G47" s="21" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
         <v>ESP_ID:1033,00000;HeadNom_m:2147,00000;ESPfreq_Hz:36,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="43">
+      <c r="B48" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="37">
         <v>93</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="37">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="8">
+        <f>D84</f>
+        <v>33.984000000000002</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="43">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="8">
-        <f>D83</f>
-        <v>33.984000000000002</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G50" s="26" t="str">
+      <c r="G49" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G50" s="21" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,841;gamma_wat:1,005;rsb_m3m3:200,000;rp_m3m3:862,000;pb_atma:178,000;tres_C:60,000;bob_m3m3:1,149;muob_cP:1,500;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="24" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="C52" s="2">
         <v>178</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="27">
-        <f>[1]!IPR_PI_sm3dayatm(Q_,Pwf_,Pres_,fw_,Pb_)</f>
-        <v>0.60177863530670894</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="24" t="s">
-        <v>80</v>
+      <c r="D52" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B53" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="22">
+        <f>[1]!IPR_PI_sm3dayatm(Q_total_,Pwf_,Pres_,fw_,Pb_)</f>
+        <v>2.0059287843553832</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B54" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B55" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,0,fw_,Pb_)</f>
+        <v>199.30468246575165</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
+      <c r="C58" s="2">
+        <v>25</v>
+      </c>
+      <c r="D58" s="13"/>
+    </row>
+    <row r="62" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>103</v>
+      </c>
+      <c r="V62">
+        <f>Dtub_</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>29</v>
+      </c>
+      <c r="T63">
+        <f>(T66-Q_annular_all_in)/T66</f>
+        <v>-3.6995952501118826E-14</v>
+      </c>
+      <c r="V63">
+        <f>(V66-Q_tube_all_in)/V66</f>
+        <v>-5.7608244602138988E-14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="S64" t="s">
+        <v>102</v>
+      </c>
+      <c r="T64" s="39">
+        <f>(T66-Q_annular_all_in)^2</f>
+        <v>3.5285230797782033E-23</v>
+      </c>
+      <c r="U64" t="s">
+        <v>102</v>
+      </c>
+      <c r="V64" s="39">
+        <f>(V66-Q_tube_all_in)^2</f>
+        <v>7.5144996565181054E-23</v>
+      </c>
+    </row>
+    <row r="65" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="T65" s="65"/>
+      <c r="U65" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="V65" s="65"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="63"/>
+      <c r="Y65" s="63"/>
+      <c r="Z65" s="63"/>
+      <c r="AA65" s="63"/>
+      <c r="AB65" s="63"/>
+      <c r="AC65" s="63"/>
+      <c r="AD65" s="63"/>
+      <c r="AE65" s="63"/>
+    </row>
+    <row r="66" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="J66" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="S66" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="T66" s="61">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,T94,fw_,Pb_)</f>
+        <v>160.56181472215906</v>
+      </c>
+      <c r="U66" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="V66" s="61">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,V94,fw_,Pb_)</f>
+        <v>150.47536053461621</v>
+      </c>
+    </row>
+    <row r="67" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67" s="50">
+        <f>ABS((L69-M69)/L69)</f>
+        <v>4.5077430786842447E-2</v>
+      </c>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="R67" s="43">
+        <f>ABS((R69-Q69)/R69)</f>
+        <v>5.9689744531699826E-2</v>
+      </c>
+      <c r="S67" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="T67" s="61">
+        <v>160.561814722165</v>
+      </c>
+      <c r="U67" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="V67" s="61">
+        <v>150.47536053462488</v>
+      </c>
+    </row>
+    <row r="68" spans="3:31" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="2">
-        <v>25</v>
-      </c>
-      <c r="D57" s="18"/>
-    </row>
-    <row r="61" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="E68" s="11"/>
+      <c r="F68" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="N65" s="54">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="66" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="L66" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="M66" s="49">
-        <f>ABS((L68-M68)/L68)</f>
-        <v>4.5077430786842447E-2</v>
-      </c>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
-      <c r="Q66" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="R66" s="49">
-        <f t="shared" ref="N66:R66" si="0">ABS((Q68-R68)/Q68)</f>
-        <v>6.34787764831648E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="3:18" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G67" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" s="31" t="s">
+      <c r="G68" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K68" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="L68" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="N68" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I67" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J67" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L67" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="N67" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="O67" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="P67" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q67" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="R67" s="53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="33">
+      <c r="O68" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="R68" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="S68" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="T68" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="U68" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="V68" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="28">
         <v>0</v>
       </c>
-      <c r="D68" s="33">
-        <f t="shared" ref="D68:D93" si="1">D69-Tgrad*(C69-C68)/100</f>
+      <c r="D69" s="28">
+        <f t="shared" ref="D69:D94" si="0">D70-Tgrad*(C70-C69)/100</f>
         <v>5.3290705182007514E-15</v>
       </c>
-      <c r="F68" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,F69,PVT_str_,theta_,Dtub_,,D69,D68)</f>
+      <c r="F69" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
         <v>5.3393064593970516</v>
       </c>
-      <c r="J68" s="46">
-        <f>[1]!MF_gas_fraction_d(Q68,D68,fw_,PVT_str_)</f>
-        <v>0.50229413704823289</v>
-      </c>
-      <c r="K68" s="37">
-        <f>[1]!MF_gas_fraction_d(M68,D68,fw_,PVT_str_)</f>
+      <c r="J69" s="42">
+        <f>[1]!MF_gas_fraction_d(Q69,D69,fw_,PVT_str_annular_)</f>
+        <v>0.92015271286730826</v>
+      </c>
+      <c r="K69" s="32">
+        <f>[1]!MF_gas_fraction_d(M69,D69,fw_,PVT_str_)</f>
         <v>0.65283310406969208</v>
       </c>
-      <c r="L68" s="39">
+      <c r="L69" s="34">
         <f>Pbuf_</f>
         <v>35</v>
       </c>
-      <c r="M68" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C68,M69,PVT_str_,theta_,Dtub_,1,D69,D68)</f>
+      <c r="M69" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,M70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
         <v>36.577710077539486</v>
       </c>
-      <c r="Q68" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C68,Q69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D68)</f>
+      <c r="Q69" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,Q70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
         <v>52.65737430622481</v>
       </c>
-      <c r="R68" s="41">
+      <c r="R69" s="35">
         <f>Pannular_</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="69" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="33">
-        <f t="shared" ref="C69:C87" si="2">C68+Hmes_/N_</f>
+      <c r="S69" s="35">
+        <v>35</v>
+      </c>
+      <c r="T69" s="59"/>
+      <c r="U69" s="35">
+        <v>35</v>
+      </c>
+      <c r="V69" s="59"/>
+    </row>
+    <row r="70" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="28">
+        <f t="shared" ref="C70:C88" si="1">C69+Hmes_/N_</f>
         <v>75.52</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D70" s="28">
+        <f t="shared" si="0"/>
+        <v>2.2656000000000054</v>
+      </c>
+      <c r="F70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
+        <v>6.7392983362957732</v>
+      </c>
+      <c r="J70" s="42">
+        <f>[1]!MF_gas_fraction_d(Q70,D70,fw_,PVT_str_annular_)</f>
+        <v>0.91873980465304317</v>
+      </c>
+      <c r="K70" s="32">
+        <f>[1]!MF_gas_fraction_d(M70,D70,fw_,PVT_str_)</f>
+        <v>0.61897642314752732</v>
+      </c>
+      <c r="L70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,L69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
+        <v>38.903344053142149</v>
+      </c>
+      <c r="M70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,M71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
+        <v>40.579388524205001</v>
+      </c>
+      <c r="Q70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,Q71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
+        <v>54.114873109414077</v>
+      </c>
+      <c r="R70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,R69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D70)</f>
+        <v>57.53850927604509</v>
+      </c>
+      <c r="S70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C69,C70,S69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D70)</f>
+        <v>36.160146867682002</v>
+      </c>
+      <c r="T70" s="59"/>
+      <c r="U70" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C69,C70,U69,PVT_str_annular_,theta_,d_tube_all_in,1,D69,D70)</f>
+        <v>36.886835479293495</v>
+      </c>
+      <c r="V70" s="59"/>
+    </row>
+    <row r="71" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="28">
         <f t="shared" si="1"/>
-        <v>2.2656000000000054</v>
-      </c>
-      <c r="F69" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
-        <v>6.7392983362957732</v>
-      </c>
-      <c r="J69" s="46">
-        <f>[1]!MF_gas_fraction_d(Q69,D69,fw_,PVT_str_)</f>
-        <v>0.4941850418497914</v>
-      </c>
-      <c r="K69" s="37">
-        <f>[1]!MF_gas_fraction_d(M69,D69,fw_,PVT_str_)</f>
-        <v>0.61897642314752732</v>
-      </c>
-      <c r="L69" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C68,C69,L68,PVT_str_,theta_,Dtub_,1,D68,D69)</f>
-        <v>38.903344053142149</v>
-      </c>
-      <c r="M69" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,M70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
-        <v>40.579388524205001</v>
-      </c>
-      <c r="Q69" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,Q70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
-        <v>54.114873109414077</v>
-      </c>
-      <c r="R69" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C68,C69,R68,PVT_str_annular_,theta_,d_annular_pr,1,D68,D69)</f>
-        <v>57.53850927604509</v>
-      </c>
-    </row>
-    <row r="70" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="33">
-        <f t="shared" si="2"/>
         <v>151.04</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D71" s="28">
+        <f t="shared" si="0"/>
+        <v>4.5312000000000054</v>
+      </c>
+      <c r="F71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
+        <v>8.2967272134675056</v>
+      </c>
+      <c r="J71" s="42">
+        <f>[1]!MF_gas_fraction_d(Q71,D71,fw_,PVT_str_annular_)</f>
+        <v>0.9173410026336507</v>
+      </c>
+      <c r="K71" s="32">
+        <f>[1]!MF_gas_fraction_d(M71,D71,fw_,PVT_str_)</f>
+        <v>0.58413823753104355</v>
+      </c>
+      <c r="L71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,L70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
+        <v>43.017426383643922</v>
+      </c>
+      <c r="M71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,M72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
+        <v>44.789374102308528</v>
+      </c>
+      <c r="Q71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,Q72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
+        <v>55.585072142926819</v>
+      </c>
+      <c r="R71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,R70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D71)</f>
+        <v>59.090759053093933</v>
+      </c>
+      <c r="S71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C70,C71,S70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D71)</f>
+        <v>37.303800171146939</v>
+      </c>
+      <c r="T71" s="59"/>
+      <c r="U71" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C70,C71,U70,PVT_str_annular_,theta_,d_tube_all_in,1,D70,D71)</f>
+        <v>38.679980482938056</v>
+      </c>
+      <c r="V71" s="59"/>
+    </row>
+    <row r="72" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="28">
         <f t="shared" si="1"/>
-        <v>4.5312000000000054</v>
-      </c>
-      <c r="F70" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
-        <v>8.2967272134675056</v>
-      </c>
-      <c r="J70" s="46">
-        <f>[1]!MF_gas_fraction_d(Q70,D70,fw_,PVT_str_)</f>
-        <v>0.48616254470641063</v>
-      </c>
-      <c r="K70" s="37">
-        <f>[1]!MF_gas_fraction_d(M70,D70,fw_,PVT_str_)</f>
-        <v>0.58413823753104355</v>
-      </c>
-      <c r="L70" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,L69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
-        <v>43.017426383643922</v>
-      </c>
-      <c r="M70" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,M71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
-        <v>44.789374102308528</v>
-      </c>
-      <c r="Q70" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,Q71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
-        <v>55.585072142926819</v>
-      </c>
-      <c r="R70" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,R69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D70)</f>
-        <v>59.090759053093933</v>
-      </c>
-    </row>
-    <row r="71" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="33">
-        <f t="shared" si="2"/>
         <v>226.56</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D72" s="28">
+        <f t="shared" si="0"/>
+        <v>6.7968000000000064</v>
+      </c>
+      <c r="F72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
+        <v>10.000688670184021</v>
+      </c>
+      <c r="J72" s="42">
+        <f>[1]!MF_gas_fraction_d(Q72,D72,fw_,PVT_str_annular_)</f>
+        <v>0.91595358111919012</v>
+      </c>
+      <c r="K72" s="32">
+        <f>[1]!MF_gas_fraction_d(M72,D72,fw_,PVT_str_)</f>
+        <v>0.54849595222159797</v>
+      </c>
+      <c r="L72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,L71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
+        <v>47.333531181329711</v>
+      </c>
+      <c r="M72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,M73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
+        <v>49.198812704115035</v>
+      </c>
+      <c r="Q72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,Q73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
+        <v>57.06933968016191</v>
+      </c>
+      <c r="R72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,R71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D72)</f>
+        <v>60.657873366832156</v>
+      </c>
+      <c r="S72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C71,C72,S71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D72)</f>
+        <v>38.439214226147868</v>
+      </c>
+      <c r="T72" s="59"/>
+      <c r="U72" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C71,C72,U71,PVT_str_annular_,theta_,d_tube_all_in,1,D71,D72)</f>
+        <v>40.411714892395302</v>
+      </c>
+      <c r="V72" s="59"/>
+    </row>
+    <row r="73" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="28">
         <f t="shared" si="1"/>
-        <v>6.7968000000000064</v>
-      </c>
-      <c r="F71" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
-        <v>10.000688670184021</v>
-      </c>
-      <c r="J71" s="46">
-        <f>[1]!MF_gas_fraction_d(Q71,D71,fw_,PVT_str_)</f>
-        <v>0.47821221171303918</v>
-      </c>
-      <c r="K71" s="37">
-        <f>[1]!MF_gas_fraction_d(M71,D71,fw_,PVT_str_)</f>
-        <v>0.54849595222159797</v>
-      </c>
-      <c r="L71" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,L70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
-        <v>47.333531181329711</v>
-      </c>
-      <c r="M71" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,M72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
-        <v>49.198812704115035</v>
-      </c>
-      <c r="Q71" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,Q72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
-        <v>57.06933968016191</v>
-      </c>
-      <c r="R71" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,R70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D71)</f>
-        <v>60.657873366832156</v>
-      </c>
-    </row>
-    <row r="72" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="33">
-        <f t="shared" si="2"/>
         <v>302.08</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D73" s="28">
+        <f t="shared" si="0"/>
+        <v>9.0624000000000056</v>
+      </c>
+      <c r="F73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
+        <v>11.858509525145102</v>
+      </c>
+      <c r="J73" s="42">
+        <f>[1]!MF_gas_fraction_d(Q73,D73,fw_,PVT_str_annular_)</f>
+        <v>0.91457590114523357</v>
+      </c>
+      <c r="K73" s="32">
+        <f>[1]!MF_gas_fraction_d(M73,D73,fw_,PVT_str_)</f>
+        <v>0.51221737150466795</v>
+      </c>
+      <c r="L73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,L72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
+        <v>51.843439796531065</v>
+      </c>
+      <c r="M73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,M74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
+        <v>53.799132021723409</v>
+      </c>
+      <c r="Q73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,Q74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
+        <v>58.568492791918572</v>
+      </c>
+      <c r="R73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,R72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D73)</f>
+        <v>62.240507253950597</v>
+      </c>
+      <c r="S73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C72,C73,S72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D73)</f>
+        <v>39.571508418698741</v>
+      </c>
+      <c r="T73" s="59"/>
+      <c r="U73" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C72,C73,U72,PVT_str_annular_,theta_,d_tube_all_in,1,D72,D73)</f>
+        <v>42.101691540237574</v>
+      </c>
+      <c r="V73" s="59"/>
+    </row>
+    <row r="74" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="28">
         <f t="shared" si="1"/>
-        <v>9.0624000000000056</v>
-      </c>
-      <c r="F72" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
-        <v>11.858509525145102</v>
-      </c>
-      <c r="J72" s="46">
-        <f>[1]!MF_gas_fraction_d(Q72,D72,fw_,PVT_str_)</f>
-        <v>0.47032541444197234</v>
-      </c>
-      <c r="K72" s="37">
-        <f>[1]!MF_gas_fraction_d(M72,D72,fw_,PVT_str_)</f>
-        <v>0.51221737150466795</v>
-      </c>
-      <c r="L72" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,L71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
-        <v>51.843439796531065</v>
-      </c>
-      <c r="M72" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,M73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
-        <v>53.799132021723409</v>
-      </c>
-      <c r="Q72" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,Q73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
-        <v>58.568492791918572</v>
-      </c>
-      <c r="R72" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,R71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D72)</f>
-        <v>62.240507253950597</v>
-      </c>
-    </row>
-    <row r="73" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="33">
-        <f t="shared" si="2"/>
         <v>377.59999999999997</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D74" s="28">
+        <f t="shared" si="0"/>
+        <v>11.328000000000005</v>
+      </c>
+      <c r="F74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
+        <v>13.874767871831436</v>
+      </c>
+      <c r="J74" s="42">
+        <f>[1]!MF_gas_fraction_d(Q74,D74,fw_,PVT_str_annular_)</f>
+        <v>0.91320695678594999</v>
+      </c>
+      <c r="K74" s="32">
+        <f>[1]!MF_gas_fraction_d(M74,D74,fw_,PVT_str_)</f>
+        <v>0.47546722047595708</v>
+      </c>
+      <c r="L74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,L73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
+        <v>56.538281363061039</v>
+      </c>
+      <c r="M74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,M75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
+        <v>58.581220391191245</v>
+      </c>
+      <c r="Q74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,Q75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
+        <v>60.083028961936847</v>
+      </c>
+      <c r="R74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,R73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D74)</f>
+        <v>63.839042943779248</v>
+      </c>
+      <c r="S74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C73,C74,S73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D74)</f>
+        <v>40.704048719298328</v>
+      </c>
+      <c r="T74" s="59"/>
+      <c r="U74" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C73,C74,U73,PVT_str_annular_,theta_,d_tube_all_in,1,D73,D74)</f>
+        <v>43.762696313942598</v>
+      </c>
+      <c r="V74" s="59"/>
+    </row>
+    <row r="75" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="28">
         <f t="shared" si="1"/>
-        <v>11.328000000000005</v>
-      </c>
-      <c r="F73" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
-        <v>13.874767871831436</v>
-      </c>
-      <c r="J73" s="46">
-        <f>[1]!MF_gas_fraction_d(Q73,D73,fw_,PVT_str_)</f>
-        <v>0.46249690070322397</v>
-      </c>
-      <c r="K73" s="37">
-        <f>[1]!MF_gas_fraction_d(M73,D73,fw_,PVT_str_)</f>
-        <v>0.47546722047595708</v>
-      </c>
-      <c r="L73" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,L72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
-        <v>56.538281363061039</v>
-      </c>
-      <c r="M73" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,M74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
-        <v>58.581220391191245</v>
-      </c>
-      <c r="Q73" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,Q74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
-        <v>60.083028961936847</v>
-      </c>
-      <c r="R73" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,R72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D73)</f>
-        <v>63.839042943779248</v>
-      </c>
-    </row>
-    <row r="74" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="33">
-        <f t="shared" si="2"/>
         <v>453.11999999999995</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D75" s="28">
+        <f t="shared" si="0"/>
+        <v>13.593600000000004</v>
+      </c>
+      <c r="F75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
+        <v>16.054334115455038</v>
+      </c>
+      <c r="J75" s="42">
+        <f>[1]!MF_gas_fraction_d(Q75,D75,fw_,PVT_str_annular_)</f>
+        <v>0.91184613587156615</v>
+      </c>
+      <c r="K75" s="32">
+        <f>[1]!MF_gas_fraction_d(M75,D75,fw_,PVT_str_)</f>
+        <v>0.43840361562539271</v>
+      </c>
+      <c r="L75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,L74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
+        <v>61.408840073912209</v>
+      </c>
+      <c r="M75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,M76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
+        <v>63.535710943398179</v>
+      </c>
+      <c r="Q75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,Q76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
+        <v>61.613248042741503</v>
+      </c>
+      <c r="R75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,R74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D75)</f>
+        <v>65.453693680092002</v>
+      </c>
+      <c r="S75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C74,C75,S74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D75)</f>
+        <v>41.839149092173834</v>
+      </c>
+      <c r="T75" s="59"/>
+      <c r="U75" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C74,C75,U74,PVT_str_annular_,theta_,d_tube_all_in,1,D74,D75)</f>
+        <v>45.40347778715013</v>
+      </c>
+      <c r="V75" s="59"/>
+    </row>
+    <row r="76" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="28">
         <f t="shared" si="1"/>
-        <v>13.593600000000004</v>
-      </c>
-      <c r="F74" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
-        <v>16.054334115455038</v>
-      </c>
-      <c r="J74" s="46">
-        <f>[1]!MF_gas_fraction_d(Q74,D74,fw_,PVT_str_)</f>
-        <v>0.45472351106136694</v>
-      </c>
-      <c r="K74" s="37">
-        <f>[1]!MF_gas_fraction_d(M74,D74,fw_,PVT_str_)</f>
-        <v>0.43840361562539271</v>
-      </c>
-      <c r="L74" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,L73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
-        <v>61.408840073912209</v>
-      </c>
-      <c r="M74" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,M75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
-        <v>63.535710943398179</v>
-      </c>
-      <c r="Q74" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,Q75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
-        <v>61.613248042741503</v>
-      </c>
-      <c r="R74" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,R73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D74)</f>
-        <v>65.453693680092002</v>
-      </c>
-    </row>
-    <row r="75" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="33">
-        <f t="shared" si="2"/>
         <v>528.64</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D76" s="28">
+        <f t="shared" si="0"/>
+        <v>15.859200000000005</v>
+      </c>
+      <c r="F76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
+        <v>18.470435847449501</v>
+      </c>
+      <c r="J76" s="42">
+        <f>[1]!MF_gas_fraction_d(Q76,D76,fw_,PVT_str_annular_)</f>
+        <v>0.91049308452883115</v>
+      </c>
+      <c r="K76" s="32">
+        <f>[1]!MF_gas_fraction_d(M76,D76,fw_,PVT_str_)</f>
+        <v>0.40118309637495242</v>
+      </c>
+      <c r="L76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,L75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
+        <v>66.445784979953501</v>
+      </c>
+      <c r="M76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,M77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
+        <v>68.652254359901335</v>
+      </c>
+      <c r="Q76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,Q77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
+        <v>63.159321140728018</v>
+      </c>
+      <c r="R76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,R75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D76)</f>
+        <v>67.084562562025411</v>
+      </c>
+      <c r="S76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C75,C76,S75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D76)</f>
+        <v>42.978456656015922</v>
+      </c>
+      <c r="T76" s="59"/>
+      <c r="U76" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C75,C76,U75,PVT_str_annular_,theta_,d_tube_all_in,1,D75,D76)</f>
+        <v>47.030263623864791</v>
+      </c>
+      <c r="V76" s="59"/>
+    </row>
+    <row r="77" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="28">
         <f t="shared" si="1"/>
-        <v>15.859200000000005</v>
-      </c>
-      <c r="F75" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
-        <v>18.470435847449501</v>
-      </c>
-      <c r="J75" s="46">
-        <f>[1]!MF_gas_fraction_d(Q75,D75,fw_,PVT_str_)</f>
-        <v>0.44700345043390494</v>
-      </c>
-      <c r="K75" s="37">
-        <f>[1]!MF_gas_fraction_d(M75,D75,fw_,PVT_str_)</f>
-        <v>0.40118309637495242</v>
-      </c>
-      <c r="L75" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,L74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
-        <v>66.445784979953501</v>
-      </c>
-      <c r="M75" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,M76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
-        <v>68.652254359901335</v>
-      </c>
-      <c r="Q75" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,Q76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
-        <v>63.159321140728018</v>
-      </c>
-      <c r="R75" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,R74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D75)</f>
-        <v>67.084562562025411</v>
-      </c>
-    </row>
-    <row r="76" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="33">
-        <f t="shared" si="2"/>
         <v>604.16</v>
       </c>
-      <c r="D76" s="33">
+      <c r="D77" s="28">
+        <f t="shared" si="0"/>
+        <v>18.124800000000004</v>
+      </c>
+      <c r="F77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
+        <v>21.161528069203303</v>
+      </c>
+      <c r="J77" s="42">
+        <f>[1]!MF_gas_fraction_d(Q77,D77,fw_,PVT_str_annular_)</f>
+        <v>0.90914762597562448</v>
+      </c>
+      <c r="K77" s="32">
+        <f>[1]!MF_gas_fraction_d(M77,D77,fw_,PVT_str_)</f>
+        <v>0.36402742003202399</v>
+      </c>
+      <c r="L77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,L76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
+        <v>71.632059846291753</v>
+      </c>
+      <c r="M77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,M78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
+        <v>73.911073063387562</v>
+      </c>
+      <c r="Q77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,Q78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
+        <v>64.721331755278115</v>
+      </c>
+      <c r="R77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,R76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D77)</f>
+        <v>68.731677752667693</v>
+      </c>
+      <c r="S77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C76,C77,S76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D77)</f>
+        <v>44.12317662805156</v>
+      </c>
+      <c r="T77" s="59"/>
+      <c r="U77" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C76,C77,U76,PVT_str_annular_,theta_,d_tube_all_in,1,D76,D77)</f>
+        <v>48.647629967673112</v>
+      </c>
+      <c r="V77" s="59"/>
+    </row>
+    <row r="78" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="28">
         <f t="shared" si="1"/>
-        <v>18.124800000000004</v>
-      </c>
-      <c r="F76" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
-        <v>21.161528069203303</v>
-      </c>
-      <c r="J76" s="46">
-        <f>[1]!MF_gas_fraction_d(Q76,D76,fw_,PVT_str_)</f>
-        <v>0.43933585006413156</v>
-      </c>
-      <c r="K76" s="37">
-        <f>[1]!MF_gas_fraction_d(M76,D76,fw_,PVT_str_)</f>
-        <v>0.36402742003202399</v>
-      </c>
-      <c r="L76" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,L75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
-        <v>71.632059846291753</v>
-      </c>
-      <c r="M76" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,M77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
-        <v>73.911073063387562</v>
-      </c>
-      <c r="Q76" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,Q77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
-        <v>64.721331755278115</v>
-      </c>
-      <c r="R76" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,R75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D76)</f>
-        <v>68.731677752667693</v>
-      </c>
-    </row>
-    <row r="77" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="33">
-        <f t="shared" si="2"/>
         <v>679.68</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D78" s="28">
+        <f t="shared" si="0"/>
+        <v>20.390400000000003</v>
+      </c>
+      <c r="F78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
+        <v>24.135391640418938</v>
+      </c>
+      <c r="J78" s="42">
+        <f>[1]!MF_gas_fraction_d(Q78,D78,fw_,PVT_str_annular_)</f>
+        <v>0.9078097094403984</v>
+      </c>
+      <c r="K78" s="32">
+        <f>[1]!MF_gas_fraction_d(M78,D78,fw_,PVT_str_)</f>
+        <v>0.32693867028879164</v>
+      </c>
+      <c r="L78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,L77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
+        <v>76.963438544647985</v>
+      </c>
+      <c r="M78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,M79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
+        <v>79.317520938934564</v>
+      </c>
+      <c r="Q78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,Q79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
+        <v>66.299301487217193</v>
+      </c>
+      <c r="R78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,R77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D78)</f>
+        <v>70.395014493630129</v>
+      </c>
+      <c r="S78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C77,C78,S77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D78)</f>
+        <v>45.274210398614208</v>
+      </c>
+      <c r="T78" s="59"/>
+      <c r="U78" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C77,C78,U77,PVT_str_annular_,theta_,d_tube_all_in,1,D77,D78)</f>
+        <v>50.259027559124085</v>
+      </c>
+      <c r="V78" s="59"/>
+    </row>
+    <row r="79" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="28">
         <f t="shared" si="1"/>
-        <v>20.390400000000003</v>
-      </c>
-      <c r="F77" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
-        <v>24.135391640418938</v>
-      </c>
-      <c r="J77" s="46">
-        <f>[1]!MF_gas_fraction_d(Q77,D77,fw_,PVT_str_)</f>
-        <v>0.43172049102991317</v>
-      </c>
-      <c r="K77" s="37">
-        <f>[1]!MF_gas_fraction_d(M77,D77,fw_,PVT_str_)</f>
-        <v>0.32693867028879164</v>
-      </c>
-      <c r="L77" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,L76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
-        <v>76.963438544647985</v>
-      </c>
-      <c r="M77" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,M78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
-        <v>79.317520938934564</v>
-      </c>
-      <c r="Q77" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,Q78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
-        <v>66.299301487217193</v>
-      </c>
-      <c r="R77" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,R76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D77)</f>
-        <v>70.395014493630129</v>
-      </c>
-    </row>
-    <row r="78" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="33">
-        <f t="shared" si="2"/>
         <v>755.19999999999993</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D79" s="28">
+        <f t="shared" si="0"/>
+        <v>22.656000000000002</v>
+      </c>
+      <c r="F79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
+        <v>27.362480283859647</v>
+      </c>
+      <c r="J79" s="42">
+        <f>[1]!MF_gas_fraction_d(Q79,D79,fw_,PVT_str_annular_)</f>
+        <v>0.90647937665642953</v>
+      </c>
+      <c r="K79" s="32">
+        <f>[1]!MF_gas_fraction_d(M79,D79,fw_,PVT_str_)</f>
+        <v>0.29005251006184557</v>
+      </c>
+      <c r="L79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,L78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
+        <v>82.434764077068635</v>
+      </c>
+      <c r="M79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,M80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
+        <v>84.859317218567682</v>
+      </c>
+      <c r="Q79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,Q80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
+        <v>67.893206721573932</v>
+      </c>
+      <c r="R79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,R78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D79)</f>
+        <v>72.074509379328731</v>
+      </c>
+      <c r="S79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C78,C79,S78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D79)</f>
+        <v>46.432243837935104</v>
+      </c>
+      <c r="T79" s="59"/>
+      <c r="U79" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C78,C79,U78,PVT_str_annular_,theta_,d_tube_all_in,1,D78,D79)</f>
+        <v>51.867114560742706</v>
+      </c>
+      <c r="V79" s="59"/>
+    </row>
+    <row r="80" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="28">
         <f t="shared" si="1"/>
-        <v>22.656000000000002</v>
-      </c>
-      <c r="F78" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
-        <v>27.362480283859647</v>
-      </c>
-      <c r="J78" s="46">
-        <f>[1]!MF_gas_fraction_d(Q78,D78,fw_,PVT_str_)</f>
-        <v>0.42415762227257192</v>
-      </c>
-      <c r="K78" s="37">
-        <f>[1]!MF_gas_fraction_d(M78,D78,fw_,PVT_str_)</f>
-        <v>0.29005251006184557</v>
-      </c>
-      <c r="L78" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,L77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
-        <v>82.434764077068635</v>
-      </c>
-      <c r="M78" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,M79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
-        <v>84.859317218567682</v>
-      </c>
-      <c r="Q78" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,Q79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
-        <v>67.893206721573932</v>
-      </c>
-      <c r="R78" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,R77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D78)</f>
-        <v>72.074509379328731</v>
-      </c>
-    </row>
-    <row r="79" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="33">
-        <f t="shared" si="2"/>
         <v>830.71999999999991</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D80" s="28">
+        <f t="shared" si="0"/>
+        <v>24.921600000000002</v>
+      </c>
+      <c r="F80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
+        <v>30.858093804742449</v>
+      </c>
+      <c r="J80" s="42">
+        <f>[1]!MF_gas_fraction_d(Q80,D80,fw_,PVT_str_annular_)</f>
+        <v>0.90515673904059391</v>
+      </c>
+      <c r="K80" s="32">
+        <f>[1]!MF_gas_fraction_d(M80,D80,fw_,PVT_str_)</f>
+        <v>0.25345436082246559</v>
+      </c>
+      <c r="L80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,L79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
+        <v>88.036463436222832</v>
+      </c>
+      <c r="M80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,M81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
+        <v>90.528442166674054</v>
+      </c>
+      <c r="Q80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,Q81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
+        <v>69.502989805401981</v>
+      </c>
+      <c r="R80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,R79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D80)</f>
+        <v>73.770069900704499</v>
+      </c>
+      <c r="S80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C79,C80,S79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D80)</f>
+        <v>47.59780576069582</v>
+      </c>
+      <c r="T80" s="59"/>
+      <c r="U80" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C79,C80,U79,PVT_str_annular_,theta_,d_tube_all_in,1,D79,D80)</f>
+        <v>53.473975075683562</v>
+      </c>
+      <c r="V80" s="59"/>
+    </row>
+    <row r="81" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="28">
         <f t="shared" si="1"/>
-        <v>24.921600000000002</v>
-      </c>
-      <c r="F79" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
-        <v>30.858093804742449</v>
-      </c>
-      <c r="J79" s="46">
-        <f>[1]!MF_gas_fraction_d(Q79,D79,fw_,PVT_str_)</f>
-        <v>0.4166478363370093</v>
-      </c>
-      <c r="K79" s="37">
-        <f>[1]!MF_gas_fraction_d(M79,D79,fw_,PVT_str_)</f>
-        <v>0.25345436082246559</v>
-      </c>
-      <c r="L79" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,L78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
-        <v>88.036463436222832</v>
-      </c>
-      <c r="M79" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,M80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
-        <v>90.528442166674054</v>
-      </c>
-      <c r="Q79" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,Q80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
-        <v>69.502989805401981</v>
-      </c>
-      <c r="R79" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,R78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D79)</f>
-        <v>73.770069900704499</v>
-      </c>
-    </row>
-    <row r="80" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="33">
-        <f t="shared" si="2"/>
         <v>906.2399999999999</v>
       </c>
-      <c r="D80" s="33">
+      <c r="D81" s="28">
+        <f t="shared" si="0"/>
+        <v>27.187200000000001</v>
+      </c>
+      <c r="F81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
+        <v>34.619582448018207</v>
+      </c>
+      <c r="J81" s="42">
+        <f>[1]!MF_gas_fraction_d(Q81,D81,fw_,PVT_str_annular_)</f>
+        <v>0.90384196160066221</v>
+      </c>
+      <c r="K81" s="32">
+        <f>[1]!MF_gas_fraction_d(M81,D81,fw_,PVT_str_)</f>
+        <v>0.21720849824465949</v>
+      </c>
+      <c r="L81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,L80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
+        <v>93.761042640641108</v>
+      </c>
+      <c r="M81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,M82,PVT_str_,theta_,Dtub_,1,D82,D81)</f>
+        <v>96.317504847455112</v>
+      </c>
+      <c r="Q81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C82,C81,Q82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D81)</f>
+        <v>71.128566747846563</v>
+      </c>
+      <c r="R81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C81,R80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D81)</f>
+        <v>75.481580997274605</v>
+      </c>
+      <c r="S81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C80,C81,S80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D81)</f>
+        <v>48.77130779588655</v>
+      </c>
+      <c r="T81" s="59"/>
+      <c r="U81" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C80,C81,U80,PVT_str_annular_,theta_,d_tube_all_in,1,D80,D81)</f>
+        <v>55.081267232781876</v>
+      </c>
+      <c r="V81" s="59"/>
+    </row>
+    <row r="82" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="28">
         <f t="shared" si="1"/>
-        <v>27.187200000000001</v>
-      </c>
-      <c r="F80" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
-        <v>34.619582448018207</v>
-      </c>
-      <c r="J80" s="46">
-        <f>[1]!MF_gas_fraction_d(Q80,D80,fw_,PVT_str_)</f>
-        <v>0.40919198166857274</v>
-      </c>
-      <c r="K80" s="37">
-        <f>[1]!MF_gas_fraction_d(M80,D80,fw_,PVT_str_)</f>
-        <v>0.21720849824465949</v>
-      </c>
-      <c r="L80" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,L79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
-        <v>93.761042640641108</v>
-      </c>
-      <c r="M80" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,M81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
-        <v>96.317504847455112</v>
-      </c>
-      <c r="Q80" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,Q81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
-        <v>71.128566747846563</v>
-      </c>
-      <c r="R80" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,R79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D80)</f>
-        <v>75.481580997274605</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="33">
-        <f t="shared" si="2"/>
         <v>981.75999999999988</v>
       </c>
-      <c r="D81" s="33">
+      <c r="D82" s="28">
+        <f t="shared" si="0"/>
+        <v>29.4528</v>
+      </c>
+      <c r="F82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
+        <v>38.642739291082137</v>
+      </c>
+      <c r="J82" s="42">
+        <f>[1]!MF_gas_fraction_d(Q82,D82,fw_,PVT_str_annular_)</f>
+        <v>0.90253525121336853</v>
+      </c>
+      <c r="K82" s="32">
+        <f>[1]!MF_gas_fraction_d(M82,D82,fw_,PVT_str_)</f>
+        <v>0.18135826503330091</v>
+      </c>
+      <c r="L82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C82,L81,PVT_str_,theta_,Dtub_,1,D81,D82)</f>
+        <v>99.601494074172109</v>
+      </c>
+      <c r="M82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,M83,PVT_str_,theta_,Dtub_,1,D83,D82)</f>
+        <v>102.21961922187499</v>
+      </c>
+      <c r="Q82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C83,C82,Q83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D82)</f>
+        <v>72.769832656480276</v>
+      </c>
+      <c r="R82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C82,R81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D82)</f>
+        <v>77.208909661984109</v>
+      </c>
+      <c r="S82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C81,C82,S81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D82)</f>
+        <v>49.953072283811515</v>
+      </c>
+      <c r="T82" s="59"/>
+      <c r="U82" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C81,C82,U81,PVT_str_annular_,theta_,d_tube_all_in,1,D81,D82)</f>
+        <v>56.69032632335243</v>
+      </c>
+      <c r="V82" s="59"/>
+    </row>
+    <row r="83" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="28">
         <f t="shared" si="1"/>
-        <v>29.4528</v>
-      </c>
-      <c r="F81" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
-        <v>38.642739291082137</v>
-      </c>
-      <c r="J81" s="46">
-        <f>[1]!MF_gas_fraction_d(Q81,D81,fw_,PVT_str_)</f>
-        <v>0.40179109883500724</v>
-      </c>
-      <c r="K81" s="37">
-        <f>[1]!MF_gas_fraction_d(M81,D81,fw_,PVT_str_)</f>
-        <v>0.18135826503330091</v>
-      </c>
-      <c r="L81" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,L80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
-        <v>99.601494074172109</v>
-      </c>
-      <c r="M81" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,M82,PVT_str_,theta_,Dtub_,1,D82,D81)</f>
-        <v>102.21961922187499</v>
-      </c>
-      <c r="Q81" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C82,C81,Q82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D81)</f>
-        <v>72.769832656480276</v>
-      </c>
-      <c r="R81" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C81,R80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D81)</f>
-        <v>77.208909661984109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="33">
-        <f t="shared" si="2"/>
         <v>1057.28</v>
       </c>
-      <c r="D82" s="33">
+      <c r="D83" s="28">
+        <f t="shared" si="0"/>
+        <v>31.718400000000003</v>
+      </c>
+      <c r="F83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
+        <v>42.921807164085216</v>
+      </c>
+      <c r="J83" s="42">
+        <f>[1]!MF_gas_fraction_d(Q83,D83,fw_,PVT_str_annular_)</f>
+        <v>0.9012368478231445</v>
+      </c>
+      <c r="K83" s="32">
+        <f>[1]!MF_gas_fraction_d(M83,D83,fw_,PVT_str_)</f>
+        <v>0.14592567773476281</v>
+      </c>
+      <c r="L83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C83,L82,PVT_str_,theta_,Dtub_,1,D82,D83)</f>
+        <v>105.5513258422025</v>
+      </c>
+      <c r="M83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,M84,PVT_str_,theta_,Dtub_,1,D84,D83)</f>
+        <v>108.22842982902787</v>
+      </c>
+      <c r="Q83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C84,C83,Q84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D83)</f>
+        <v>74.426665661882907</v>
+      </c>
+      <c r="R83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C82,C83,R82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D83)</f>
+        <v>78.951908247428449</v>
+      </c>
+      <c r="S83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C82,C83,S82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D83)</f>
+        <v>51.143352241771431</v>
+      </c>
+      <c r="T83" s="59"/>
+      <c r="U83" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C82,C83,U82,PVT_str_annular_,theta_,d_tube_all_in,1,D82,D83)</f>
+        <v>58.302238371136788</v>
+      </c>
+      <c r="V83" s="59"/>
+    </row>
+    <row r="84" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="28">
         <f t="shared" si="1"/>
-        <v>31.718400000000003</v>
-      </c>
-      <c r="F82" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
-        <v>42.921807164085216</v>
-      </c>
-      <c r="J82" s="46">
-        <f>[1]!MF_gas_fraction_d(Q82,D82,fw_,PVT_str_)</f>
-        <v>0.39444637287971951</v>
-      </c>
-      <c r="K82" s="37">
-        <f>[1]!MF_gas_fraction_d(M82,D82,fw_,PVT_str_)</f>
-        <v>0.14592567773476281</v>
-      </c>
-      <c r="L82" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C82,L81,PVT_str_,theta_,Dtub_,1,D81,D82)</f>
-        <v>105.5513258422025</v>
-      </c>
-      <c r="M82" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,M83,PVT_str_,theta_,Dtub_,1,D83,D82)</f>
-        <v>108.22842982902787</v>
-      </c>
-      <c r="Q82" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C83,C82,Q83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D82)</f>
-        <v>74.426665661882907</v>
-      </c>
-      <c r="R82" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C82,R81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D82)</f>
-        <v>78.951908247428449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="33">
-        <f t="shared" si="2"/>
         <v>1132.8</v>
       </c>
-      <c r="D83" s="33">
+      <c r="D84" s="28">
+        <f t="shared" si="0"/>
+        <v>33.984000000000002</v>
+      </c>
+      <c r="F84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
+        <v>47.449619934817932</v>
+      </c>
+      <c r="J84" s="42">
+        <f>[1]!MF_gas_fraction_d(Q84,D84,fw_,PVT_str_annular_)</f>
+        <v>0.89994701764546969</v>
+      </c>
+      <c r="K84" s="32">
+        <f>[1]!MF_gas_fraction_d(M84,D84,fw_,PVT_str_)</f>
+        <v>0.11091181474991453</v>
+      </c>
+      <c r="L84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C84,L83,PVT_str_,theta_,Dtub_,1,D83,D84)</f>
+        <v>111.60457856347344</v>
+      </c>
+      <c r="M84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,M85,PVT_str_,theta_,Dtub_,1,D85,D84)</f>
+        <v>114.33812624613876</v>
+      </c>
+      <c r="N84" s="38"/>
+      <c r="Q84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C85,C84,Q85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D84)</f>
+        <v>76.098929810020806</v>
+      </c>
+      <c r="R84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C83,C84,R83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D84)</f>
+        <v>80.710416887874061</v>
+      </c>
+      <c r="S84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C83,C84,S83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D84)</f>
+        <v>52.342345943322428</v>
+      </c>
+      <c r="T84" s="59"/>
+      <c r="U84" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C83,C84,U83,PVT_str_annular_,theta_,d_tube_all_in,1,D83,D84)</f>
+        <v>59.917893730980829</v>
+      </c>
+      <c r="V84" s="59"/>
+    </row>
+    <row r="85" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="28">
         <f t="shared" si="1"/>
-        <v>33.984000000000002</v>
-      </c>
-      <c r="F83" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
-        <v>47.449619934817932</v>
-      </c>
-      <c r="J83" s="46">
-        <f>[1]!MF_gas_fraction_d(Q83,D83,fw_,PVT_str_)</f>
-        <v>0.38715909685830718</v>
-      </c>
-      <c r="K83" s="37">
-        <f>[1]!MF_gas_fraction_d(M83,D83,fw_,PVT_str_)</f>
-        <v>0.11091181474991453</v>
-      </c>
-      <c r="L83" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C83,L82,PVT_str_,theta_,Dtub_,1,D82,D83)</f>
-        <v>111.60457856347344</v>
-      </c>
-      <c r="M83" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,M84,PVT_str_,theta_,Dtub_,1,D84,D83)</f>
-        <v>114.33812624613876</v>
-      </c>
-      <c r="N83" s="44"/>
-      <c r="Q83" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C84,C83,Q84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D83)</f>
-        <v>76.098929810020806</v>
-      </c>
-      <c r="R83" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C82,C83,R82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D83)</f>
-        <v>80.710416887874061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="33">
-        <f t="shared" si="2"/>
         <v>1208.32</v>
       </c>
-      <c r="D84" s="33">
+      <c r="D85" s="28">
+        <f t="shared" si="0"/>
+        <v>36.249600000000001</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="30">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
+        <v>52.217777228711363</v>
+      </c>
+      <c r="J85" s="42">
+        <f>[1]!MF_gas_fraction_d(Q85,D85,fw_,PVT_str_annular_)</f>
+        <v>0.89866604778269643</v>
+      </c>
+      <c r="K85" s="32">
+        <f>[1]!MF_gas_fraction_d(M85,D85,fw_,PVT_str_)</f>
+        <v>7.6297939676525997E-2</v>
+      </c>
+      <c r="L85" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C85,L84,PVT_str_,theta_,Dtub_,1,D84,D85)</f>
+        <v>117.75583267996277</v>
+      </c>
+      <c r="M85" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,M86,PVT_str_,theta_,Dtub_,1,D86,D85)</f>
+        <v>120.54344884428109</v>
+      </c>
+      <c r="Q85" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C86,C85,Q86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D85)</f>
+        <v>77.786477236111153</v>
+      </c>
+      <c r="R85" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C84,C85,R84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D85)</f>
+        <v>82.484265308521657</v>
+      </c>
+      <c r="S85" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C84,C85,S84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D85)</f>
+        <v>53.550207758020562</v>
+      </c>
+      <c r="T85" s="59"/>
+      <c r="U85" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C84,C85,U84,PVT_str_annular_,theta_,d_tube_all_in,1,D84,D85)</f>
+        <v>61.538026878242285</v>
+      </c>
+      <c r="V85" s="59"/>
+    </row>
+    <row r="86" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="28">
         <f t="shared" si="1"/>
-        <v>36.249600000000001</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="35">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
-        <v>52.217777228711363</v>
-      </c>
-      <c r="J84" s="46">
-        <f>[1]!MF_gas_fraction_d(Q84,D84,fw_,PVT_str_)</f>
-        <v>0.37993064333618082</v>
-      </c>
-      <c r="K84" s="37">
-        <f>[1]!MF_gas_fraction_d(M84,D84,fw_,PVT_str_)</f>
-        <v>7.6297939676525997E-2</v>
-      </c>
-      <c r="L84" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C84,L83,PVT_str_,theta_,Dtub_,1,D83,D84)</f>
-        <v>117.75583267996277</v>
-      </c>
-      <c r="M84" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,M85,PVT_str_,theta_,Dtub_,1,D85,D84)</f>
-        <v>120.54344884428109</v>
-      </c>
-      <c r="Q84" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C85,C84,Q85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D84)</f>
-        <v>77.786477236111153</v>
-      </c>
-      <c r="R84" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C83,C84,R83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D84)</f>
-        <v>82.484265308521657</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="33">
-        <f t="shared" si="2"/>
         <v>1283.8399999999999</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D86" s="28">
+        <f t="shared" si="0"/>
+        <v>38.5152</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C86,F87,PVT_str_,theta_,Dtub_,,D87,D86)</f>
+        <v>57.216790638228431</v>
+      </c>
+      <c r="J86" s="42">
+        <f>[1]!MF_gas_fraction_d(Q86,D86,fw_,PVT_str_annular_)</f>
+        <v>0.89739424186179462</v>
+      </c>
+      <c r="K86" s="32">
+        <f>[1]!MF_gas_fraction_d(M86,D86,fw_,PVT_str_)</f>
+        <v>4.204721036881405E-2</v>
+      </c>
+      <c r="L86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C86,L85,PVT_str_,theta_,Dtub_,1,D85,D86)</f>
+        <v>124.00021105992616</v>
+      </c>
+      <c r="M86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C86,M87,PVT_str_,theta_,Dtub_,1,D87,D86)</f>
+        <v>126.83969010382674</v>
+      </c>
+      <c r="Q86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C87,C86,Q87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D86)</f>
+        <v>79.489149829761843</v>
+      </c>
+      <c r="R86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C85,C86,R85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D86)</f>
+        <v>84.273274203644675</v>
+      </c>
+      <c r="S86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C85,C86,S85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D86)</f>
+        <v>54.76705634351444</v>
+      </c>
+      <c r="T86" s="59"/>
+      <c r="U86" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C85,C86,U85,PVT_str_annular_,theta_,d_tube_all_in,1,D85,D86)</f>
+        <v>63.163246448546751</v>
+      </c>
+      <c r="V86" s="59"/>
+    </row>
+    <row r="87" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="28">
         <f t="shared" si="1"/>
-        <v>38.5152</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
-        <v>57.216790638228431</v>
-      </c>
-      <c r="J85" s="46">
-        <f>[1]!MF_gas_fraction_d(Q85,D85,fw_,PVT_str_)</f>
-        <v>0.37276244169986689</v>
-      </c>
-      <c r="K85" s="37">
-        <f>[1]!MF_gas_fraction_d(M85,D85,fw_,PVT_str_)</f>
-        <v>4.204721036881405E-2</v>
-      </c>
-      <c r="L85" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C85,L84,PVT_str_,theta_,Dtub_,1,D84,D85)</f>
-        <v>124.00021105992616</v>
-      </c>
-      <c r="M85" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,M86,PVT_str_,theta_,Dtub_,1,D86,D85)</f>
-        <v>126.83969010382674</v>
-      </c>
-      <c r="Q85" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C86,C85,Q86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D85)</f>
-        <v>79.489149829761843</v>
-      </c>
-      <c r="R85" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C84,C85,R84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D85)</f>
-        <v>84.273274203644675</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="33">
-        <f t="shared" si="2"/>
         <v>1359.36</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D87" s="28">
+        <f t="shared" si="0"/>
+        <v>40.780799999999999</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C87,F88,PVT_str_,theta_,Dtub_,,D88,D87)</f>
+        <v>62.426743948314126</v>
+      </c>
+      <c r="J87" s="42">
+        <f>[1]!MF_gas_fraction_d(Q87,D87,fw_,PVT_str_annular_)</f>
+        <v>0.89613191643171164</v>
+      </c>
+      <c r="K87" s="32">
+        <f>[1]!MF_gas_fraction_d(M87,D87,fw_,PVT_str_)</f>
+        <v>8.1066731378731348E-3</v>
+      </c>
+      <c r="L87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C87,L86,PVT_str_,theta_,Dtub_,1,D86,D87)</f>
+        <v>130.33339124791135</v>
+      </c>
+      <c r="M87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C87,M88,PVT_str_,theta_,Dtub_,1,D88,D87)</f>
+        <v>133.22270969560535</v>
+      </c>
+      <c r="Q87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C88,C87,Q88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D87)</f>
+        <v>81.206780534443908</v>
+      </c>
+      <c r="R87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C86,C87,R86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D87)</f>
+        <v>86.077256307394364</v>
+      </c>
+      <c r="S87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C86,C87,S86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D87)</f>
+        <v>55.992980929638492</v>
+      </c>
+      <c r="T87" s="59"/>
+      <c r="U87" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C86,C87,U86,PVT_str_annular_,theta_,d_tube_all_in,1,D86,D87)</f>
+        <v>64.794058264135444</v>
+      </c>
+      <c r="V87" s="59"/>
+    </row>
+    <row r="88" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="28">
         <f t="shared" si="1"/>
-        <v>40.780799999999999</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C86,F87,PVT_str_,theta_,Dtub_,,D87,D86)</f>
-        <v>62.426743948314126</v>
-      </c>
-      <c r="J86" s="46">
-        <f>[1]!MF_gas_fraction_d(Q86,D86,fw_,PVT_str_)</f>
-        <v>0.3656559598194587</v>
-      </c>
-      <c r="K86" s="37">
-        <f>[1]!MF_gas_fraction_d(M86,D86,fw_,PVT_str_)</f>
-        <v>8.1066731378731348E-3</v>
-      </c>
-      <c r="L86" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C86,L85,PVT_str_,theta_,Dtub_,1,D85,D86)</f>
-        <v>130.33339124791135</v>
-      </c>
-      <c r="M86" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C86,M87,PVT_str_,theta_,Dtub_,1,D87,D86)</f>
-        <v>133.22270969560535</v>
-      </c>
-      <c r="Q86" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C87,C86,Q87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D86)</f>
-        <v>81.206780534443908</v>
-      </c>
-      <c r="R86" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C85,C86,R85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D86)</f>
-        <v>86.077256307394364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="33">
-        <f t="shared" si="2"/>
         <v>1434.8799999999999</v>
       </c>
-      <c r="D87" s="33">
-        <f t="shared" si="1"/>
+      <c r="D88" s="28">
+        <f t="shared" si="0"/>
         <v>43.046399999999998</v>
       </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C87,F88,PVT_str_,theta_,Dtub_,,D88,D87)</f>
+      <c r="E88" s="6"/>
+      <c r="F88" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C88,F89,PVT_str_,theta_,Dtub_,,D89,D88)</f>
         <v>67.765000365817315</v>
       </c>
-      <c r="J87" s="46">
-        <f>[1]!MF_gas_fraction_d(Q87,D87,fw_,PVT_str_)</f>
-        <v>0.35861268904502897</v>
-      </c>
-      <c r="K87" s="37">
-        <f>[1]!MF_gas_fraction_d(M87,D87,fw_,PVT_str_)</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C87,L86,PVT_str_,theta_,Dtub_,1,D86,D87)</f>
-        <v>136.75196802776887</v>
-      </c>
-      <c r="M87" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C87,M88,PVT_str_,theta_,Dtub_,1,D88,D87)</f>
-        <v>139.66722286524171</v>
-      </c>
-      <c r="Q87" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C88,C87,Q88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D87)</f>
-        <v>82.939194380522281</v>
-      </c>
-      <c r="R87" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C86,C87,R86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D87)</f>
-        <v>87.896017242977209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="33">
-        <f>C87+Hmes_/N_</f>
-        <v>1510.3999999999999</v>
-      </c>
-      <c r="D88" s="33">
-        <f t="shared" si="1"/>
-        <v>45.311999999999998</v>
-      </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C88,F89,PVT_str_,theta_,Dtub_,,D89,D88)</f>
-        <v>73.203339539897954</v>
-      </c>
-      <c r="J88" s="46">
-        <f>[1]!MF_gas_fraction_d(Q88,D88,fw_,PVT_str_)</f>
-        <v>0.351634131814684</v>
-      </c>
-      <c r="K88" s="37">
+      <c r="J88" s="42">
+        <f>[1]!MF_gas_fraction_d(Q88,D88,fw_,PVT_str_annular_)</f>
+        <v>0.89487939794116089</v>
+      </c>
+      <c r="K88" s="32">
         <f>[1]!MF_gas_fraction_d(M88,D88,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="27">
+      <c r="L88" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C88,L87,PVT_str_,theta_,Dtub_,1,D87,D88)</f>
-        <v>143.19724957506577</v>
-      </c>
-      <c r="M88" s="27">
+        <v>136.75196802776887</v>
+      </c>
+      <c r="M88" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C88,M89,PVT_str_,theta_,Dtub_,1,D89,D88)</f>
-        <v>146.11645422890436</v>
-      </c>
-      <c r="Q88" s="27">
+        <v>139.66722286524171</v>
+      </c>
+      <c r="Q88" s="22">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C89,C88,Q89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D88)</f>
-        <v>84.686209321695443</v>
-      </c>
-      <c r="R88" s="27">
+        <v>82.939194380522281</v>
+      </c>
+      <c r="R88" s="22">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C87,C88,R87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D88)</f>
-        <v>89.729356210330309</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="33">
-        <f>C88+Hmes_/N_</f>
-        <v>1585.9199999999998</v>
-      </c>
-      <c r="D89" s="33">
-        <f t="shared" si="1"/>
-        <v>47.577599999999997</v>
-      </c>
-      <c r="F89" s="27">
+        <v>87.896017242977209</v>
+      </c>
+      <c r="S88" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C87,C88,S87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D88)</f>
+        <v>57.22804620536094</v>
+      </c>
+      <c r="T88" s="59"/>
+      <c r="U88" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C87,C88,U87,PVT_str_annular_,theta_,d_tube_all_in,1,D87,D88)</f>
+        <v>66.430883229236727</v>
+      </c>
+      <c r="V88" s="59"/>
+    </row>
+    <row r="89" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="28">
+        <f t="shared" ref="C89:C94" si="2">C88+Hmes_/N_</f>
+        <v>1510.3999999999999</v>
+      </c>
+      <c r="D89" s="28">
+        <f t="shared" si="0"/>
+        <v>45.311999999999998</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C89,F90,PVT_str_,theta_,Dtub_,,D90,D89)</f>
-        <v>78.730374698994282</v>
-      </c>
-      <c r="J89" s="46">
-        <f>[1]!MF_gas_fraction_d(Q89,D89,fw_,PVT_str_)</f>
-        <v>0.34472179135037884</v>
-      </c>
-      <c r="K89" s="37">
+        <v>73.203339539897954</v>
+      </c>
+      <c r="J89" s="42">
+        <f>[1]!MF_gas_fraction_d(Q89,D89,fw_,PVT_str_annular_)</f>
+        <v>0.89363702017237079</v>
+      </c>
+      <c r="K89" s="32">
         <f>[1]!MF_gas_fraction_d(M89,D89,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L89" s="27">
+      <c r="L89" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C89,L88,PVT_str_,theta_,Dtub_,1,D88,D89)</f>
-        <v>149.64506287696173</v>
-      </c>
-      <c r="M89" s="27">
+        <v>143.19724957506577</v>
+      </c>
+      <c r="M89" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C89,M90,PVT_str_,theta_,Dtub_,1,D90,D89)</f>
-        <v>152.56799823476953</v>
-      </c>
-      <c r="Q89" s="27">
+        <v>146.11645422890436</v>
+      </c>
+      <c r="Q89" s="22">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C90,C89,Q90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D89)</f>
-        <v>86.447636924654788</v>
-      </c>
-      <c r="R89" s="27">
+        <v>84.686209321695443</v>
+      </c>
+      <c r="R89" s="22">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C88,C89,R88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D89)</f>
-        <v>91.577066554936536</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="33">
-        <f>C89+Hmes_/N_</f>
-        <v>1661.4399999999998</v>
-      </c>
-      <c r="D90" s="33">
-        <f t="shared" si="1"/>
-        <v>49.843199999999996</v>
-      </c>
-      <c r="F90" s="27">
+        <v>89.729356210330309</v>
+      </c>
+      <c r="S89" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C88,C89,S88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D89)</f>
+        <v>58.472296167647976</v>
+      </c>
+      <c r="T89" s="59"/>
+      <c r="U89" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C88,C89,U88,PVT_str_annular_,theta_,d_tube_all_in,1,D88,D89)</f>
+        <v>68.074071413697624</v>
+      </c>
+      <c r="V89" s="59"/>
+    </row>
+    <row r="90" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="28">
+        <f t="shared" si="2"/>
+        <v>1585.9199999999998</v>
+      </c>
+      <c r="D90" s="28">
+        <f t="shared" si="0"/>
+        <v>47.577599999999997</v>
+      </c>
+      <c r="F90" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C90,F91,PVT_str_,theta_,Dtub_,,D91,D90)</f>
-        <v>84.336365735828949</v>
-      </c>
-      <c r="J90" s="46">
-        <f>[1]!MF_gas_fraction_d(Q90,D90,fw_,PVT_str_)</f>
-        <v>0.33787716305323628</v>
-      </c>
-      <c r="K90" s="37">
+        <v>78.730374698994282</v>
+      </c>
+      <c r="J90" s="42">
+        <f>[1]!MF_gas_fraction_d(Q90,D90,fw_,PVT_str_annular_)</f>
+        <v>0.8924051220428072</v>
+      </c>
+      <c r="K90" s="32">
         <f>[1]!MF_gas_fraction_d(M90,D90,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L90" s="27">
+      <c r="L90" s="22">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C90,L89,PVT_str_,theta_,Dtub_,1,D89,D90)</f>
+        <v>149.64506287696173</v>
+      </c>
+      <c r="M90" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C90,M91,PVT_str_,theta_,Dtub_,1,D91,D90)</f>
+        <v>152.56799823476953</v>
+      </c>
+      <c r="Q90" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C91,C90,Q91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D90)</f>
+        <v>86.447636924654788</v>
+      </c>
+      <c r="R90" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C89,C90,R89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D90)</f>
+        <v>91.577066554936536</v>
+      </c>
+      <c r="S90" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C89,C90,S89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D90)</f>
+        <v>59.725757188664886</v>
+      </c>
+      <c r="T90" s="59"/>
+      <c r="U90" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C89,C90,U89,PVT_str_annular_,theta_,d_tube_all_in,1,D89,D90)</f>
+        <v>69.723913265095263</v>
+      </c>
+      <c r="V90" s="59"/>
+    </row>
+    <row r="91" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="28">
+        <f t="shared" si="2"/>
+        <v>1661.4399999999998</v>
+      </c>
+      <c r="D91" s="28">
+        <f t="shared" si="0"/>
+        <v>49.843199999999996</v>
+      </c>
+      <c r="F91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C92,C91,F92,PVT_str_,theta_,Dtub_,,D92,D91)</f>
+        <v>84.336365735828949</v>
+      </c>
+      <c r="J91" s="42">
+        <f>[1]!MF_gas_fraction_d(Q91,D91,fw_,PVT_str_annular_)</f>
+        <v>0.89118404571146481</v>
+      </c>
+      <c r="K91" s="32">
+        <f>[1]!MF_gas_fraction_d(M91,D91,fw_,PVT_str_)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C91,L90,PVT_str_,theta_,Dtub_,1,D90,D91)</f>
         <v>156.0950810936381</v>
       </c>
-      <c r="M90" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C90,M91,PVT_str_,theta_,Dtub_,1,D91,D90)</f>
+      <c r="M91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C92,C91,M92,PVT_str_,theta_,Dtub_,1,D92,D91)</f>
         <v>159.02155168569101</v>
       </c>
-      <c r="Q90" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C91,C90,Q91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D90)</f>
+      <c r="Q91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C92,C91,Q92,PVT_str_annular_,theta_,d_annular_pr,1,D92,D91)</f>
         <v>88.223282947877337</v>
       </c>
-      <c r="R90" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C89,C90,R89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D90)</f>
+      <c r="R91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C90,C91,R90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D91)</f>
         <v>93.438936248284904</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="33">
-        <f>C90+Hmes_/N_</f>
+      <c r="S91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C90,C91,S90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D91)</f>
+        <v>60.988440487117522</v>
+      </c>
+      <c r="T91" s="59"/>
+      <c r="U91" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C90,C91,U90,PVT_str_annular_,theta_,d_tube_all_in,1,D90,D91)</f>
+        <v>71.380648629789661</v>
+      </c>
+      <c r="V91" s="59"/>
+    </row>
+    <row r="92" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="28">
+        <f t="shared" si="2"/>
         <v>1736.9599999999998</v>
       </c>
-      <c r="D91" s="33">
-        <f t="shared" si="1"/>
+      <c r="D92" s="28">
+        <f t="shared" si="0"/>
         <v>52.108799999999995</v>
       </c>
-      <c r="F91" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C92,C91,F92,PVT_str_,theta_,Dtub_,,D92,D91)</f>
+      <c r="F92" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C93,C92,F93,PVT_str_,theta_,Dtub_,,D93,D92)</f>
         <v>90.012947835693382</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G92" s="42">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
         <v>0.85272193266782004</v>
       </c>
-      <c r="H91" s="46">
-        <f>[1]!MF_ksep_total_d(G91,KsepGasSep_)</f>
+      <c r="H92" s="40">
+        <f>[1]!MF_ksep_total_d(G92,KsepGasSep_)</f>
         <v>0.99263609663339103</v>
       </c>
-      <c r="I91" s="48">
-        <f>[1]!MF_gas_fraction_d(F91,D91,fw_,PVT_str_)</f>
+      <c r="I92" s="42">
+        <f>[1]!MF_gas_fraction_d(F92,D92,fw_,PVT_str_)</f>
         <v>0.33110172730417675</v>
       </c>
-      <c r="J91" s="48">
-        <f>[1]!MF_gas_fraction_d(Q91,D91,fw_,PVT_str_annular_)</f>
+      <c r="J92" s="42">
+        <f>[1]!MF_gas_fraction_d(Q92,D92,fw_,PVT_str_annular_)</f>
         <v>0.88997413494303046</v>
       </c>
-      <c r="K91" s="49">
-        <f>[1]!MF_gas_fraction_d(M91,D91,fw_,PVT_str_)</f>
+      <c r="K92" s="43">
+        <f>[1]!MF_gas_fraction_d(M92,D92,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L91" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C91,L90,PVT_str_,theta_,Dtub_,1,D90,D91)</f>
+      <c r="L92" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C92,L91,PVT_str_,theta_,Dtub_,1,D91,D92)</f>
         <v>162.54701491501427</v>
       </c>
-      <c r="M91" s="41">
-        <f>O91+F83</f>
+      <c r="M92" s="35">
+        <f>O92+F84</f>
         <v>165.47684551001419</v>
       </c>
-      <c r="O91" s="50">
-        <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D65)</f>
+      <c r="O92" s="44">
+        <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D66)</f>
         <v>118.02722557519624</v>
       </c>
-      <c r="P91" s="51">
-        <f>L91-F91</f>
+      <c r="P92" s="45">
+        <f>L92-F92</f>
         <v>72.534067079320891</v>
       </c>
-      <c r="Q91" s="39">
-        <f>F91</f>
+      <c r="Q92" s="34">
+        <f>F92</f>
         <v>90.012947835693382</v>
       </c>
-      <c r="R91" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C90,C91,R90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D91)</f>
+      <c r="R92" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C91,C92,R91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D92)</f>
         <v>95.314748301942885</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="33">
-        <f>C91+Hmes_/N_</f>
+      <c r="S92" s="60">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C91,C92,S91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D92)</f>
+        <v>62.260344140177573</v>
+      </c>
+      <c r="T92" s="35">
+        <f>S92</f>
+        <v>62.260344140177573</v>
+      </c>
+      <c r="U92" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C91,C92,U91,PVT_str_annular_,theta_,d_tube_all_in,1,D91,D92)</f>
+        <v>73.044474082363507</v>
+      </c>
+      <c r="V92" s="35">
+        <f>U92</f>
+        <v>73.044474082363507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="28">
+        <f t="shared" si="2"/>
         <v>1812.4799999999998</v>
       </c>
-      <c r="D92" s="33">
-        <f t="shared" si="1"/>
+      <c r="D93" s="28">
+        <f t="shared" si="0"/>
         <v>54.374399999999994</v>
       </c>
-      <c r="F92" s="27">
-        <f>[1]!MF_p_pipe_atma(Q_,fw_,C93,C92,F93,PVT_str_,theta_,Dtub_,,D93,D92)</f>
+      <c r="F93" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_,fw_,C94,C93,F94,PVT_str_,theta_,Dtub_,,D94,D93)</f>
         <v>95.752907921750307</v>
       </c>
-      <c r="I92" s="48">
-        <f>[1]!MF_gas_fraction_d(F92,D92,fw_,PVT_str_)</f>
+      <c r="I93" s="42">
+        <f>[1]!MF_gas_fraction_d(F93,D93,fw_,PVT_str_)</f>
         <v>0.29802166629876653</v>
       </c>
-      <c r="K92" s="47"/>
-    </row>
-    <row r="93" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="33">
-        <f>C92+Hmes_/N_</f>
+      <c r="K93" s="41"/>
+      <c r="T93" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C92,C93,T92,PVT_str_annular_,theta_,Dtub_,,D92,D93)</f>
+        <v>65.622035052583101</v>
+      </c>
+      <c r="V93" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C92,C93,V92,PVT_str_annular_,theta_,Dtub_,,D92,D93)</f>
+        <v>76.163566484058208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="28">
+        <f t="shared" si="2"/>
         <v>1887.9999999999998</v>
       </c>
-      <c r="D93" s="33">
-        <f t="shared" si="1"/>
+      <c r="D94" s="28">
+        <f t="shared" si="0"/>
         <v>56.639999999999993</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F94" s="29">
         <f>Pwf_</f>
         <v>101.55</v>
       </c>
-      <c r="I93" s="48">
-        <f>[1]!MF_gas_fraction_d(F93,D93,fw_,PVT_str_)</f>
+      <c r="I94" s="42">
+        <f>[1]!MF_gas_fraction_d(F94,D94,fw_,PVT_str_)</f>
         <v>0.26546889937497586</v>
       </c>
-      <c r="K93" s="47"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="K94" s="41"/>
+      <c r="T94" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C93,C94,T93,PVT_str_annular_,theta_,Dtub_,,D93,D94)</f>
+        <v>68.956782768131518</v>
+      </c>
+      <c r="V94" s="22">
+        <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C93,C94,V93,PVT_str_annular_,theta_,Dtub_,,D93,D94)</f>
+        <v>79.279412720342748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+    </row>
+    <row r="99" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+    </row>
+    <row r="100" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+    </row>
+    <row r="101" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="54"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="54"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="54"/>
+      <c r="Q102" s="54"/>
+    </row>
+    <row r="103" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="55"/>
+      <c r="K103" s="55"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="55"/>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="54"/>
+    </row>
+    <row r="104" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="56"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="56"/>
+      <c r="P104" s="56"/>
+      <c r="Q104" s="54"/>
+    </row>
+    <row r="105" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="53">
+        <v>0</v>
+      </c>
+      <c r="D105" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C105,fw_,Pb_)</f>
+        <v>178</v>
+      </c>
+      <c r="E105" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D105,fw_,Pb_)</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="56"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="56"/>
+      <c r="P105" s="56"/>
+      <c r="Q105" s="54"/>
+    </row>
+    <row r="106" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="53">
+        <f t="shared" ref="C106:C130" si="3">C105+qmax_/N_</f>
+        <v>7.9721872986300664</v>
+      </c>
+      <c r="D106" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C106,fw_,Pb_)</f>
+        <v>173.98745853724779</v>
+      </c>
+      <c r="E106" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D106,fw_,Pb_)</f>
+        <v>7.9721872986220301</v>
+      </c>
+      <c r="F106" s="56"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="56"/>
+      <c r="P106" s="56"/>
+      <c r="Q106" s="54"/>
+    </row>
+    <row r="107" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="53">
+        <f t="shared" si="3"/>
+        <v>15.944374597260133</v>
+      </c>
+      <c r="D107" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C107,fw_,Pb_)</f>
+        <v>169.89524754200974</v>
+      </c>
+      <c r="E107" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D107,fw_,Pb_)</f>
+        <v>15.944374597264019</v>
+      </c>
+      <c r="F107" s="56"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="54"/>
+    </row>
+    <row r="108" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="53">
+        <f t="shared" si="3"/>
+        <v>23.916561895890197</v>
+      </c>
+      <c r="D108" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C108,fw_,Pb_)</f>
+        <v>165.71815527585028</v>
+      </c>
+      <c r="E108" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D108,fw_,Pb_)</f>
+        <v>23.916561895886051</v>
+      </c>
+      <c r="F108" s="56"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54"/>
+      <c r="J108" s="54"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="56"/>
+      <c r="P108" s="56"/>
+      <c r="Q108" s="54"/>
+    </row>
+    <row r="109" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="53">
+        <f t="shared" si="3"/>
+        <v>31.888749194520265</v>
+      </c>
+      <c r="D109" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C109,fw_,Pb_)</f>
+        <v>161.45037570800866</v>
+      </c>
+      <c r="E109" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D109,fw_,Pb_)</f>
+        <v>31.888749194528039</v>
+      </c>
+      <c r="F109" s="56"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54"/>
+      <c r="J109" s="54"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="54"/>
+      <c r="M109" s="54"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="56"/>
+      <c r="P109" s="56"/>
+      <c r="Q109" s="54"/>
+    </row>
+    <row r="110" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="53">
+        <f t="shared" si="3"/>
+        <v>39.860936493150334</v>
+      </c>
+      <c r="D110" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C110,fw_,Pb_)</f>
+        <v>157.08540907920187</v>
+      </c>
+      <c r="E110" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D110,fw_,Pb_)</f>
+        <v>39.860936493150071</v>
+      </c>
+      <c r="F110" s="56"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="54"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="54"/>
+      <c r="M110" s="54"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="56"/>
+      <c r="P110" s="56"/>
+      <c r="Q110" s="54"/>
+    </row>
+    <row r="111" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="53">
+        <f t="shared" si="3"/>
+        <v>47.833123791780402</v>
+      </c>
+      <c r="D111" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C111,fw_,Pb_)</f>
+        <v>152.61593999330049</v>
+      </c>
+      <c r="E111" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D111,fw_,Pb_)</f>
+        <v>47.833123791772103</v>
+      </c>
+      <c r="F111" s="56"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="56"/>
+      <c r="P111" s="56"/>
+      <c r="Q111" s="54"/>
+    </row>
+    <row r="112" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="53">
+        <f t="shared" si="3"/>
+        <v>55.80531109041047</v>
+      </c>
+      <c r="D112" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C112,fw_,Pb_)</f>
+        <v>148.03368649920665</v>
+      </c>
+      <c r="E112" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D112,fw_,Pb_)</f>
+        <v>55.805311090414087</v>
+      </c>
+      <c r="F112" s="56"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="54"/>
+      <c r="M112" s="54"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
+      <c r="P112" s="56"/>
+      <c r="Q112" s="54"/>
+    </row>
+    <row r="113" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="53">
+        <f t="shared" si="3"/>
+        <v>63.777498389040538</v>
+      </c>
+      <c r="D113" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C113,fw_,Pb_)</f>
+        <v>143.32921125103562</v>
+      </c>
+      <c r="E113" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D113,fw_,Pb_)</f>
+        <v>63.777498389036118</v>
+      </c>
+      <c r="F113" s="56"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="56"/>
+      <c r="P113" s="56"/>
+      <c r="Q113" s="54"/>
+    </row>
+    <row r="114" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="53">
+        <f t="shared" si="3"/>
+        <v>71.749685687670606</v>
+      </c>
+      <c r="D114" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C114,fw_,Pb_)</f>
+        <v>138.49168240625781</v>
+      </c>
+      <c r="E114" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D114,fw_,Pb_)</f>
+        <v>71.74968568767811</v>
+      </c>
+      <c r="F114" s="56"/>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="54"/>
+      <c r="M114" s="54"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="56"/>
+      <c r="P114" s="56"/>
+      <c r="Q114" s="54"/>
+    </row>
+    <row r="115" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="53">
+        <f t="shared" si="3"/>
+        <v>79.721872986300667</v>
+      </c>
+      <c r="D115" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C115,fw_,Pb_)</f>
+        <v>133.50856687463528</v>
+      </c>
+      <c r="E115" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D115,fw_,Pb_)</f>
+        <v>79.721872986300141</v>
+      </c>
+      <c r="F115" s="56"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="54"/>
+      <c r="M115" s="54"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="56"/>
+      <c r="P115" s="56"/>
+      <c r="Q115" s="54"/>
+    </row>
+    <row r="116" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="53">
+        <f t="shared" si="3"/>
+        <v>87.694060284930728</v>
+      </c>
+      <c r="D116" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C116,fw_,Pb_)</f>
+        <v>128.36523094110316</v>
+      </c>
+      <c r="E116" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D116,fw_,Pb_)</f>
+        <v>87.694060284922173</v>
+      </c>
+      <c r="F116" s="56"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
+      <c r="P116" s="56"/>
+      <c r="Q116" s="54"/>
+    </row>
+    <row r="117" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="53">
+        <f t="shared" si="3"/>
+        <v>95.666247583560789</v>
+      </c>
+      <c r="D117" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C117,fw_,Pb_)</f>
+        <v>123.04441159557162</v>
+      </c>
+      <c r="E117" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D117,fw_,Pb_)</f>
+        <v>95.666247583564157</v>
+      </c>
+      <c r="F117" s="56"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="54"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="56"/>
+      <c r="P117" s="56"/>
+      <c r="Q117" s="54"/>
+    </row>
+    <row r="118" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="53">
+        <f t="shared" si="3"/>
+        <v>103.63843488219085</v>
+      </c>
+      <c r="D118" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C118,fw_,Pb_)</f>
+        <v>117.52550340427216</v>
+      </c>
+      <c r="E118" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D118,fw_,Pb_)</f>
+        <v>103.63843488218619</v>
+      </c>
+      <c r="F118" s="56"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="54"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="54"/>
+    </row>
+    <row r="119" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="53">
+        <f t="shared" si="3"/>
+        <v>111.61062218082091</v>
+      </c>
+      <c r="D119" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C119,fw_,Pb_)</f>
+        <v>111.78357557453319</v>
+      </c>
+      <c r="E119" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D119,fw_,Pb_)</f>
+        <v>111.61062218082817</v>
+      </c>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="54"/>
+      <c r="N119" s="57"/>
+      <c r="O119" s="56"/>
+      <c r="P119" s="56"/>
+      <c r="Q119" s="54"/>
+    </row>
+    <row r="120" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="53">
+        <f t="shared" si="3"/>
+        <v>119.58280947945097</v>
+      </c>
+      <c r="D120" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C120,fw_,Pb_)</f>
+        <v>105.78798285456902</v>
+      </c>
+      <c r="E120" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D120,fw_,Pb_)</f>
+        <v>119.58280947945021</v>
+      </c>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="54"/>
+      <c r="M120" s="54"/>
+      <c r="N120" s="54"/>
+      <c r="O120" s="56"/>
+      <c r="P120" s="54"/>
+      <c r="Q120" s="54"/>
+    </row>
+    <row r="121" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="53">
+        <f t="shared" si="3"/>
+        <v>127.55499677808103</v>
+      </c>
+      <c r="D121" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C121,fw_,Pb_)</f>
+        <v>99.500344110601063</v>
+      </c>
+      <c r="E121" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D121,fw_,Pb_)</f>
+        <v>127.55499677807224</v>
+      </c>
+      <c r="F121" s="56"/>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="54"/>
+      <c r="N121" s="54"/>
+      <c r="O121" s="56"/>
+      <c r="P121" s="54"/>
+      <c r="Q121" s="54"/>
+    </row>
+    <row r="122" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="53">
+        <f t="shared" si="3"/>
+        <v>135.52718407671111</v>
+      </c>
+      <c r="D122" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C122,fw_,Pb_)</f>
+        <v>92.871496577300789</v>
+      </c>
+      <c r="E122" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D122,fw_,Pb_)</f>
+        <v>135.52718407671424</v>
+      </c>
+      <c r="F122" s="56"/>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="54"/>
+      <c r="N122" s="54"/>
+      <c r="O122" s="56"/>
+      <c r="P122" s="54"/>
+      <c r="Q122" s="54"/>
+    </row>
+    <row r="123" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="53">
+        <f t="shared" si="3"/>
+        <v>143.49937137534118</v>
+      </c>
+      <c r="D123" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C123,fw_,Pb_)</f>
+        <v>85.836709443450957</v>
+      </c>
+      <c r="E123" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D123,fw_,Pb_)</f>
+        <v>143.49937137533627</v>
+      </c>
+      <c r="F123" s="56"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="54"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="56"/>
+      <c r="P123" s="54"/>
+      <c r="Q123" s="54"/>
+    </row>
+    <row r="124" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="53">
+        <f t="shared" si="3"/>
+        <v>151.47155867397126</v>
+      </c>
+      <c r="D124" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C124,fw_,Pb_)</f>
+        <v>78.307760388935193</v>
+      </c>
+      <c r="E124" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D124,fw_,Pb_)</f>
+        <v>151.47155867397825</v>
+      </c>
+      <c r="F124" s="24"/>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="54"/>
+      <c r="M124" s="54"/>
+      <c r="N124" s="54"/>
+      <c r="O124" s="56"/>
+      <c r="P124" s="54"/>
+      <c r="Q124" s="54"/>
+    </row>
+    <row r="125" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="53">
+        <f t="shared" si="3"/>
+        <v>159.44374597260133</v>
+      </c>
+      <c r="D125" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C125,fw_,Pb_)</f>
+        <v>70.158923227481381</v>
+      </c>
+      <c r="E125" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D125,fw_,Pb_)</f>
+        <v>159.44374597260028</v>
+      </c>
+      <c r="F125" s="54"/>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="54"/>
+      <c r="M125" s="54"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="54"/>
+      <c r="P125" s="54"/>
+      <c r="Q125" s="54"/>
+    </row>
+    <row r="126" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="53">
+        <f t="shared" si="3"/>
+        <v>167.41593327123141</v>
+      </c>
+      <c r="D126" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C126,fw_,Pb_)</f>
+        <v>61.199934212999409</v>
+      </c>
+      <c r="E126" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D126,fw_,Pb_)</f>
+        <v>167.41593327124227</v>
+      </c>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
+      <c r="M126" s="54"/>
+      <c r="N126" s="54"/>
+      <c r="O126" s="54"/>
+      <c r="P126" s="54"/>
+      <c r="Q126" s="54"/>
+    </row>
+    <row r="127" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C127" s="53">
+        <f t="shared" si="3"/>
+        <v>175.38812056986148</v>
+      </c>
+      <c r="D127" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C127,fw_,Pb_)</f>
+        <v>51.11714503152136</v>
+      </c>
+      <c r="E127" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D127,fw_,Pb_)</f>
+        <v>175.3881205698643</v>
+      </c>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
+      <c r="M127" s="54"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
+      <c r="P127" s="54"/>
+      <c r="Q127" s="54"/>
+    </row>
+    <row r="128" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C128" s="53">
+        <f t="shared" si="3"/>
+        <v>183.36030786849156</v>
+      </c>
+      <c r="D128" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C128,fw_,Pb_)</f>
+        <v>39.319962454073703</v>
+      </c>
+      <c r="E128" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D128,fw_,Pb_)</f>
+        <v>183.36030786848633</v>
+      </c>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="54"/>
+      <c r="M128" s="54"/>
+      <c r="N128" s="54"/>
+      <c r="O128" s="54"/>
+      <c r="P128" s="54"/>
+      <c r="Q128" s="54"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C129" s="53">
+        <f t="shared" si="3"/>
+        <v>191.33249516712164</v>
+      </c>
+      <c r="D129" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C129,fw_,Pb_)</f>
+        <v>24.391676146544469</v>
+      </c>
+      <c r="E129" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D129,fw_,Pb_)</f>
+        <v>191.33249516712831</v>
+      </c>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="54"/>
+      <c r="M129" s="54"/>
+      <c r="N129" s="54"/>
+      <c r="O129" s="54"/>
+      <c r="P129" s="54"/>
+      <c r="Q129" s="54"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C130" s="53">
+        <f t="shared" si="3"/>
+        <v>199.30468246575171</v>
+      </c>
+      <c r="D130" s="17">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C130,fw_,Pb_)</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="17">
+        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D130,fw_,Pb_)</f>
+        <v>199.30468246575165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" t="s">
+        <v>110</v>
+      </c>
+      <c r="F134" t="s">
+        <v>112</v>
+      </c>
+      <c r="G134" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C136" t="str">
+        <f>C68</f>
+        <v>H</v>
+      </c>
+      <c r="D136" t="s">
+        <v>111</v>
+      </c>
+      <c r="E136" t="s">
+        <v>111</v>
+      </c>
+      <c r="F136" t="s">
+        <v>111</v>
+      </c>
+      <c r="G136" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <f t="shared" ref="C137:C163" si="4">C69</f>
+        <v>0</v>
+      </c>
+      <c r="D137" s="59">
+        <f>M69</f>
+        <v>36.577710077539486</v>
+      </c>
+      <c r="E137" s="59">
+        <f>Q69</f>
+        <v>52.65737430622481</v>
+      </c>
+      <c r="F137" s="59">
+        <f>S69</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D98" s="40">
-        <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,Pwf1_,fw_,Pb_)</f>
-        <v>56.58487634327323</v>
-      </c>
-    </row>
-    <row r="99" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="2">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="3:16" ht="51" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L102" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="12">
-        <v>0</v>
-      </c>
-      <c r="D103" s="12">
-        <f t="shared" ref="D103:D122" si="3">D104-Tgrad*(C104-C103)/100</f>
-        <v>14.688000000000009</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="6"/>
-    </row>
-    <row r="104" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="12">
-        <f t="shared" ref="C104:C123" si="4">C103+Hmes_/N_</f>
+      <c r="G137" s="59">
+        <f>U69</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <f t="shared" si="4"/>
         <v>75.52</v>
       </c>
-      <c r="D104" s="12">
-        <f t="shared" si="3"/>
-        <v>16.953600000000009</v>
-      </c>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-    </row>
-    <row r="105" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="12">
+      <c r="D138" s="59">
+        <f t="shared" ref="D138:D160" si="5">M70</f>
+        <v>40.579388524205001</v>
+      </c>
+      <c r="E138" s="59">
+        <f t="shared" ref="E138:E160" si="6">Q70</f>
+        <v>54.114873109414077</v>
+      </c>
+      <c r="F138" s="59">
+        <f t="shared" ref="F138:F160" si="7">S70</f>
+        <v>36.160146867682002</v>
+      </c>
+      <c r="G138" s="59">
+        <f t="shared" ref="G138:G162" si="8">U70</f>
+        <v>36.886835479293495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C139">
         <f t="shared" si="4"/>
         <v>151.04</v>
       </c>
-      <c r="D105" s="12">
-        <f t="shared" si="3"/>
-        <v>19.219200000000008</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-    </row>
-    <row r="106" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="12">
+      <c r="D139" s="59">
+        <f t="shared" si="5"/>
+        <v>44.789374102308528</v>
+      </c>
+      <c r="E139" s="59">
+        <f t="shared" si="6"/>
+        <v>55.585072142926819</v>
+      </c>
+      <c r="F139" s="59">
+        <f t="shared" si="7"/>
+        <v>37.303800171146939</v>
+      </c>
+      <c r="G139" s="59">
+        <f t="shared" si="8"/>
+        <v>38.679980482938056</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C140">
         <f t="shared" si="4"/>
         <v>226.56</v>
       </c>
-      <c r="D106" s="12">
-        <f t="shared" si="3"/>
-        <v>21.484800000000007</v>
-      </c>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-    </row>
-    <row r="107" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="12">
+      <c r="D140" s="59">
+        <f t="shared" si="5"/>
+        <v>49.198812704115035</v>
+      </c>
+      <c r="E140" s="59">
+        <f t="shared" si="6"/>
+        <v>57.06933968016191</v>
+      </c>
+      <c r="F140" s="59">
+        <f t="shared" si="7"/>
+        <v>38.439214226147868</v>
+      </c>
+      <c r="G140" s="59">
+        <f t="shared" si="8"/>
+        <v>40.411714892395302</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C141">
         <f t="shared" si="4"/>
         <v>302.08</v>
       </c>
-      <c r="D107" s="12">
-        <f t="shared" si="3"/>
-        <v>23.750400000000006</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-    </row>
-    <row r="108" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="12">
+      <c r="D141" s="59">
+        <f t="shared" si="5"/>
+        <v>53.799132021723409</v>
+      </c>
+      <c r="E141" s="59">
+        <f t="shared" si="6"/>
+        <v>58.568492791918572</v>
+      </c>
+      <c r="F141" s="59">
+        <f t="shared" si="7"/>
+        <v>39.571508418698741</v>
+      </c>
+      <c r="G141" s="59">
+        <f t="shared" si="8"/>
+        <v>42.101691540237574</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C142">
         <f t="shared" si="4"/>
         <v>377.59999999999997</v>
       </c>
-      <c r="D108" s="12">
-        <f t="shared" si="3"/>
-        <v>26.016000000000005</v>
-      </c>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-    </row>
-    <row r="109" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="12">
+      <c r="D142" s="59">
+        <f t="shared" si="5"/>
+        <v>58.581220391191245</v>
+      </c>
+      <c r="E142" s="59">
+        <f t="shared" si="6"/>
+        <v>60.083028961936847</v>
+      </c>
+      <c r="F142" s="59">
+        <f t="shared" si="7"/>
+        <v>40.704048719298328</v>
+      </c>
+      <c r="G142" s="59">
+        <f t="shared" si="8"/>
+        <v>43.762696313942598</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C143">
         <f t="shared" si="4"/>
         <v>453.11999999999995</v>
       </c>
-      <c r="D109" s="12">
-        <f t="shared" si="3"/>
-        <v>28.281600000000005</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-    </row>
-    <row r="110" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="12">
+      <c r="D143" s="59">
+        <f t="shared" si="5"/>
+        <v>63.535710943398179</v>
+      </c>
+      <c r="E143" s="59">
+        <f t="shared" si="6"/>
+        <v>61.613248042741503</v>
+      </c>
+      <c r="F143" s="59">
+        <f t="shared" si="7"/>
+        <v>41.839149092173834</v>
+      </c>
+      <c r="G143" s="59">
+        <f t="shared" si="8"/>
+        <v>45.40347778715013</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C144">
         <f t="shared" si="4"/>
         <v>528.64</v>
       </c>
-      <c r="D110" s="12">
-        <f t="shared" si="3"/>
-        <v>30.547200000000004</v>
-      </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-    </row>
-    <row r="111" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="12">
+      <c r="D144" s="59">
+        <f t="shared" si="5"/>
+        <v>68.652254359901335</v>
+      </c>
+      <c r="E144" s="59">
+        <f t="shared" si="6"/>
+        <v>63.159321140728018</v>
+      </c>
+      <c r="F144" s="59">
+        <f t="shared" si="7"/>
+        <v>42.978456656015922</v>
+      </c>
+      <c r="G144" s="59">
+        <f t="shared" si="8"/>
+        <v>47.030263623864791</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C145">
         <f t="shared" si="4"/>
         <v>604.16</v>
       </c>
-      <c r="D111" s="12">
-        <f t="shared" si="3"/>
-        <v>32.812800000000003</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-    </row>
-    <row r="112" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="12">
+      <c r="D145" s="59">
+        <f t="shared" si="5"/>
+        <v>73.911073063387562</v>
+      </c>
+      <c r="E145" s="59">
+        <f t="shared" si="6"/>
+        <v>64.721331755278115</v>
+      </c>
+      <c r="F145" s="59">
+        <f t="shared" si="7"/>
+        <v>44.12317662805156</v>
+      </c>
+      <c r="G145" s="59">
+        <f t="shared" si="8"/>
+        <v>48.647629967673112</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C146">
         <f t="shared" si="4"/>
         <v>679.68</v>
       </c>
-      <c r="D112" s="12">
-        <f t="shared" si="3"/>
-        <v>35.078400000000002</v>
-      </c>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-    </row>
-    <row r="113" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="12">
+      <c r="D146" s="59">
+        <f t="shared" si="5"/>
+        <v>79.317520938934564</v>
+      </c>
+      <c r="E146" s="59">
+        <f t="shared" si="6"/>
+        <v>66.299301487217193</v>
+      </c>
+      <c r="F146" s="59">
+        <f t="shared" si="7"/>
+        <v>45.274210398614208</v>
+      </c>
+      <c r="G146" s="59">
+        <f t="shared" si="8"/>
+        <v>50.259027559124085</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C147">
         <f t="shared" si="4"/>
         <v>755.19999999999993</v>
       </c>
-      <c r="D113" s="12">
-        <f t="shared" si="3"/>
-        <v>37.344000000000001</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-    </row>
-    <row r="114" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="12">
+      <c r="D147" s="59">
+        <f t="shared" si="5"/>
+        <v>84.859317218567682</v>
+      </c>
+      <c r="E147" s="59">
+        <f t="shared" si="6"/>
+        <v>67.893206721573932</v>
+      </c>
+      <c r="F147" s="59">
+        <f t="shared" si="7"/>
+        <v>46.432243837935104</v>
+      </c>
+      <c r="G147" s="59">
+        <f t="shared" si="8"/>
+        <v>51.867114560742706</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C148">
         <f t="shared" si="4"/>
         <v>830.71999999999991</v>
       </c>
-      <c r="D114" s="12">
-        <f t="shared" si="3"/>
-        <v>39.6096</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-    </row>
-    <row r="115" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="12">
+      <c r="D148" s="59">
+        <f t="shared" si="5"/>
+        <v>90.528442166674054</v>
+      </c>
+      <c r="E148" s="59">
+        <f t="shared" si="6"/>
+        <v>69.502989805401981</v>
+      </c>
+      <c r="F148" s="59">
+        <f t="shared" si="7"/>
+        <v>47.59780576069582</v>
+      </c>
+      <c r="G148" s="59">
+        <f t="shared" si="8"/>
+        <v>53.473975075683562</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C149">
         <f t="shared" si="4"/>
         <v>906.2399999999999</v>
       </c>
-      <c r="D115" s="12">
-        <f t="shared" si="3"/>
-        <v>41.8752</v>
-      </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-    </row>
-    <row r="116" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="12">
+      <c r="D149" s="59">
+        <f t="shared" si="5"/>
+        <v>96.317504847455112</v>
+      </c>
+      <c r="E149" s="59">
+        <f t="shared" si="6"/>
+        <v>71.128566747846563</v>
+      </c>
+      <c r="F149" s="59">
+        <f t="shared" si="7"/>
+        <v>48.77130779588655</v>
+      </c>
+      <c r="G149" s="59">
+        <f t="shared" si="8"/>
+        <v>55.081267232781876</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C150">
         <f t="shared" si="4"/>
         <v>981.75999999999988</v>
       </c>
-      <c r="D116" s="12">
-        <f t="shared" si="3"/>
-        <v>44.140799999999999</v>
-      </c>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-    </row>
-    <row r="117" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="12">
+      <c r="D150" s="59">
+        <f t="shared" si="5"/>
+        <v>102.21961922187499</v>
+      </c>
+      <c r="E150" s="59">
+        <f t="shared" si="6"/>
+        <v>72.769832656480276</v>
+      </c>
+      <c r="F150" s="59">
+        <f t="shared" si="7"/>
+        <v>49.953072283811515</v>
+      </c>
+      <c r="G150" s="59">
+        <f t="shared" si="8"/>
+        <v>56.69032632335243</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C151">
         <f t="shared" si="4"/>
         <v>1057.28</v>
       </c>
-      <c r="D117" s="12">
-        <f t="shared" si="3"/>
-        <v>46.406400000000005</v>
-      </c>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-    </row>
-    <row r="118" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="12">
+      <c r="D151" s="59">
+        <f t="shared" si="5"/>
+        <v>108.22842982902787</v>
+      </c>
+      <c r="E151" s="59">
+        <f t="shared" si="6"/>
+        <v>74.426665661882907</v>
+      </c>
+      <c r="F151" s="59">
+        <f t="shared" si="7"/>
+        <v>51.143352241771431</v>
+      </c>
+      <c r="G151" s="59">
+        <f t="shared" si="8"/>
+        <v>58.302238371136788</v>
+      </c>
+    </row>
+    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C152">
         <f t="shared" si="4"/>
         <v>1132.8</v>
       </c>
-      <c r="D118" s="12">
-        <f t="shared" si="3"/>
-        <v>48.672000000000004</v>
-      </c>
-      <c r="E118" s="6"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="16"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="14"/>
-    </row>
-    <row r="119" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="12">
+      <c r="D152" s="59">
+        <f t="shared" si="5"/>
+        <v>114.33812624613876</v>
+      </c>
+      <c r="E152" s="59">
+        <f t="shared" si="6"/>
+        <v>76.098929810020806</v>
+      </c>
+      <c r="F152" s="59">
+        <f t="shared" si="7"/>
+        <v>52.342345943322428</v>
+      </c>
+      <c r="G152" s="59">
+        <f t="shared" si="8"/>
+        <v>59.917893730980829</v>
+      </c>
+    </row>
+    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C153">
         <f t="shared" si="4"/>
         <v>1208.32</v>
       </c>
-      <c r="D119" s="12">
-        <f t="shared" si="3"/>
-        <v>50.937600000000003</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="6"/>
-      <c r="O119" s="6"/>
-    </row>
-    <row r="120" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="12">
+      <c r="D153" s="59">
+        <f t="shared" si="5"/>
+        <v>120.54344884428109</v>
+      </c>
+      <c r="E153" s="59">
+        <f t="shared" si="6"/>
+        <v>77.786477236111153</v>
+      </c>
+      <c r="F153" s="59">
+        <f t="shared" si="7"/>
+        <v>53.550207758020562</v>
+      </c>
+      <c r="G153" s="59">
+        <f t="shared" si="8"/>
+        <v>61.538026878242285</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C154">
         <f t="shared" si="4"/>
         <v>1283.8399999999999</v>
       </c>
-      <c r="D120" s="12">
-        <f t="shared" si="3"/>
-        <v>53.203200000000002</v>
-      </c>
-      <c r="E120" s="6"/>
-      <c r="F120" s="14"/>
-      <c r="O120" s="6"/>
-    </row>
-    <row r="121" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="12">
+      <c r="D154" s="59">
+        <f t="shared" si="5"/>
+        <v>126.83969010382674</v>
+      </c>
+      <c r="E154" s="59">
+        <f t="shared" si="6"/>
+        <v>79.489149829761843</v>
+      </c>
+      <c r="F154" s="59">
+        <f t="shared" si="7"/>
+        <v>54.76705634351444</v>
+      </c>
+      <c r="G154" s="59">
+        <f t="shared" si="8"/>
+        <v>63.163246448546751</v>
+      </c>
+    </row>
+    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C155">
         <f t="shared" si="4"/>
         <v>1359.36</v>
       </c>
-      <c r="D121" s="12">
-        <f t="shared" si="3"/>
-        <v>55.468800000000002</v>
-      </c>
-      <c r="E121" s="6"/>
-      <c r="F121" s="14"/>
-      <c r="O121" s="6"/>
-    </row>
-    <row r="122" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="12">
+      <c r="D155" s="59">
+        <f t="shared" si="5"/>
+        <v>133.22270969560535</v>
+      </c>
+      <c r="E155" s="59">
+        <f t="shared" si="6"/>
+        <v>81.206780534443908</v>
+      </c>
+      <c r="F155" s="59">
+        <f t="shared" si="7"/>
+        <v>55.992980929638492</v>
+      </c>
+      <c r="G155" s="59">
+        <f t="shared" si="8"/>
+        <v>64.794058264135444</v>
+      </c>
+    </row>
+    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C156">
         <f t="shared" si="4"/>
         <v>1434.8799999999999</v>
       </c>
-      <c r="D122" s="12">
-        <f t="shared" si="3"/>
-        <v>57.734400000000001</v>
-      </c>
-      <c r="E122" s="6"/>
-      <c r="F122" s="14"/>
-      <c r="O122" s="6"/>
-    </row>
-    <row r="123" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="12">
+      <c r="D156" s="59">
+        <f t="shared" si="5"/>
+        <v>139.66722286524171</v>
+      </c>
+      <c r="E156" s="59">
+        <f t="shared" si="6"/>
+        <v>82.939194380522281</v>
+      </c>
+      <c r="F156" s="59">
+        <f t="shared" si="7"/>
+        <v>57.22804620536094</v>
+      </c>
+      <c r="G156" s="59">
+        <f t="shared" si="8"/>
+        <v>66.430883229236727</v>
+      </c>
+    </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C157">
         <f t="shared" si="4"/>
         <v>1510.3999999999999</v>
       </c>
-      <c r="D123" s="12">
-        <f>Tres_</f>
-        <v>60</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="13">
-        <f>Pwf1_</f>
-        <v>30</v>
-      </c>
-      <c r="O123" s="6"/>
-    </row>
-    <row r="124" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N185" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N196" s="7"/>
+      <c r="D157" s="59">
+        <f t="shared" si="5"/>
+        <v>146.11645422890436</v>
+      </c>
+      <c r="E157" s="59">
+        <f t="shared" si="6"/>
+        <v>84.686209321695443</v>
+      </c>
+      <c r="F157" s="59">
+        <f t="shared" si="7"/>
+        <v>58.472296167647976</v>
+      </c>
+      <c r="G157" s="59">
+        <f t="shared" si="8"/>
+        <v>68.074071413697624</v>
+      </c>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>1585.9199999999998</v>
+      </c>
+      <c r="D158" s="59">
+        <f>M90</f>
+        <v>152.56799823476953</v>
+      </c>
+      <c r="E158" s="59">
+        <f t="shared" si="6"/>
+        <v>86.447636924654788</v>
+      </c>
+      <c r="F158" s="59">
+        <f t="shared" si="7"/>
+        <v>59.725757188664886</v>
+      </c>
+      <c r="G158" s="59">
+        <f t="shared" si="8"/>
+        <v>69.723913265095263</v>
+      </c>
+    </row>
+    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>1661.4399999999998</v>
+      </c>
+      <c r="D159" s="59">
+        <f t="shared" si="5"/>
+        <v>159.02155168569101</v>
+      </c>
+      <c r="E159" s="59">
+        <f t="shared" si="6"/>
+        <v>88.223282947877337</v>
+      </c>
+      <c r="F159" s="59">
+        <f t="shared" si="7"/>
+        <v>60.988440487117522</v>
+      </c>
+      <c r="G159" s="59">
+        <f t="shared" si="8"/>
+        <v>71.380648629789661</v>
+      </c>
+    </row>
+    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>1736.9599999999998</v>
+      </c>
+      <c r="D160" s="59">
+        <f t="shared" si="5"/>
+        <v>165.47684551001419</v>
+      </c>
+      <c r="E160" s="59">
+        <f t="shared" si="6"/>
+        <v>90.012947835693382</v>
+      </c>
+      <c r="F160" s="59">
+        <f t="shared" si="7"/>
+        <v>62.260344140177573</v>
+      </c>
+      <c r="G160" s="59">
+        <f t="shared" si="8"/>
+        <v>73.044474082363507</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>1812.4799999999998</v>
+      </c>
+      <c r="D161" s="59"/>
+      <c r="E161" s="59">
+        <f>F93</f>
+        <v>95.752907921750307</v>
+      </c>
+      <c r="F161" s="59">
+        <f>T93</f>
+        <v>65.622035052583101</v>
+      </c>
+      <c r="G161" s="59">
+        <f>V93</f>
+        <v>76.163566484058208</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>1887.9999999999998</v>
+      </c>
+      <c r="D162" s="59"/>
+      <c r="E162" s="59">
+        <f>F94</f>
+        <v>101.55</v>
+      </c>
+      <c r="F162" s="59">
+        <f>T94</f>
+        <v>68.956782768131518</v>
+      </c>
+      <c r="G162" s="59">
+        <f>V94</f>
+        <v>79.279412720342748</v>
+      </c>
+    </row>
+    <row r="186" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N197" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F65:R65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/excercises/excercises/120.self_flow_well_with_ESP_новопорт.xlsx
+++ b/excercises/excercises/120.self_flow_well_with_ESP_новопорт.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F6081-52F7-448C-A86E-80118913F35B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3782B3F-418B-4B33-AA8D-920E64D225B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>Q</t>
   </si>
@@ -194,15 +194,9 @@
     <t>Глубина установки насоса</t>
   </si>
   <si>
-    <t>Построить распределение давления для скважины с постоянной продуктивностью</t>
-  </si>
-  <si>
     <t>Ксепарации естественной</t>
   </si>
   <si>
-    <t>Упражнение 2</t>
-  </si>
-  <si>
     <t>Упражнение 1</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
   </si>
   <si>
     <t>версия</t>
-  </si>
-  <si>
-    <t>Расчет распределения давления в скважине</t>
   </si>
   <si>
     <r>
@@ -903,9 +894,6 @@
     <t>Результаты крд</t>
   </si>
   <si>
-    <t>Текущий режим работы</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -915,7 +903,16 @@
     <t>All tube</t>
   </si>
   <si>
-    <t>сепарация проверка</t>
+    <t>Анализ работы скважины, оснащенной ЭЦН, фонтанирующей через затруб</t>
+  </si>
+  <si>
+    <t>Индикаторная диаграмма данной скважины</t>
+  </si>
+  <si>
+    <t>Текущий режим работы (НКТ)</t>
+  </si>
+  <si>
+    <t>Текущий режим работы (ОК)</t>
   </si>
 </sst>
 </file>
@@ -925,7 +922,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1023,8 +1020,14 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,8 +1076,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1151,17 +1160,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1171,7 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,9 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1322,16 +1317,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3674,6 +3677,10 @@
           <c:tx>
             <c:v>Измеренные значения дебита и давления</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="16"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>well!$C$32</c:f>
@@ -3719,6 +3726,10 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="15"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>well!$T$67</c:f>
@@ -3765,6 +3776,8 @@
             </c:strRef>
           </c:tx>
           <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="20"/>
             <c:spPr>
               <a:scene3d>
                 <a:camera prst="orthographicFront"/>
@@ -3779,7 +3792,13 @@
             <c:idx val="0"/>
             <c:marker>
               <c:spPr>
-                <a:ln w="6350"/>
+                <a:ln w="6350">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:alpha val="96000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
                 <a:scene3d>
                   <a:camera prst="orthographicFront"/>
                   <a:lightRig rig="threePt" dir="t"/>
@@ -3842,8 +3861,6 @@
         <c:axId val="228804864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="165"/>
-          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3954,8 +3971,6 @@
         <c:axId val="228805440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110"/>
-          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4182,7 +4197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Текущий режим работы</c:v>
+                  <c:v>Текущий режим работы (НКТ)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4367,11 +4382,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>well!$D$134</c:f>
+              <c:f>well!$E$134</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Текущий режим работы</c:v>
+                  <c:v>Текущий режим работы (ОК)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6332,14 +6347,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>573300</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137872</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>70637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>478450</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>43021</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>12406</xdr:rowOff>
     </xdr:to>
@@ -6370,14 +6385,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>103855</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76640</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>57433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>559295</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>532081</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>152683</xdr:rowOff>
     </xdr:to>
@@ -6408,16 +6423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>132869</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>20009</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>187297</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6447,15 +6462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>629332</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>302760</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>163287</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>158483</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>802822</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>104053</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6480,6 +6495,555 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>204106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>40819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9088F2F4-91F9-41A5-9AC0-0AF9B596A91E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5510893" y="1428749"/>
+          <a:ext cx="6327322" cy="4476749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Общая теория</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>При спуске погружного оборудования</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> в фонтанирующую скважину газожидкостный поток у приема разделяется на 2 составляющие: поток с низким газосодержанием после сепарации естесственной и искусственной в НКТ и поток с большой долей свободного газа в затрубное пространство. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>При этом ЭЦН за счет энергии движения ГЖС работает на холостом ходу, развивая обычный перепад давления по напорной характеристике. Также при дебите большем, чем максимально возможный перепад давления  насоса, может происходить турбинное вращение, насос будет работать как гидравлическое сопротивление.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>В затрубном пространстве за счет большого количество газа будет проихсодить фонтанирование. Далвение в затрбном пространстве будет большим, чем буферное, потому как обратный клапан в затрубе, предназначеныый для сброса газа, будет функционировать как штуцер, дросселируя давления.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Отсюда возникает вопрос, рационально ли устанавливать ЭЦН в фонтанирующую скважину?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>1. Постройте КРД на путях движения жидкости.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>2. ОЦените долю газа в разных точках системы.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>3. Проверьте варианты без разделения потока - чисто фонтанный способ по НКТ или затрубу?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2555037-D101-4F78-A393-4B25A2944BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14314713" y="9974036"/>
+          <a:ext cx="13852073" cy="1442357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Оценка других вариантов эксплуатации скважины</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Предлагается использовать метод узлового анализа для решения данной задачи. Узловая точка - забойное давление - позволяет совместить две системы - модель подъемника при расчете сверху вних от устьевого давления и модель пласта по индикаторной кривой Вогеля, полученной при условиях эксплуатации.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Чтобы оценить другие варианты эксплуатации: фонтанным способом через НКТ или затруб, необходимо знать производительность скважины. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Построим кривую притока данной скважины по Вогелю и получим модель производительности скважины.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Далее зафиксируем устьевое давление,  предположим определенное значение нового дебита и произведем расчет сверху вниз для нахождения забойноного давления.  При этом по забойному давлению и модели притока можно получить дебит скважины. Проверим, совпадают ли дебиты, полученные с помощью расчета двух систем. Если нет, заменяем значение нового дебита до полного согласования. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Согласования двух моделей можно осуществить с помощью встроенного оптимизатора </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Excel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>"Поиск решения", который позволяет минимизировать квадрат разности дебитов, изменяя значение нового дебита.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE43DCB8-16D2-4D4E-B85F-95A5DAB0AC55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5306786" y="7497536"/>
+          <a:ext cx="12981214" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Моделирование двух потоков, разных свойств</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>свойства потока, прошедшего сепарацию и движущегося в НКТ, следует задавать с учетом естесственной и искусственной сепарации на приеме погружного оборудования.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>свойства потока, идущего в ззтрубное пространство, предлагается моделировать отдельной строкой, в которой не будет задана сепарация - весь газ остается при потоке в его естесственном состоянии</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349379D5-1C15-4C23-8420-8AF5F6DFB679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5089071" y="10042072"/>
+          <a:ext cx="8831036" cy="1592035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Адаптация модели скважины и оценка текущей работы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Модель скважины рассчитывается стандартным образом, за исключением того, что через насос и НКТ движется модифицированный флюид (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>строка НКТ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> после сепарации. А в затрубе движется свой - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>строка затруб. Далее, т.к. на АГЗУ замеряется общий дебит, не учитавающий его пути подъема, с помощью коэффициента деления жидкости (показывающего, какая доля жидкости идет через насос в НКТ) предлагается настроить данную модель для согласования устьевых параметров - затрубного и буферного давлений. Варьирование прочих параметров системы не отличается от случаев адаптации обычной работы скважины, оснащенной УЭЦН. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Кроме того, помощь в проверке адекватности модели может оказать графики доли газа в многофазном потоке в различных участках системы. Логично, что в затрубном пространстве он будет значительно больше, чем в НКТ (газлифтный эффект объясняет превышение давления затрубного над буферным)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>462644</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8005F5-14D0-46A7-B93B-FBEF3A558906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13892893" y="20519571"/>
+          <a:ext cx="5946322" cy="938893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>После адаптации</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> модели скважины на индикаторной кривой обазначены режимы работы: текущий, чистое фонтанирование через затруб и НКТ. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Внизу на одном графике можно увидеть распределения давления в скважине на разных режимах работы</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7072,10 +7636,10 @@
   <sheetPr codeName="Worksheet_well">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE197"/>
+  <dimension ref="A1:AF197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7099,10 +7663,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -7111,7 +7675,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7120,538 +7684,619 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="12" t="s">
-        <v>33</v>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13">
         <f>gamma_oil_*1000</f>
         <v>841</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>34</v>
+      <c r="F7" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
-        <v>35</v>
+      <c r="B8" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>1.0049999999999999</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
         <f>gamma_wat_*1000</f>
         <v>1004.9999999999999</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>34</v>
+      <c r="F8" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>36</v>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
         <f>gamma_gas_*1.22</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>200</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="16">
         <f>Rsb_/gamma_oil_</f>
         <v>237.81212841854935</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>39</v>
+      <c r="F10" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
-        <v>40</v>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>862</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="16">
         <f>Rsb_/gamma_oil_</f>
         <v>237.81212841854935</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>39</v>
+      <c r="F11" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>41</v>
+      <c r="B12" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>178</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="16">
         <f>Pb_*1.01325</f>
         <v>180.35849999999999</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>43</v>
+      <c r="F12" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
-        <v>44</v>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f>Tres_*9/5+32</f>
         <v>140</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>45</v>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
-        <v>46</v>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>1.149</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>38</v>
+      <c r="D14" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="23" t="s">
-        <v>74</v>
+      <c r="B15" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="2">
         <v>1.5</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>75</v>
+      <c r="D15" s="14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>47</v>
+    <row r="18" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <f>E18-E20</f>
         <v>1888</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2">
         <v>3361</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>87</v>
+    <row r="19" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="C19" s="2">
         <v>234</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
-        <v>48</v>
+    <row r="20" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>1473</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="2">
         <v>1473</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>49</v>
+    <row r="21" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <f>E21-C19</f>
         <v>1766</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>50</v>
+    <row r="22" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C22" s="2">
         <v>157</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
-        <v>51</v>
+    <row r="23" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <v>73</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
-        <v>76</v>
+    <row r="24" spans="1:5" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="2">
         <v>90</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>52</v>
+      <c r="D24" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="2">
         <f>Dtub_out_-11</f>
         <v>62</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>53</v>
+    <row r="26" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="2">
         <v>100</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="18" t="s">
-        <v>88</v>
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="2">
         <v>56</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>54</v>
+    <row r="28" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="2">
         <v>35</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>55</v>
+    <row r="29" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="2">
         <f>PKsep</f>
         <v>93</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="K29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
-        <v>56</v>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="2">
         <f>TKsep</f>
         <v>33.984000000000002</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
-        <v>57</v>
+    <row r="31" spans="1:5" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="2">
         <v>150</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18" t="s">
-        <v>85</v>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="2">
         <v>125</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
-        <v>58</v>
+    <row r="33" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="2">
         <v>101.55</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
-        <v>59</v>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C34" s="2">
         <f>Q_total_*k_split_liquid</f>
         <v>37.5</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="18" t="s">
-        <v>60</v>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="18" t="s">
-        <v>78</v>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="C36" s="2">
         <f>Q_total_*(1-k_split_liquid)</f>
         <v>87.5</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="36">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="35">
         <f>Dcas_-Dtub_out_</f>
         <v>84</v>
       </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
-        <v>61</v>
+    <row r="40" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C40" s="2">
         <v>250</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="19" t="s">
-        <v>62</v>
+    <row r="41" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C41" s="2">
         <v>2147</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="19" t="s">
-        <v>63</v>
+    <row r="42" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C42" s="2">
         <v>36</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="14">
+    <row r="43" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="13">
         <f>[1]!ESP_id_by_rate(Q_ESP_)</f>
         <v>1033</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="G43" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="14" t="str">
+      <c r="D43" s="18"/>
+      <c r="G43" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+    </row>
+    <row r="44" spans="1:21" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="13" t="str">
         <f>[1]!ESP_name(C43)</f>
         <v>ЭЦН5А-320Э</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="G44" s="21" t="str">
+      <c r="D44" s="18"/>
+      <c r="G44" s="66" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_,,KsepGasSep_,PKsep,TKsep)</f>
         <v>gamma_gas:0,800;gamma_oil:0,841;gamma_wat:1,005;rsb_m3m3:200,000;rp_m3m3:862,000;pb_atma:178,000;tres_C:60,000;bob_m3m3:1,149;muob_cP:1,500;PVTcorr:0;ksep_fr:0,950;pksep_atma:93,000;tksep_C:33,984;</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="13">
         <f>[1]!esp_max_rate_m3day(Freq_,PumpID_)*1</f>
         <v>396</v>
       </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="19" t="s">
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <f>INT(Head_ESP_/[1]!ESP_head_m(Q_ESP_,1,,PumpID_))</f>
         <v>399</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="19" t="s">
-        <v>68</v>
+      <c r="G46" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C47" s="5">
         <v>0.95</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="G47" s="21" t="str">
+      <c r="D47" s="18"/>
+      <c r="G47" s="66" t="str">
         <f>[1]!ESP_Encode_string(PumpID_,Head_ESP_,Freq_)</f>
         <v>ESP_ID:1033,00000;HeadNom_m:2147,00000;ESPfreq_Hz:36,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tintake_C:85,00000;Tdis_C:85,00000;KsepGS_fr:0,00000;ESP_energy_fact_Whday:0,00000;ESP_cable_type:0;ESP_Hmes_m:0,00000;GasDegtType:0;Kdegr:0,00000;PKV_work_min:-1,00000;PKV_stop_min:-1,00000;</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="37">
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="66"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="36">
         <v>93</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="19" t="s">
-        <v>70</v>
+      <c r="B49" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="C49" s="8">
         <f>D84</f>
         <v>33.984000000000002</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="G49" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G50" s="21" t="str">
+      <c r="G50" s="66" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,mu_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,841;gamma_wat:1,005;rsb_m3m3:200,000;rp_m3m3:862,000;pb_atma:178,000;tres_C:60,000;bob_m3m3:1,149;muob_cP:1,500;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -7659,130 +8304,122 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
-        <v>71</v>
+      <c r="B52" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C52" s="2">
         <v>178</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B53" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="22">
+      <c r="B53" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="21">
         <f>[1]!IPR_PI_sm3dayatm(Q_total_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>2.0059287843553832</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
-        <v>73</v>
+      <c r="B54" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="19" t="s">
-        <v>98</v>
+      <c r="B55" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="C55" s="2">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,0,fw_,Pb_)</f>
         <v>199.30468246575165</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="2">
         <v>25</v>
       </c>
-      <c r="D58" s="13"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="62" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="U62" t="s">
-        <v>103</v>
-      </c>
-      <c r="V62">
+      <c r="U62" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="V62" s="61">
         <f>Dtub_</f>
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>29</v>
-      </c>
-      <c r="T63">
-        <f>(T66-Q_annular_all_in)/T66</f>
-        <v>-3.6995952501118826E-14</v>
-      </c>
-      <c r="V63">
-        <f>(V66-Q_tube_all_in)/V66</f>
-        <v>-5.7608244602138988E-14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="S64" t="s">
-        <v>102</v>
-      </c>
-      <c r="T64" s="39">
+      <c r="S64" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="T64" s="62">
         <f>(T66-Q_annular_all_in)^2</f>
         <v>3.5285230797782033E-23</v>
       </c>
-      <c r="U64" t="s">
-        <v>102</v>
-      </c>
-      <c r="V64" s="39">
+      <c r="U64" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="V64" s="62">
         <f>(V66-Q_tube_all_in)^2</f>
         <v>7.5144996565181054E-23</v>
       </c>
     </row>
-    <row r="65" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
-      <c r="O65" s="51"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="T65" s="65"/>
-      <c r="U65" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="V65" s="65"/>
+    <row r="65" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="V65" s="50"/>
       <c r="W65" s="63"/>
       <c r="X65" s="63"/>
       <c r="Y65" s="63"/>
@@ -7792,2702 +8429,2705 @@
       <c r="AC65" s="63"/>
       <c r="AD65" s="63"/>
       <c r="AE65" s="63"/>
-    </row>
-    <row r="66" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+      <c r="AF65" s="64"/>
+    </row>
+    <row r="66" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="2">
         <v>0.01</v>
       </c>
-      <c r="J66" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="48">
+      <c r="J66" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="47">
         <v>0.3</v>
       </c>
-      <c r="S66" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="T66" s="61">
+      <c r="S66" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="T66" s="60">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,T94,fw_,Pb_)</f>
         <v>160.56181472215906</v>
       </c>
-      <c r="U66" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="V66" s="61">
+      <c r="U66" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="V66" s="60">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,V94,fw_,Pb_)</f>
         <v>150.47536053461621</v>
       </c>
-    </row>
-    <row r="67" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="L67" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="M67" s="50">
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+      <c r="Z66" s="64"/>
+      <c r="AA66" s="64"/>
+      <c r="AB66" s="64"/>
+      <c r="AC66" s="64"/>
+      <c r="AD66" s="64"/>
+      <c r="AE66" s="64"/>
+      <c r="AF66" s="64"/>
+    </row>
+    <row r="67" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="M67" s="49">
         <f>ABS((L69-M69)/L69)</f>
         <v>4.5077430786842447E-2</v>
       </c>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="R67" s="43">
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="R67" s="42">
         <f>ABS((R69-Q69)/R69)</f>
         <v>5.9689744531699826E-2</v>
       </c>
-      <c r="S67" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="T67" s="61">
+      <c r="S67" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="T67" s="60">
         <v>160.561814722165</v>
       </c>
-      <c r="U67" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="V67" s="61">
+      <c r="U67" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="V67" s="60">
         <v>150.47536053462488</v>
       </c>
     </row>
-    <row r="68" spans="3:31" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="27" t="s">
+    <row r="68" spans="3:32" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" s="26" t="s">
+      <c r="E68" s="10"/>
+      <c r="F68" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="J68" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="K68" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" s="47" t="s">
+      <c r="I68" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K68" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L68" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="M68" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="N68" s="33" t="s">
+      <c r="M68" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N68" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O68" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P68" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q68" s="47" t="s">
+      <c r="O68" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="R68" s="47" t="s">
+      <c r="P68" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="S68" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="T68" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="U68" s="47" t="s">
+      <c r="Q68" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="R68" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="S68" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="T68" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="U68" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="V68" s="62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="28">
+      <c r="V68" s="46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="27">
         <v>0</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D69" s="27">
         <f t="shared" ref="D69:D94" si="0">D70-Tgrad*(C70-C69)/100</f>
         <v>5.3290705182007514E-15</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,F70,PVT_str_,theta_,Dtub_,,D70,D69)</f>
         <v>5.3393064593970516</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="41">
         <f>[1]!MF_gas_fraction_d(Q69,D69,fw_,PVT_str_annular_)</f>
         <v>0.92015271286730826</v>
       </c>
-      <c r="K69" s="32">
+      <c r="K69" s="31">
         <f>[1]!MF_gas_fraction_d(M69,D69,fw_,PVT_str_)</f>
         <v>0.65283310406969208</v>
       </c>
-      <c r="L69" s="34">
+      <c r="L69" s="33">
         <f>Pbuf_</f>
         <v>35</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C69,M70,PVT_str_,theta_,Dtub_,1,D70,D69)</f>
         <v>36.577710077539486</v>
       </c>
-      <c r="Q69" s="22">
+      <c r="Q69" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C69,Q70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D69)</f>
         <v>52.65737430622481</v>
       </c>
-      <c r="R69" s="35">
+      <c r="R69" s="34">
         <f>Pannular_</f>
         <v>56</v>
       </c>
-      <c r="S69" s="35">
+      <c r="S69" s="34">
         <v>35</v>
       </c>
-      <c r="T69" s="59"/>
-      <c r="U69" s="35">
+      <c r="T69" s="58"/>
+      <c r="U69" s="34">
         <v>35</v>
       </c>
-      <c r="V69" s="59"/>
-    </row>
-    <row r="70" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="28">
+      <c r="V69" s="58"/>
+    </row>
+    <row r="70" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="27">
         <f t="shared" ref="C70:C88" si="1">C69+Hmes_/N_</f>
         <v>75.52</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="27">
         <f t="shared" si="0"/>
         <v>2.2656000000000054</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,F71,PVT_str_,theta_,Dtub_,,D71,D70)</f>
         <v>6.7392983362957732</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="41">
         <f>[1]!MF_gas_fraction_d(Q70,D70,fw_,PVT_str_annular_)</f>
         <v>0.91873980465304317</v>
       </c>
-      <c r="K70" s="32">
+      <c r="K70" s="31">
         <f>[1]!MF_gas_fraction_d(M70,D70,fw_,PVT_str_)</f>
         <v>0.61897642314752732</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C69,C70,L69,PVT_str_,theta_,Dtub_,1,D69,D70)</f>
         <v>38.903344053142149</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C70,M71,PVT_str_,theta_,Dtub_,1,D71,D70)</f>
         <v>40.579388524205001</v>
       </c>
-      <c r="Q70" s="22">
+      <c r="Q70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C70,Q71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D70)</f>
         <v>54.114873109414077</v>
       </c>
-      <c r="R70" s="22">
+      <c r="R70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C69,C70,R69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D70)</f>
         <v>57.53850927604509</v>
       </c>
-      <c r="S70" s="22">
+      <c r="S70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C69,C70,S69,PVT_str_annular_,theta_,d_annular_pr,1,D69,D70)</f>
         <v>36.160146867682002</v>
       </c>
-      <c r="T70" s="59"/>
-      <c r="U70" s="22">
+      <c r="T70" s="58"/>
+      <c r="U70" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C69,C70,U69,PVT_str_annular_,theta_,d_tube_all_in,1,D69,D70)</f>
         <v>36.886835479293495</v>
       </c>
-      <c r="V70" s="59"/>
-    </row>
-    <row r="71" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="28">
+      <c r="V70" s="58"/>
+    </row>
+    <row r="71" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="27">
         <f t="shared" si="1"/>
         <v>151.04</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D71" s="27">
         <f t="shared" si="0"/>
         <v>4.5312000000000054</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,F72,PVT_str_,theta_,Dtub_,,D72,D71)</f>
         <v>8.2967272134675056</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="41">
         <f>[1]!MF_gas_fraction_d(Q71,D71,fw_,PVT_str_annular_)</f>
         <v>0.9173410026336507</v>
       </c>
-      <c r="K71" s="32">
+      <c r="K71" s="31">
         <f>[1]!MF_gas_fraction_d(M71,D71,fw_,PVT_str_)</f>
         <v>0.58413823753104355</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C70,C71,L70,PVT_str_,theta_,Dtub_,1,D70,D71)</f>
         <v>43.017426383643922</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C71,M72,PVT_str_,theta_,Dtub_,1,D72,D71)</f>
         <v>44.789374102308528</v>
       </c>
-      <c r="Q71" s="22">
+      <c r="Q71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C71,Q72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D71)</f>
         <v>55.585072142926819</v>
       </c>
-      <c r="R71" s="22">
+      <c r="R71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C70,C71,R70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D71)</f>
         <v>59.090759053093933</v>
       </c>
-      <c r="S71" s="22">
+      <c r="S71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C70,C71,S70,PVT_str_annular_,theta_,d_annular_pr,1,D70,D71)</f>
         <v>37.303800171146939</v>
       </c>
-      <c r="T71" s="59"/>
-      <c r="U71" s="22">
+      <c r="T71" s="58"/>
+      <c r="U71" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C70,C71,U70,PVT_str_annular_,theta_,d_tube_all_in,1,D70,D71)</f>
         <v>38.679980482938056</v>
       </c>
-      <c r="V71" s="59"/>
-    </row>
-    <row r="72" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="28">
+      <c r="V71" s="58"/>
+    </row>
+    <row r="72" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="27">
         <f t="shared" si="1"/>
         <v>226.56</v>
       </c>
-      <c r="D72" s="28">
+      <c r="D72" s="27">
         <f t="shared" si="0"/>
         <v>6.7968000000000064</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,F73,PVT_str_,theta_,Dtub_,,D73,D72)</f>
         <v>10.000688670184021</v>
       </c>
-      <c r="J72" s="42">
+      <c r="J72" s="41">
         <f>[1]!MF_gas_fraction_d(Q72,D72,fw_,PVT_str_annular_)</f>
         <v>0.91595358111919012</v>
       </c>
-      <c r="K72" s="32">
+      <c r="K72" s="31">
         <f>[1]!MF_gas_fraction_d(M72,D72,fw_,PVT_str_)</f>
         <v>0.54849595222159797</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C71,C72,L71,PVT_str_,theta_,Dtub_,1,D71,D72)</f>
         <v>47.333531181329711</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C72,M73,PVT_str_,theta_,Dtub_,1,D73,D72)</f>
         <v>49.198812704115035</v>
       </c>
-      <c r="Q72" s="22">
+      <c r="Q72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C72,Q73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D72)</f>
         <v>57.06933968016191</v>
       </c>
-      <c r="R72" s="22">
+      <c r="R72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C71,C72,R71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D72)</f>
         <v>60.657873366832156</v>
       </c>
-      <c r="S72" s="22">
+      <c r="S72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C71,C72,S71,PVT_str_annular_,theta_,d_annular_pr,1,D71,D72)</f>
         <v>38.439214226147868</v>
       </c>
-      <c r="T72" s="59"/>
-      <c r="U72" s="22">
+      <c r="T72" s="58"/>
+      <c r="U72" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C71,C72,U71,PVT_str_annular_,theta_,d_tube_all_in,1,D71,D72)</f>
         <v>40.411714892395302</v>
       </c>
-      <c r="V72" s="59"/>
-    </row>
-    <row r="73" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="28">
+      <c r="V72" s="58"/>
+    </row>
+    <row r="73" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="27">
         <f t="shared" si="1"/>
         <v>302.08</v>
       </c>
-      <c r="D73" s="28">
+      <c r="D73" s="27">
         <f t="shared" si="0"/>
         <v>9.0624000000000056</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,F74,PVT_str_,theta_,Dtub_,,D74,D73)</f>
         <v>11.858509525145102</v>
       </c>
-      <c r="J73" s="42">
+      <c r="J73" s="41">
         <f>[1]!MF_gas_fraction_d(Q73,D73,fw_,PVT_str_annular_)</f>
         <v>0.91457590114523357</v>
       </c>
-      <c r="K73" s="32">
+      <c r="K73" s="31">
         <f>[1]!MF_gas_fraction_d(M73,D73,fw_,PVT_str_)</f>
         <v>0.51221737150466795</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C72,C73,L72,PVT_str_,theta_,Dtub_,1,D72,D73)</f>
         <v>51.843439796531065</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C73,M74,PVT_str_,theta_,Dtub_,1,D74,D73)</f>
         <v>53.799132021723409</v>
       </c>
-      <c r="Q73" s="22">
+      <c r="Q73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C73,Q74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D73)</f>
         <v>58.568492791918572</v>
       </c>
-      <c r="R73" s="22">
+      <c r="R73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C72,C73,R72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D73)</f>
         <v>62.240507253950597</v>
       </c>
-      <c r="S73" s="22">
+      <c r="S73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C72,C73,S72,PVT_str_annular_,theta_,d_annular_pr,1,D72,D73)</f>
         <v>39.571508418698741</v>
       </c>
-      <c r="T73" s="59"/>
-      <c r="U73" s="22">
+      <c r="T73" s="58"/>
+      <c r="U73" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C72,C73,U72,PVT_str_annular_,theta_,d_tube_all_in,1,D72,D73)</f>
         <v>42.101691540237574</v>
       </c>
-      <c r="V73" s="59"/>
-    </row>
-    <row r="74" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="28">
+      <c r="V73" s="58"/>
+    </row>
+    <row r="74" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="27">
         <f t="shared" si="1"/>
         <v>377.59999999999997</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D74" s="27">
         <f t="shared" si="0"/>
         <v>11.328000000000005</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,F75,PVT_str_,theta_,Dtub_,,D75,D74)</f>
         <v>13.874767871831436</v>
       </c>
-      <c r="J74" s="42">
+      <c r="J74" s="41">
         <f>[1]!MF_gas_fraction_d(Q74,D74,fw_,PVT_str_annular_)</f>
         <v>0.91320695678594999</v>
       </c>
-      <c r="K74" s="32">
+      <c r="K74" s="31">
         <f>[1]!MF_gas_fraction_d(M74,D74,fw_,PVT_str_)</f>
         <v>0.47546722047595708</v>
       </c>
-      <c r="L74" s="22">
+      <c r="L74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C73,C74,L73,PVT_str_,theta_,Dtub_,1,D73,D74)</f>
         <v>56.538281363061039</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C74,M75,PVT_str_,theta_,Dtub_,1,D75,D74)</f>
         <v>58.581220391191245</v>
       </c>
-      <c r="Q74" s="22">
+      <c r="Q74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C74,Q75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D74)</f>
         <v>60.083028961936847</v>
       </c>
-      <c r="R74" s="22">
+      <c r="R74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C73,C74,R73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D74)</f>
         <v>63.839042943779248</v>
       </c>
-      <c r="S74" s="22">
+      <c r="S74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C73,C74,S73,PVT_str_annular_,theta_,d_annular_pr,1,D73,D74)</f>
         <v>40.704048719298328</v>
       </c>
-      <c r="T74" s="59"/>
-      <c r="U74" s="22">
+      <c r="T74" s="58"/>
+      <c r="U74" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C73,C74,U73,PVT_str_annular_,theta_,d_tube_all_in,1,D73,D74)</f>
         <v>43.762696313942598</v>
       </c>
-      <c r="V74" s="59"/>
-    </row>
-    <row r="75" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="28">
+      <c r="V74" s="58"/>
+    </row>
+    <row r="75" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="27">
         <f t="shared" si="1"/>
         <v>453.11999999999995</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="27">
         <f t="shared" si="0"/>
         <v>13.593600000000004</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,F76,PVT_str_,theta_,Dtub_,,D76,D75)</f>
         <v>16.054334115455038</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="41">
         <f>[1]!MF_gas_fraction_d(Q75,D75,fw_,PVT_str_annular_)</f>
         <v>0.91184613587156615</v>
       </c>
-      <c r="K75" s="32">
+      <c r="K75" s="31">
         <f>[1]!MF_gas_fraction_d(M75,D75,fw_,PVT_str_)</f>
         <v>0.43840361562539271</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C74,C75,L74,PVT_str_,theta_,Dtub_,1,D74,D75)</f>
         <v>61.408840073912209</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C75,M76,PVT_str_,theta_,Dtub_,1,D76,D75)</f>
         <v>63.535710943398179</v>
       </c>
-      <c r="Q75" s="22">
+      <c r="Q75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C75,Q76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D75)</f>
         <v>61.613248042741503</v>
       </c>
-      <c r="R75" s="22">
+      <c r="R75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C74,C75,R74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D75)</f>
         <v>65.453693680092002</v>
       </c>
-      <c r="S75" s="22">
+      <c r="S75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C74,C75,S74,PVT_str_annular_,theta_,d_annular_pr,1,D74,D75)</f>
         <v>41.839149092173834</v>
       </c>
-      <c r="T75" s="59"/>
-      <c r="U75" s="22">
+      <c r="T75" s="58"/>
+      <c r="U75" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C74,C75,U74,PVT_str_annular_,theta_,d_tube_all_in,1,D74,D75)</f>
         <v>45.40347778715013</v>
       </c>
-      <c r="V75" s="59"/>
-    </row>
-    <row r="76" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="28">
+      <c r="V75" s="58"/>
+    </row>
+    <row r="76" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="27">
         <f t="shared" si="1"/>
         <v>528.64</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D76" s="27">
         <f t="shared" si="0"/>
         <v>15.859200000000005</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,F77,PVT_str_,theta_,Dtub_,,D77,D76)</f>
         <v>18.470435847449501</v>
       </c>
-      <c r="J76" s="42">
+      <c r="J76" s="41">
         <f>[1]!MF_gas_fraction_d(Q76,D76,fw_,PVT_str_annular_)</f>
         <v>0.91049308452883115</v>
       </c>
-      <c r="K76" s="32">
+      <c r="K76" s="31">
         <f>[1]!MF_gas_fraction_d(M76,D76,fw_,PVT_str_)</f>
         <v>0.40118309637495242</v>
       </c>
-      <c r="L76" s="22">
+      <c r="L76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C75,C76,L75,PVT_str_,theta_,Dtub_,1,D75,D76)</f>
         <v>66.445784979953501</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C76,M77,PVT_str_,theta_,Dtub_,1,D77,D76)</f>
         <v>68.652254359901335</v>
       </c>
-      <c r="Q76" s="22">
+      <c r="Q76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C76,Q77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D76)</f>
         <v>63.159321140728018</v>
       </c>
-      <c r="R76" s="22">
+      <c r="R76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C75,C76,R75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D76)</f>
         <v>67.084562562025411</v>
       </c>
-      <c r="S76" s="22">
+      <c r="S76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C75,C76,S75,PVT_str_annular_,theta_,d_annular_pr,1,D75,D76)</f>
         <v>42.978456656015922</v>
       </c>
-      <c r="T76" s="59"/>
-      <c r="U76" s="22">
+      <c r="T76" s="58"/>
+      <c r="U76" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C75,C76,U75,PVT_str_annular_,theta_,d_tube_all_in,1,D75,D76)</f>
         <v>47.030263623864791</v>
       </c>
-      <c r="V76" s="59"/>
-    </row>
-    <row r="77" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="28">
+      <c r="V76" s="58"/>
+    </row>
+    <row r="77" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="27">
         <f t="shared" si="1"/>
         <v>604.16</v>
       </c>
-      <c r="D77" s="28">
+      <c r="D77" s="27">
         <f t="shared" si="0"/>
         <v>18.124800000000004</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,F78,PVT_str_,theta_,Dtub_,,D78,D77)</f>
         <v>21.161528069203303</v>
       </c>
-      <c r="J77" s="42">
+      <c r="J77" s="41">
         <f>[1]!MF_gas_fraction_d(Q77,D77,fw_,PVT_str_annular_)</f>
         <v>0.90914762597562448</v>
       </c>
-      <c r="K77" s="32">
+      <c r="K77" s="31">
         <f>[1]!MF_gas_fraction_d(M77,D77,fw_,PVT_str_)</f>
         <v>0.36402742003202399</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C76,C77,L76,PVT_str_,theta_,Dtub_,1,D76,D77)</f>
         <v>71.632059846291753</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C77,M78,PVT_str_,theta_,Dtub_,1,D78,D77)</f>
         <v>73.911073063387562</v>
       </c>
-      <c r="Q77" s="22">
+      <c r="Q77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C77,Q78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D77)</f>
         <v>64.721331755278115</v>
       </c>
-      <c r="R77" s="22">
+      <c r="R77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C76,C77,R76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D77)</f>
         <v>68.731677752667693</v>
       </c>
-      <c r="S77" s="22">
+      <c r="S77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C76,C77,S76,PVT_str_annular_,theta_,d_annular_pr,1,D76,D77)</f>
         <v>44.12317662805156</v>
       </c>
-      <c r="T77" s="59"/>
-      <c r="U77" s="22">
+      <c r="T77" s="58"/>
+      <c r="U77" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C76,C77,U76,PVT_str_annular_,theta_,d_tube_all_in,1,D76,D77)</f>
         <v>48.647629967673112</v>
       </c>
-      <c r="V77" s="59"/>
-    </row>
-    <row r="78" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="28">
+      <c r="V77" s="58"/>
+    </row>
+    <row r="78" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="27">
         <f t="shared" si="1"/>
         <v>679.68</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="27">
         <f t="shared" si="0"/>
         <v>20.390400000000003</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,F79,PVT_str_,theta_,Dtub_,,D79,D78)</f>
         <v>24.135391640418938</v>
       </c>
-      <c r="J78" s="42">
+      <c r="J78" s="41">
         <f>[1]!MF_gas_fraction_d(Q78,D78,fw_,PVT_str_annular_)</f>
         <v>0.9078097094403984</v>
       </c>
-      <c r="K78" s="32">
+      <c r="K78" s="31">
         <f>[1]!MF_gas_fraction_d(M78,D78,fw_,PVT_str_)</f>
         <v>0.32693867028879164</v>
       </c>
-      <c r="L78" s="22">
+      <c r="L78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C77,C78,L77,PVT_str_,theta_,Dtub_,1,D77,D78)</f>
         <v>76.963438544647985</v>
       </c>
-      <c r="M78" s="22">
+      <c r="M78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C78,M79,PVT_str_,theta_,Dtub_,1,D79,D78)</f>
         <v>79.317520938934564</v>
       </c>
-      <c r="Q78" s="22">
+      <c r="Q78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C78,Q79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D78)</f>
         <v>66.299301487217193</v>
       </c>
-      <c r="R78" s="22">
+      <c r="R78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C77,C78,R77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D78)</f>
         <v>70.395014493630129</v>
       </c>
-      <c r="S78" s="22">
+      <c r="S78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C77,C78,S77,PVT_str_annular_,theta_,d_annular_pr,1,D77,D78)</f>
         <v>45.274210398614208</v>
       </c>
-      <c r="T78" s="59"/>
-      <c r="U78" s="22">
+      <c r="T78" s="58"/>
+      <c r="U78" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C77,C78,U77,PVT_str_annular_,theta_,d_tube_all_in,1,D77,D78)</f>
         <v>50.259027559124085</v>
       </c>
-      <c r="V78" s="59"/>
-    </row>
-    <row r="79" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="28">
+      <c r="V78" s="58"/>
+    </row>
+    <row r="79" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="27">
         <f t="shared" si="1"/>
         <v>755.19999999999993</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D79" s="27">
         <f t="shared" si="0"/>
         <v>22.656000000000002</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,F80,PVT_str_,theta_,Dtub_,,D80,D79)</f>
         <v>27.362480283859647</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="41">
         <f>[1]!MF_gas_fraction_d(Q79,D79,fw_,PVT_str_annular_)</f>
         <v>0.90647937665642953</v>
       </c>
-      <c r="K79" s="32">
+      <c r="K79" s="31">
         <f>[1]!MF_gas_fraction_d(M79,D79,fw_,PVT_str_)</f>
         <v>0.29005251006184557</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C78,C79,L78,PVT_str_,theta_,Dtub_,1,D78,D79)</f>
         <v>82.434764077068635</v>
       </c>
-      <c r="M79" s="22">
+      <c r="M79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C79,M80,PVT_str_,theta_,Dtub_,1,D80,D79)</f>
         <v>84.859317218567682</v>
       </c>
-      <c r="Q79" s="22">
+      <c r="Q79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C79,Q80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D79)</f>
         <v>67.893206721573932</v>
       </c>
-      <c r="R79" s="22">
+      <c r="R79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C78,C79,R78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D79)</f>
         <v>72.074509379328731</v>
       </c>
-      <c r="S79" s="22">
+      <c r="S79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C78,C79,S78,PVT_str_annular_,theta_,d_annular_pr,1,D78,D79)</f>
         <v>46.432243837935104</v>
       </c>
-      <c r="T79" s="59"/>
-      <c r="U79" s="22">
+      <c r="T79" s="58"/>
+      <c r="U79" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C78,C79,U78,PVT_str_annular_,theta_,d_tube_all_in,1,D78,D79)</f>
         <v>51.867114560742706</v>
       </c>
-      <c r="V79" s="59"/>
-    </row>
-    <row r="80" spans="3:31" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="28">
+      <c r="V79" s="58"/>
+    </row>
+    <row r="80" spans="3:32" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="27">
         <f t="shared" si="1"/>
         <v>830.71999999999991</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D80" s="27">
         <f t="shared" si="0"/>
         <v>24.921600000000002</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,F81,PVT_str_,theta_,Dtub_,,D81,D80)</f>
         <v>30.858093804742449</v>
       </c>
-      <c r="J80" s="42">
+      <c r="J80" s="41">
         <f>[1]!MF_gas_fraction_d(Q80,D80,fw_,PVT_str_annular_)</f>
         <v>0.90515673904059391</v>
       </c>
-      <c r="K80" s="32">
+      <c r="K80" s="31">
         <f>[1]!MF_gas_fraction_d(M80,D80,fw_,PVT_str_)</f>
         <v>0.25345436082246559</v>
       </c>
-      <c r="L80" s="22">
+      <c r="L80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C79,C80,L79,PVT_str_,theta_,Dtub_,1,D79,D80)</f>
         <v>88.036463436222832</v>
       </c>
-      <c r="M80" s="22">
+      <c r="M80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C80,M81,PVT_str_,theta_,Dtub_,1,D81,D80)</f>
         <v>90.528442166674054</v>
       </c>
-      <c r="Q80" s="22">
+      <c r="Q80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C80,Q81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D80)</f>
         <v>69.502989805401981</v>
       </c>
-      <c r="R80" s="22">
+      <c r="R80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C79,C80,R79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D80)</f>
         <v>73.770069900704499</v>
       </c>
-      <c r="S80" s="22">
+      <c r="S80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C79,C80,S79,PVT_str_annular_,theta_,d_annular_pr,1,D79,D80)</f>
         <v>47.59780576069582</v>
       </c>
-      <c r="T80" s="59"/>
-      <c r="U80" s="22">
+      <c r="T80" s="58"/>
+      <c r="U80" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C79,C80,U79,PVT_str_annular_,theta_,d_tube_all_in,1,D79,D80)</f>
         <v>53.473975075683562</v>
       </c>
-      <c r="V80" s="59"/>
+      <c r="V80" s="58"/>
     </row>
     <row r="81" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="28">
+      <c r="C81" s="27">
         <f t="shared" si="1"/>
         <v>906.2399999999999</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="27">
         <f t="shared" si="0"/>
         <v>27.187200000000001</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,F82,PVT_str_,theta_,Dtub_,,D82,D81)</f>
         <v>34.619582448018207</v>
       </c>
-      <c r="J81" s="42">
+      <c r="J81" s="41">
         <f>[1]!MF_gas_fraction_d(Q81,D81,fw_,PVT_str_annular_)</f>
         <v>0.90384196160066221</v>
       </c>
-      <c r="K81" s="32">
+      <c r="K81" s="31">
         <f>[1]!MF_gas_fraction_d(M81,D81,fw_,PVT_str_)</f>
         <v>0.21720849824465949</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C80,C81,L80,PVT_str_,theta_,Dtub_,1,D80,D81)</f>
         <v>93.761042640641108</v>
       </c>
-      <c r="M81" s="22">
+      <c r="M81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C81,M82,PVT_str_,theta_,Dtub_,1,D82,D81)</f>
         <v>96.317504847455112</v>
       </c>
-      <c r="Q81" s="22">
+      <c r="Q81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C82,C81,Q82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D81)</f>
         <v>71.128566747846563</v>
       </c>
-      <c r="R81" s="22">
+      <c r="R81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C80,C81,R80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D81)</f>
         <v>75.481580997274605</v>
       </c>
-      <c r="S81" s="22">
+      <c r="S81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C80,C81,S80,PVT_str_annular_,theta_,d_annular_pr,1,D80,D81)</f>
         <v>48.77130779588655</v>
       </c>
-      <c r="T81" s="59"/>
-      <c r="U81" s="22">
+      <c r="T81" s="58"/>
+      <c r="U81" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C80,C81,U80,PVT_str_annular_,theta_,d_tube_all_in,1,D80,D81)</f>
         <v>55.081267232781876</v>
       </c>
-      <c r="V81" s="59"/>
+      <c r="V81" s="58"/>
     </row>
     <row r="82" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="28">
+      <c r="C82" s="27">
         <f t="shared" si="1"/>
         <v>981.75999999999988</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D82" s="27">
         <f t="shared" si="0"/>
         <v>29.4528</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,F83,PVT_str_,theta_,Dtub_,,D83,D82)</f>
         <v>38.642739291082137</v>
       </c>
-      <c r="J82" s="42">
+      <c r="J82" s="41">
         <f>[1]!MF_gas_fraction_d(Q82,D82,fw_,PVT_str_annular_)</f>
         <v>0.90253525121336853</v>
       </c>
-      <c r="K82" s="32">
+      <c r="K82" s="31">
         <f>[1]!MF_gas_fraction_d(M82,D82,fw_,PVT_str_)</f>
         <v>0.18135826503330091</v>
       </c>
-      <c r="L82" s="22">
+      <c r="L82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C81,C82,L81,PVT_str_,theta_,Dtub_,1,D81,D82)</f>
         <v>99.601494074172109</v>
       </c>
-      <c r="M82" s="22">
+      <c r="M82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C82,M83,PVT_str_,theta_,Dtub_,1,D83,D82)</f>
         <v>102.21961922187499</v>
       </c>
-      <c r="Q82" s="22">
+      <c r="Q82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C83,C82,Q83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D82)</f>
         <v>72.769832656480276</v>
       </c>
-      <c r="R82" s="22">
+      <c r="R82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C81,C82,R81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D82)</f>
         <v>77.208909661984109</v>
       </c>
-      <c r="S82" s="22">
+      <c r="S82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C81,C82,S81,PVT_str_annular_,theta_,d_annular_pr,1,D81,D82)</f>
         <v>49.953072283811515</v>
       </c>
-      <c r="T82" s="59"/>
-      <c r="U82" s="22">
+      <c r="T82" s="58"/>
+      <c r="U82" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C81,C82,U81,PVT_str_annular_,theta_,d_tube_all_in,1,D81,D82)</f>
         <v>56.69032632335243</v>
       </c>
-      <c r="V82" s="59"/>
+      <c r="V82" s="58"/>
     </row>
     <row r="83" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="28">
+      <c r="C83" s="27">
         <f t="shared" si="1"/>
         <v>1057.28</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="27">
         <f t="shared" si="0"/>
         <v>31.718400000000003</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,F84,PVT_str_,theta_,Dtub_,,D84,D83)</f>
         <v>42.921807164085216</v>
       </c>
-      <c r="J83" s="42">
+      <c r="J83" s="41">
         <f>[1]!MF_gas_fraction_d(Q83,D83,fw_,PVT_str_annular_)</f>
         <v>0.9012368478231445</v>
       </c>
-      <c r="K83" s="32">
+      <c r="K83" s="31">
         <f>[1]!MF_gas_fraction_d(M83,D83,fw_,PVT_str_)</f>
         <v>0.14592567773476281</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C82,C83,L82,PVT_str_,theta_,Dtub_,1,D82,D83)</f>
         <v>105.5513258422025</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C83,M84,PVT_str_,theta_,Dtub_,1,D84,D83)</f>
         <v>108.22842982902787</v>
       </c>
-      <c r="Q83" s="22">
+      <c r="Q83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C84,C83,Q84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D83)</f>
         <v>74.426665661882907</v>
       </c>
-      <c r="R83" s="22">
+      <c r="R83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C82,C83,R82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D83)</f>
         <v>78.951908247428449</v>
       </c>
-      <c r="S83" s="22">
+      <c r="S83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C82,C83,S82,PVT_str_annular_,theta_,d_annular_pr,1,D82,D83)</f>
         <v>51.143352241771431</v>
       </c>
-      <c r="T83" s="59"/>
-      <c r="U83" s="22">
+      <c r="T83" s="58"/>
+      <c r="U83" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C82,C83,U82,PVT_str_annular_,theta_,d_tube_all_in,1,D82,D83)</f>
         <v>58.302238371136788</v>
       </c>
-      <c r="V83" s="59"/>
+      <c r="V83" s="58"/>
     </row>
     <row r="84" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="28">
+      <c r="C84" s="27">
         <f t="shared" si="1"/>
         <v>1132.8</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D84" s="27">
         <f t="shared" si="0"/>
         <v>33.984000000000002</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,F85,PVT_str_,theta_,Dtub_,,D85,D84)</f>
         <v>47.449619934817932</v>
       </c>
-      <c r="J84" s="42">
+      <c r="J84" s="41">
         <f>[1]!MF_gas_fraction_d(Q84,D84,fw_,PVT_str_annular_)</f>
         <v>0.89994701764546969</v>
       </c>
-      <c r="K84" s="32">
+      <c r="K84" s="31">
         <f>[1]!MF_gas_fraction_d(M84,D84,fw_,PVT_str_)</f>
         <v>0.11091181474991453</v>
       </c>
-      <c r="L84" s="22">
+      <c r="L84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C83,C84,L83,PVT_str_,theta_,Dtub_,1,D83,D84)</f>
         <v>111.60457856347344</v>
       </c>
-      <c r="M84" s="22">
+      <c r="M84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C84,M85,PVT_str_,theta_,Dtub_,1,D85,D84)</f>
         <v>114.33812624613876</v>
       </c>
-      <c r="N84" s="38"/>
-      <c r="Q84" s="22">
+      <c r="N84" s="37"/>
+      <c r="Q84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C85,C84,Q85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D84)</f>
         <v>76.098929810020806</v>
       </c>
-      <c r="R84" s="22">
+      <c r="R84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C83,C84,R83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D84)</f>
         <v>80.710416887874061</v>
       </c>
-      <c r="S84" s="22">
+      <c r="S84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C83,C84,S83,PVT_str_annular_,theta_,d_annular_pr,1,D83,D84)</f>
         <v>52.342345943322428</v>
       </c>
-      <c r="T84" s="59"/>
-      <c r="U84" s="22">
+      <c r="T84" s="58"/>
+      <c r="U84" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C83,C84,U83,PVT_str_annular_,theta_,d_tube_all_in,1,D83,D84)</f>
         <v>59.917893730980829</v>
       </c>
-      <c r="V84" s="59"/>
+      <c r="V84" s="58"/>
     </row>
     <row r="85" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="28">
+      <c r="C85" s="27">
         <f t="shared" si="1"/>
         <v>1208.32</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="27">
         <f t="shared" si="0"/>
         <v>36.249600000000001</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="30">
+      <c r="F85" s="29">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,F86,PVT_str_,theta_,Dtub_,,D86,D85)</f>
         <v>52.217777228711363</v>
       </c>
-      <c r="J85" s="42">
+      <c r="J85" s="41">
         <f>[1]!MF_gas_fraction_d(Q85,D85,fw_,PVT_str_annular_)</f>
         <v>0.89866604778269643</v>
       </c>
-      <c r="K85" s="32">
+      <c r="K85" s="31">
         <f>[1]!MF_gas_fraction_d(M85,D85,fw_,PVT_str_)</f>
         <v>7.6297939676525997E-2</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C84,C85,L84,PVT_str_,theta_,Dtub_,1,D84,D85)</f>
         <v>117.75583267996277</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C85,M86,PVT_str_,theta_,Dtub_,1,D86,D85)</f>
         <v>120.54344884428109</v>
       </c>
-      <c r="Q85" s="22">
+      <c r="Q85" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C86,C85,Q86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D85)</f>
         <v>77.786477236111153</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R85" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C84,C85,R84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D85)</f>
         <v>82.484265308521657</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C84,C85,S84,PVT_str_annular_,theta_,d_annular_pr,1,D84,D85)</f>
         <v>53.550207758020562</v>
       </c>
-      <c r="T85" s="59"/>
-      <c r="U85" s="22">
+      <c r="T85" s="58"/>
+      <c r="U85" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C84,C85,U84,PVT_str_annular_,theta_,d_tube_all_in,1,D84,D85)</f>
         <v>61.538026878242285</v>
       </c>
-      <c r="V85" s="59"/>
+      <c r="V85" s="58"/>
     </row>
     <row r="86" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="28">
+      <c r="C86" s="27">
         <f t="shared" si="1"/>
         <v>1283.8399999999999</v>
       </c>
-      <c r="D86" s="28">
+      <c r="D86" s="27">
         <f t="shared" si="0"/>
         <v>38.5152</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86" s="22">
+      <c r="F86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C86,F87,PVT_str_,theta_,Dtub_,,D87,D86)</f>
         <v>57.216790638228431</v>
       </c>
-      <c r="J86" s="42">
+      <c r="J86" s="41">
         <f>[1]!MF_gas_fraction_d(Q86,D86,fw_,PVT_str_annular_)</f>
         <v>0.89739424186179462</v>
       </c>
-      <c r="K86" s="32">
+      <c r="K86" s="31">
         <f>[1]!MF_gas_fraction_d(M86,D86,fw_,PVT_str_)</f>
         <v>4.204721036881405E-2</v>
       </c>
-      <c r="L86" s="22">
+      <c r="L86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C85,C86,L85,PVT_str_,theta_,Dtub_,1,D85,D86)</f>
         <v>124.00021105992616</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C86,M87,PVT_str_,theta_,Dtub_,1,D87,D86)</f>
         <v>126.83969010382674</v>
       </c>
-      <c r="Q86" s="22">
+      <c r="Q86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C87,C86,Q87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D86)</f>
         <v>79.489149829761843</v>
       </c>
-      <c r="R86" s="22">
+      <c r="R86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C85,C86,R85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D86)</f>
         <v>84.273274203644675</v>
       </c>
-      <c r="S86" s="22">
+      <c r="S86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C85,C86,S85,PVT_str_annular_,theta_,d_annular_pr,1,D85,D86)</f>
         <v>54.76705634351444</v>
       </c>
-      <c r="T86" s="59"/>
-      <c r="U86" s="22">
+      <c r="T86" s="58"/>
+      <c r="U86" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C85,C86,U85,PVT_str_annular_,theta_,d_tube_all_in,1,D85,D86)</f>
         <v>63.163246448546751</v>
       </c>
-      <c r="V86" s="59"/>
+      <c r="V86" s="58"/>
     </row>
     <row r="87" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="28">
+      <c r="C87" s="27">
         <f t="shared" si="1"/>
         <v>1359.36</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="27">
         <f t="shared" si="0"/>
         <v>40.780799999999999</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="22">
+      <c r="F87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C87,F88,PVT_str_,theta_,Dtub_,,D88,D87)</f>
         <v>62.426743948314126</v>
       </c>
-      <c r="J87" s="42">
+      <c r="J87" s="41">
         <f>[1]!MF_gas_fraction_d(Q87,D87,fw_,PVT_str_annular_)</f>
         <v>0.89613191643171164</v>
       </c>
-      <c r="K87" s="32">
+      <c r="K87" s="31">
         <f>[1]!MF_gas_fraction_d(M87,D87,fw_,PVT_str_)</f>
         <v>8.1066731378731348E-3</v>
       </c>
-      <c r="L87" s="22">
+      <c r="L87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C86,C87,L86,PVT_str_,theta_,Dtub_,1,D86,D87)</f>
         <v>130.33339124791135</v>
       </c>
-      <c r="M87" s="22">
+      <c r="M87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C87,M88,PVT_str_,theta_,Dtub_,1,D88,D87)</f>
         <v>133.22270969560535</v>
       </c>
-      <c r="Q87" s="22">
+      <c r="Q87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C88,C87,Q88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D87)</f>
         <v>81.206780534443908</v>
       </c>
-      <c r="R87" s="22">
+      <c r="R87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C86,C87,R86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D87)</f>
         <v>86.077256307394364</v>
       </c>
-      <c r="S87" s="22">
+      <c r="S87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C86,C87,S86,PVT_str_annular_,theta_,d_annular_pr,1,D86,D87)</f>
         <v>55.992980929638492</v>
       </c>
-      <c r="T87" s="59"/>
-      <c r="U87" s="22">
+      <c r="T87" s="58"/>
+      <c r="U87" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C86,C87,U86,PVT_str_annular_,theta_,d_tube_all_in,1,D86,D87)</f>
         <v>64.794058264135444</v>
       </c>
-      <c r="V87" s="59"/>
+      <c r="V87" s="58"/>
     </row>
     <row r="88" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="28">
+      <c r="C88" s="27">
         <f t="shared" si="1"/>
         <v>1434.8799999999999</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D88" s="27">
         <f t="shared" si="0"/>
         <v>43.046399999999998</v>
       </c>
       <c r="E88" s="6"/>
-      <c r="F88" s="22">
+      <c r="F88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C88,F89,PVT_str_,theta_,Dtub_,,D89,D88)</f>
         <v>67.765000365817315</v>
       </c>
-      <c r="J88" s="42">
+      <c r="J88" s="41">
         <f>[1]!MF_gas_fraction_d(Q88,D88,fw_,PVT_str_annular_)</f>
         <v>0.89487939794116089</v>
       </c>
-      <c r="K88" s="32">
+      <c r="K88" s="31">
         <f>[1]!MF_gas_fraction_d(M88,D88,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C87,C88,L87,PVT_str_,theta_,Dtub_,1,D87,D88)</f>
         <v>136.75196802776887</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C88,M89,PVT_str_,theta_,Dtub_,1,D89,D88)</f>
         <v>139.66722286524171</v>
       </c>
-      <c r="Q88" s="22">
+      <c r="Q88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C89,C88,Q89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D88)</f>
         <v>82.939194380522281</v>
       </c>
-      <c r="R88" s="22">
+      <c r="R88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C87,C88,R87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D88)</f>
         <v>87.896017242977209</v>
       </c>
-      <c r="S88" s="22">
+      <c r="S88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C87,C88,S87,PVT_str_annular_,theta_,d_annular_pr,1,D87,D88)</f>
         <v>57.22804620536094</v>
       </c>
-      <c r="T88" s="59"/>
-      <c r="U88" s="22">
+      <c r="T88" s="58"/>
+      <c r="U88" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C87,C88,U87,PVT_str_annular_,theta_,d_tube_all_in,1,D87,D88)</f>
         <v>66.430883229236727</v>
       </c>
-      <c r="V88" s="59"/>
+      <c r="V88" s="58"/>
     </row>
     <row r="89" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="28">
+      <c r="C89" s="27">
         <f t="shared" ref="C89:C94" si="2">C88+Hmes_/N_</f>
         <v>1510.3999999999999</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="27">
         <f t="shared" si="0"/>
         <v>45.311999999999998</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="22">
+      <c r="F89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C89,F90,PVT_str_,theta_,Dtub_,,D90,D89)</f>
         <v>73.203339539897954</v>
       </c>
-      <c r="J89" s="42">
+      <c r="J89" s="41">
         <f>[1]!MF_gas_fraction_d(Q89,D89,fw_,PVT_str_annular_)</f>
         <v>0.89363702017237079</v>
       </c>
-      <c r="K89" s="32">
+      <c r="K89" s="31">
         <f>[1]!MF_gas_fraction_d(M89,D89,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L89" s="22">
+      <c r="L89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C88,C89,L88,PVT_str_,theta_,Dtub_,1,D88,D89)</f>
         <v>143.19724957506577</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C89,M90,PVT_str_,theta_,Dtub_,1,D90,D89)</f>
         <v>146.11645422890436</v>
       </c>
-      <c r="Q89" s="22">
+      <c r="Q89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C90,C89,Q90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D89)</f>
         <v>84.686209321695443</v>
       </c>
-      <c r="R89" s="22">
+      <c r="R89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C88,C89,R88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D89)</f>
         <v>89.729356210330309</v>
       </c>
-      <c r="S89" s="22">
+      <c r="S89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C88,C89,S88,PVT_str_annular_,theta_,d_annular_pr,1,D88,D89)</f>
         <v>58.472296167647976</v>
       </c>
-      <c r="T89" s="59"/>
-      <c r="U89" s="22">
+      <c r="T89" s="58"/>
+      <c r="U89" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C88,C89,U88,PVT_str_annular_,theta_,d_tube_all_in,1,D88,D89)</f>
         <v>68.074071413697624</v>
       </c>
-      <c r="V89" s="59"/>
+      <c r="V89" s="58"/>
     </row>
     <row r="90" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="28">
+      <c r="C90" s="27">
         <f t="shared" si="2"/>
         <v>1585.9199999999998</v>
       </c>
-      <c r="D90" s="28">
+      <c r="D90" s="27">
         <f t="shared" si="0"/>
         <v>47.577599999999997</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C90,F91,PVT_str_,theta_,Dtub_,,D91,D90)</f>
         <v>78.730374698994282</v>
       </c>
-      <c r="J90" s="42">
+      <c r="J90" s="41">
         <f>[1]!MF_gas_fraction_d(Q90,D90,fw_,PVT_str_annular_)</f>
         <v>0.8924051220428072</v>
       </c>
-      <c r="K90" s="32">
+      <c r="K90" s="31">
         <f>[1]!MF_gas_fraction_d(M90,D90,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L90" s="22">
+      <c r="L90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C89,C90,L89,PVT_str_,theta_,Dtub_,1,D89,D90)</f>
         <v>149.64506287696173</v>
       </c>
-      <c r="M90" s="22">
+      <c r="M90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C90,M91,PVT_str_,theta_,Dtub_,1,D91,D90)</f>
         <v>152.56799823476953</v>
       </c>
-      <c r="Q90" s="22">
+      <c r="Q90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C91,C90,Q91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D90)</f>
         <v>86.447636924654788</v>
       </c>
-      <c r="R90" s="22">
+      <c r="R90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C89,C90,R89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D90)</f>
         <v>91.577066554936536</v>
       </c>
-      <c r="S90" s="22">
+      <c r="S90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C89,C90,S89,PVT_str_annular_,theta_,d_annular_pr,1,D89,D90)</f>
         <v>59.725757188664886</v>
       </c>
-      <c r="T90" s="59"/>
-      <c r="U90" s="22">
+      <c r="T90" s="58"/>
+      <c r="U90" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C89,C90,U89,PVT_str_annular_,theta_,d_tube_all_in,1,D89,D90)</f>
         <v>69.723913265095263</v>
       </c>
-      <c r="V90" s="59"/>
+      <c r="V90" s="58"/>
     </row>
     <row r="91" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="28">
+      <c r="C91" s="27">
         <f t="shared" si="2"/>
         <v>1661.4399999999998</v>
       </c>
-      <c r="D91" s="28">
+      <c r="D91" s="27">
         <f t="shared" si="0"/>
         <v>49.843199999999996</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C92,C91,F92,PVT_str_,theta_,Dtub_,,D92,D91)</f>
         <v>84.336365735828949</v>
       </c>
-      <c r="J91" s="42">
+      <c r="J91" s="41">
         <f>[1]!MF_gas_fraction_d(Q91,D91,fw_,PVT_str_annular_)</f>
         <v>0.89118404571146481</v>
       </c>
-      <c r="K91" s="32">
+      <c r="K91" s="31">
         <f>[1]!MF_gas_fraction_d(M91,D91,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L91" s="22">
+      <c r="L91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C90,C91,L90,PVT_str_,theta_,Dtub_,1,D90,D91)</f>
         <v>156.0950810936381</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C92,C91,M92,PVT_str_,theta_,Dtub_,1,D92,D91)</f>
         <v>159.02155168569101</v>
       </c>
-      <c r="Q91" s="22">
+      <c r="Q91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C92,C91,Q92,PVT_str_annular_,theta_,d_annular_pr,1,D92,D91)</f>
         <v>88.223282947877337</v>
       </c>
-      <c r="R91" s="22">
+      <c r="R91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C90,C91,R90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D91)</f>
         <v>93.438936248284904</v>
       </c>
-      <c r="S91" s="22">
+      <c r="S91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C90,C91,S90,PVT_str_annular_,theta_,d_annular_pr,1,D90,D91)</f>
         <v>60.988440487117522</v>
       </c>
-      <c r="T91" s="59"/>
-      <c r="U91" s="22">
+      <c r="T91" s="58"/>
+      <c r="U91" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C90,C91,U90,PVT_str_annular_,theta_,d_tube_all_in,1,D90,D91)</f>
         <v>71.380648629789661</v>
       </c>
-      <c r="V91" s="59"/>
+      <c r="V91" s="58"/>
     </row>
     <row r="92" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C92" s="27">
         <f t="shared" si="2"/>
         <v>1736.9599999999998</v>
       </c>
-      <c r="D92" s="28">
+      <c r="D92" s="27">
         <f t="shared" si="0"/>
         <v>52.108799999999995</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C93,C92,F93,PVT_str_,theta_,Dtub_,,D93,D92)</f>
         <v>90.012947835693382</v>
       </c>
-      <c r="G92" s="42">
+      <c r="G92" s="41">
         <f>[1]!MF_ksep_natural_d(Q_,wc_,Pintake_,Tintake_,Dintake_,Dcas_,PVT_str_)</f>
         <v>0.85272193266782004</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="39">
         <f>[1]!MF_ksep_total_d(G92,KsepGasSep_)</f>
         <v>0.99263609663339103</v>
       </c>
-      <c r="I92" s="42">
+      <c r="I92" s="41">
         <f>[1]!MF_gas_fraction_d(F92,D92,fw_,PVT_str_)</f>
         <v>0.33110172730417675</v>
       </c>
-      <c r="J92" s="42">
+      <c r="J92" s="41">
         <f>[1]!MF_gas_fraction_d(Q92,D92,fw_,PVT_str_annular_)</f>
         <v>0.88997413494303046</v>
       </c>
-      <c r="K92" s="43">
+      <c r="K92" s="42">
         <f>[1]!MF_gas_fraction_d(M92,D92,fw_,PVT_str_)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="22">
+      <c r="L92" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C91,C92,L91,PVT_str_,theta_,Dtub_,1,D91,D92)</f>
         <v>162.54701491501427</v>
       </c>
-      <c r="M92" s="35">
+      <c r="M92" s="34">
         <f>O92+F84</f>
         <v>165.47684551001419</v>
       </c>
-      <c r="O92" s="44">
+      <c r="O92" s="43">
         <f>[1]!ESP_dP_atm(Q_,fw_,Pintake_,NumStage_,Freq_,PumpID_,PVT_str_,Tintake_,0,1,,D66)</f>
         <v>118.02722557519624</v>
       </c>
-      <c r="P92" s="45">
+      <c r="P92" s="44">
         <f>L92-F92</f>
         <v>72.534067079320891</v>
       </c>
-      <c r="Q92" s="34">
+      <c r="Q92" s="33">
         <f>F92</f>
         <v>90.012947835693382</v>
       </c>
-      <c r="R92" s="22">
+      <c r="R92" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_,fw_,C91,C92,R91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D92)</f>
         <v>95.314748301942885</v>
       </c>
-      <c r="S92" s="60">
+      <c r="S92" s="59">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C91,C92,S91,PVT_str_annular_,theta_,d_annular_pr,1,D91,D92)</f>
         <v>62.260344140177573</v>
       </c>
-      <c r="T92" s="35">
+      <c r="T92" s="34">
         <f>S92</f>
         <v>62.260344140177573</v>
       </c>
-      <c r="U92" s="22">
+      <c r="U92" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C91,C92,U91,PVT_str_annular_,theta_,d_tube_all_in,1,D91,D92)</f>
         <v>73.044474082363507</v>
       </c>
-      <c r="V92" s="35">
+      <c r="V92" s="34">
         <f>U92</f>
         <v>73.044474082363507</v>
       </c>
     </row>
     <row r="93" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="28">
+      <c r="C93" s="27">
         <f t="shared" si="2"/>
         <v>1812.4799999999998</v>
       </c>
-      <c r="D93" s="28">
+      <c r="D93" s="27">
         <f t="shared" si="0"/>
         <v>54.374399999999994</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="21">
         <f>[1]!MF_p_pipe_atma(Q_,fw_,C94,C93,F94,PVT_str_,theta_,Dtub_,,D94,D93)</f>
         <v>95.752907921750307</v>
       </c>
-      <c r="I93" s="42">
+      <c r="I93" s="41">
         <f>[1]!MF_gas_fraction_d(F93,D93,fw_,PVT_str_)</f>
         <v>0.29802166629876653</v>
       </c>
-      <c r="K93" s="41"/>
-      <c r="T93" s="22">
+      <c r="K93" s="40"/>
+      <c r="T93" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C92,C93,T92,PVT_str_annular_,theta_,Dtub_,,D92,D93)</f>
         <v>65.622035052583101</v>
       </c>
-      <c r="V93" s="22">
+      <c r="V93" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C92,C93,V92,PVT_str_annular_,theta_,Dtub_,,D92,D93)</f>
         <v>76.163566484058208</v>
       </c>
     </row>
     <row r="94" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="28">
+      <c r="C94" s="27">
         <f t="shared" si="2"/>
         <v>1887.9999999999998</v>
       </c>
-      <c r="D94" s="28">
+      <c r="D94" s="27">
         <f t="shared" si="0"/>
         <v>56.639999999999993</v>
       </c>
-      <c r="F94" s="29">
+      <c r="F94" s="28">
         <f>Pwf_</f>
         <v>101.55</v>
       </c>
-      <c r="I94" s="42">
+      <c r="I94" s="41">
         <f>[1]!MF_gas_fraction_d(F94,D94,fw_,PVT_str_)</f>
         <v>0.26546889937497586</v>
       </c>
-      <c r="K94" s="41"/>
-      <c r="T94" s="22">
+      <c r="K94" s="40"/>
+      <c r="T94" s="21">
         <f>[1]!MF_p_pipe_atma(Q_annular_all_in,fw_,C93,C94,T93,PVT_str_annular_,theta_,Dtub_,,D93,D94)</f>
         <v>68.956782768131518</v>
       </c>
-      <c r="V94" s="22">
+      <c r="V94" s="21">
         <f>[1]!MF_p_pipe_atma(Q_tube_all_in,fw_,C93,C94,V93,PVT_str_annular_,theta_,Dtub_,,D93,D94)</f>
         <v>79.279412720342748</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>26</v>
+    <row r="96" spans="1:22" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="65" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="98" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
     </row>
     <row r="99" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
     </row>
     <row r="100" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
     </row>
     <row r="101" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="F102" s="54"/>
-      <c r="G102" s="54"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
-      <c r="J102" s="54"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="54"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="53"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="53"/>
+      <c r="O102" s="53"/>
+      <c r="P102" s="53"/>
+      <c r="Q102" s="53"/>
     </row>
     <row r="103" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="55"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="55"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="54"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="53"/>
     </row>
     <row r="104" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D104" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E104" s="52" t="s">
+      <c r="D104" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="F104" s="56"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="56"/>
-      <c r="O104" s="56"/>
-      <c r="P104" s="56"/>
-      <c r="Q104" s="54"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="53"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="55"/>
+      <c r="P104" s="55"/>
+      <c r="Q104" s="53"/>
     </row>
     <row r="105" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="53">
+      <c r="C105" s="52">
         <v>0</v>
       </c>
-      <c r="D105" s="17">
+      <c r="D105" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C105,fw_,Pb_)</f>
         <v>178</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D105,fw_,Pb_)</f>
         <v>0</v>
       </c>
-      <c r="F105" s="56"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56"/>
-      <c r="Q105" s="54"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="55"/>
+      <c r="P105" s="55"/>
+      <c r="Q105" s="53"/>
     </row>
     <row r="106" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="53">
+      <c r="C106" s="52">
         <f t="shared" ref="C106:C130" si="3">C105+qmax_/N_</f>
         <v>7.9721872986300664</v>
       </c>
-      <c r="D106" s="17">
+      <c r="D106" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C106,fw_,Pb_)</f>
         <v>173.98745853724779</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D106,fw_,Pb_)</f>
         <v>7.9721872986220301</v>
       </c>
-      <c r="F106" s="56"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="56"/>
-      <c r="P106" s="56"/>
-      <c r="Q106" s="54"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="55"/>
+      <c r="P106" s="55"/>
+      <c r="Q106" s="53"/>
     </row>
     <row r="107" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="53">
+      <c r="C107" s="52">
         <f t="shared" si="3"/>
         <v>15.944374597260133</v>
       </c>
-      <c r="D107" s="17">
+      <c r="D107" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C107,fw_,Pb_)</f>
         <v>169.89524754200974</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D107,fw_,Pb_)</f>
         <v>15.944374597264019</v>
       </c>
-      <c r="F107" s="56"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="56"/>
-      <c r="P107" s="56"/>
-      <c r="Q107" s="54"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="53"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="55"/>
+      <c r="P107" s="55"/>
+      <c r="Q107" s="53"/>
     </row>
     <row r="108" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="53">
+      <c r="C108" s="52">
         <f t="shared" si="3"/>
         <v>23.916561895890197</v>
       </c>
-      <c r="D108" s="17">
+      <c r="D108" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C108,fw_,Pb_)</f>
         <v>165.71815527585028</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D108,fw_,Pb_)</f>
         <v>23.916561895886051</v>
       </c>
-      <c r="F108" s="56"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="56"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="54"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="53"/>
+      <c r="K108" s="53"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="55"/>
+      <c r="O108" s="55"/>
+      <c r="P108" s="55"/>
+      <c r="Q108" s="53"/>
     </row>
     <row r="109" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="53">
+      <c r="C109" s="52">
         <f t="shared" si="3"/>
         <v>31.888749194520265</v>
       </c>
-      <c r="D109" s="17">
+      <c r="D109" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C109,fw_,Pb_)</f>
         <v>161.45037570800866</v>
       </c>
-      <c r="E109" s="17">
+      <c r="E109" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D109,fw_,Pb_)</f>
         <v>31.888749194528039</v>
       </c>
-      <c r="F109" s="56"/>
-      <c r="G109" s="54"/>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="56"/>
-      <c r="O109" s="56"/>
-      <c r="P109" s="56"/>
-      <c r="Q109" s="54"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="53"/>
+      <c r="K109" s="53"/>
+      <c r="L109" s="53"/>
+      <c r="M109" s="53"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="55"/>
+      <c r="P109" s="55"/>
+      <c r="Q109" s="53"/>
     </row>
     <row r="110" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="53">
+      <c r="C110" s="52">
         <f t="shared" si="3"/>
         <v>39.860936493150334</v>
       </c>
-      <c r="D110" s="17">
+      <c r="D110" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C110,fw_,Pb_)</f>
         <v>157.08540907920187</v>
       </c>
-      <c r="E110" s="17">
+      <c r="E110" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D110,fw_,Pb_)</f>
         <v>39.860936493150071</v>
       </c>
-      <c r="F110" s="56"/>
-      <c r="G110" s="54"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="54"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="56"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="54"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="55"/>
+      <c r="O110" s="55"/>
+      <c r="P110" s="55"/>
+      <c r="Q110" s="53"/>
     </row>
     <row r="111" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="53">
+      <c r="C111" s="52">
         <f t="shared" si="3"/>
         <v>47.833123791780402</v>
       </c>
-      <c r="D111" s="17">
+      <c r="D111" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C111,fw_,Pb_)</f>
         <v>152.61593999330049</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D111,fw_,Pb_)</f>
         <v>47.833123791772103</v>
       </c>
-      <c r="F111" s="56"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="56"/>
-      <c r="P111" s="56"/>
-      <c r="Q111" s="54"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="53"/>
+      <c r="J111" s="53"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="53"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="55"/>
+      <c r="P111" s="55"/>
+      <c r="Q111" s="53"/>
     </row>
     <row r="112" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="53">
+      <c r="C112" s="52">
         <f t="shared" si="3"/>
         <v>55.80531109041047</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C112,fw_,Pb_)</f>
         <v>148.03368649920665</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D112,fw_,Pb_)</f>
         <v>55.805311090414087</v>
       </c>
-      <c r="F112" s="56"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="54"/>
-      <c r="I112" s="54"/>
-      <c r="J112" s="54"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="54"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="53"/>
+      <c r="L112" s="53"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="55"/>
+      <c r="O112" s="55"/>
+      <c r="P112" s="55"/>
+      <c r="Q112" s="53"/>
     </row>
     <row r="113" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="53">
+      <c r="C113" s="52">
         <f t="shared" si="3"/>
         <v>63.777498389040538</v>
       </c>
-      <c r="D113" s="17">
+      <c r="D113" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C113,fw_,Pb_)</f>
         <v>143.32921125103562</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D113,fw_,Pb_)</f>
         <v>63.777498389036118</v>
       </c>
-      <c r="F113" s="56"/>
-      <c r="G113" s="54"/>
-      <c r="H113" s="54"/>
-      <c r="I113" s="54"/>
-      <c r="J113" s="54"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="56"/>
-      <c r="Q113" s="54"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="53"/>
+      <c r="L113" s="53"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="55"/>
+      <c r="P113" s="55"/>
+      <c r="Q113" s="53"/>
     </row>
     <row r="114" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="53">
+      <c r="C114" s="52">
         <f t="shared" si="3"/>
         <v>71.749685687670606</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C114,fw_,Pb_)</f>
         <v>138.49168240625781</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D114,fw_,Pb_)</f>
         <v>71.74968568767811</v>
       </c>
-      <c r="F114" s="56"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="56"/>
-      <c r="P114" s="56"/>
-      <c r="Q114" s="54"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="53"/>
+      <c r="J114" s="53"/>
+      <c r="K114" s="53"/>
+      <c r="L114" s="53"/>
+      <c r="M114" s="53"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="55"/>
+      <c r="P114" s="55"/>
+      <c r="Q114" s="53"/>
     </row>
     <row r="115" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="53">
+      <c r="C115" s="52">
         <f t="shared" si="3"/>
         <v>79.721872986300667</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C115,fw_,Pb_)</f>
         <v>133.50856687463528</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D115,fw_,Pb_)</f>
         <v>79.721872986300141</v>
       </c>
-      <c r="F115" s="56"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="56"/>
-      <c r="P115" s="56"/>
-      <c r="Q115" s="54"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="53"/>
+      <c r="H115" s="53"/>
+      <c r="I115" s="53"/>
+      <c r="J115" s="53"/>
+      <c r="K115" s="53"/>
+      <c r="L115" s="53"/>
+      <c r="M115" s="53"/>
+      <c r="N115" s="55"/>
+      <c r="O115" s="55"/>
+      <c r="P115" s="55"/>
+      <c r="Q115" s="53"/>
     </row>
     <row r="116" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="53">
+      <c r="C116" s="52">
         <f t="shared" si="3"/>
         <v>87.694060284930728</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C116,fw_,Pb_)</f>
         <v>128.36523094110316</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D116,fw_,Pb_)</f>
         <v>87.694060284922173</v>
       </c>
-      <c r="F116" s="56"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="56"/>
-      <c r="O116" s="56"/>
-      <c r="P116" s="56"/>
-      <c r="Q116" s="54"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="53"/>
+      <c r="H116" s="53"/>
+      <c r="I116" s="53"/>
+      <c r="J116" s="53"/>
+      <c r="K116" s="53"/>
+      <c r="L116" s="53"/>
+      <c r="M116" s="53"/>
+      <c r="N116" s="55"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="55"/>
+      <c r="Q116" s="53"/>
     </row>
     <row r="117" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="53">
+      <c r="C117" s="52">
         <f t="shared" si="3"/>
         <v>95.666247583560789</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C117,fw_,Pb_)</f>
         <v>123.04441159557162</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D117,fw_,Pb_)</f>
         <v>95.666247583564157</v>
       </c>
-      <c r="F117" s="56"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="56"/>
-      <c r="P117" s="56"/>
-      <c r="Q117" s="54"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
+      <c r="I117" s="53"/>
+      <c r="J117" s="53"/>
+      <c r="K117" s="53"/>
+      <c r="L117" s="53"/>
+      <c r="M117" s="53"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="55"/>
+      <c r="P117" s="55"/>
+      <c r="Q117" s="53"/>
     </row>
     <row r="118" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="53">
+      <c r="C118" s="52">
         <f t="shared" si="3"/>
         <v>103.63843488219085</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C118,fw_,Pb_)</f>
         <v>117.52550340427216</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D118,fw_,Pb_)</f>
         <v>103.63843488218619</v>
       </c>
-      <c r="F118" s="56"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="54"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="53"/>
+      <c r="L118" s="53"/>
+      <c r="M118" s="53"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="55"/>
+      <c r="P118" s="55"/>
+      <c r="Q118" s="53"/>
     </row>
     <row r="119" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="53">
+      <c r="C119" s="52">
         <f t="shared" si="3"/>
         <v>111.61062218082091</v>
       </c>
-      <c r="D119" s="17">
+      <c r="D119" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C119,fw_,Pb_)</f>
         <v>111.78357557453319</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D119,fw_,Pb_)</f>
         <v>111.61062218082817</v>
       </c>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="57"/>
-      <c r="O119" s="56"/>
-      <c r="P119" s="56"/>
-      <c r="Q119" s="54"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="53"/>
+      <c r="K119" s="53"/>
+      <c r="L119" s="53"/>
+      <c r="M119" s="53"/>
+      <c r="N119" s="56"/>
+      <c r="O119" s="55"/>
+      <c r="P119" s="55"/>
+      <c r="Q119" s="53"/>
     </row>
     <row r="120" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="53">
+      <c r="C120" s="52">
         <f t="shared" si="3"/>
         <v>119.58280947945097</v>
       </c>
-      <c r="D120" s="17">
+      <c r="D120" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C120,fw_,Pb_)</f>
         <v>105.78798285456902</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E120" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D120,fw_,Pb_)</f>
         <v>119.58280947945021</v>
       </c>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="54"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="54"/>
-      <c r="Q120" s="54"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="53"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="55"/>
+      <c r="P120" s="53"/>
+      <c r="Q120" s="53"/>
     </row>
     <row r="121" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="53">
+      <c r="C121" s="52">
         <f t="shared" si="3"/>
         <v>127.55499677808103</v>
       </c>
-      <c r="D121" s="17">
+      <c r="D121" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C121,fw_,Pb_)</f>
         <v>99.500344110601063</v>
       </c>
-      <c r="E121" s="17">
+      <c r="E121" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D121,fw_,Pb_)</f>
         <v>127.55499677807224</v>
       </c>
-      <c r="F121" s="56"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="54"/>
-      <c r="O121" s="56"/>
-      <c r="P121" s="54"/>
-      <c r="Q121" s="54"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="53"/>
+      <c r="K121" s="53"/>
+      <c r="L121" s="53"/>
+      <c r="M121" s="53"/>
+      <c r="N121" s="53"/>
+      <c r="O121" s="55"/>
+      <c r="P121" s="53"/>
+      <c r="Q121" s="53"/>
     </row>
     <row r="122" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="53">
+      <c r="C122" s="52">
         <f t="shared" si="3"/>
         <v>135.52718407671111</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D122" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C122,fw_,Pb_)</f>
         <v>92.871496577300789</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D122,fw_,Pb_)</f>
         <v>135.52718407671424</v>
       </c>
-      <c r="F122" s="56"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="54"/>
-      <c r="O122" s="56"/>
-      <c r="P122" s="54"/>
-      <c r="Q122" s="54"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53"/>
+      <c r="L122" s="53"/>
+      <c r="M122" s="53"/>
+      <c r="N122" s="53"/>
+      <c r="O122" s="55"/>
+      <c r="P122" s="53"/>
+      <c r="Q122" s="53"/>
     </row>
     <row r="123" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="53">
+      <c r="C123" s="52">
         <f t="shared" si="3"/>
         <v>143.49937137534118</v>
       </c>
-      <c r="D123" s="17">
+      <c r="D123" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C123,fw_,Pb_)</f>
         <v>85.836709443450957</v>
       </c>
-      <c r="E123" s="17">
+      <c r="E123" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D123,fw_,Pb_)</f>
         <v>143.49937137533627</v>
       </c>
-      <c r="F123" s="56"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="56"/>
-      <c r="P123" s="54"/>
-      <c r="Q123" s="54"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="53"/>
+      <c r="H123" s="53"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="53"/>
+      <c r="K123" s="53"/>
+      <c r="L123" s="53"/>
+      <c r="M123" s="53"/>
+      <c r="N123" s="53"/>
+      <c r="O123" s="55"/>
+      <c r="P123" s="53"/>
+      <c r="Q123" s="53"/>
     </row>
     <row r="124" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="53">
+      <c r="C124" s="52">
         <f t="shared" si="3"/>
         <v>151.47155867397126</v>
       </c>
-      <c r="D124" s="17">
+      <c r="D124" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C124,fw_,Pb_)</f>
         <v>78.307760388935193</v>
       </c>
-      <c r="E124" s="17">
+      <c r="E124" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D124,fw_,Pb_)</f>
         <v>151.47155867397825</v>
       </c>
-      <c r="F124" s="24"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="54"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="54"/>
-      <c r="Q124" s="54"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="53"/>
+      <c r="M124" s="53"/>
+      <c r="N124" s="53"/>
+      <c r="O124" s="55"/>
+      <c r="P124" s="53"/>
+      <c r="Q124" s="53"/>
     </row>
     <row r="125" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="53">
+      <c r="C125" s="52">
         <f t="shared" si="3"/>
         <v>159.44374597260133</v>
       </c>
-      <c r="D125" s="17">
+      <c r="D125" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C125,fw_,Pb_)</f>
         <v>70.158923227481381</v>
       </c>
-      <c r="E125" s="17">
+      <c r="E125" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D125,fw_,Pb_)</f>
         <v>159.44374597260028</v>
       </c>
-      <c r="F125" s="54"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="54"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="54"/>
-      <c r="O125" s="54"/>
-      <c r="P125" s="54"/>
-      <c r="Q125" s="54"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="53"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="53"/>
+      <c r="M125" s="53"/>
+      <c r="N125" s="53"/>
+      <c r="O125" s="53"/>
+      <c r="P125" s="53"/>
+      <c r="Q125" s="53"/>
     </row>
     <row r="126" spans="3:17" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="53">
+      <c r="C126" s="52">
         <f t="shared" si="3"/>
         <v>167.41593327123141</v>
       </c>
-      <c r="D126" s="17">
+      <c r="D126" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C126,fw_,Pb_)</f>
         <v>61.199934212999409</v>
       </c>
-      <c r="E126" s="17">
+      <c r="E126" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D126,fw_,Pb_)</f>
         <v>167.41593327124227</v>
       </c>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="54"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="53"/>
+      <c r="H126" s="53"/>
+      <c r="I126" s="53"/>
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="53"/>
+      <c r="M126" s="53"/>
+      <c r="N126" s="53"/>
+      <c r="O126" s="53"/>
+      <c r="P126" s="53"/>
+      <c r="Q126" s="53"/>
     </row>
     <row r="127" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C127" s="53">
+      <c r="C127" s="52">
         <f t="shared" si="3"/>
         <v>175.38812056986148</v>
       </c>
-      <c r="D127" s="17">
+      <c r="D127" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C127,fw_,Pb_)</f>
         <v>51.11714503152136</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D127,fw_,Pb_)</f>
         <v>175.3881205698643</v>
       </c>
-      <c r="F127" s="54"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-      <c r="O127" s="54"/>
-      <c r="P127" s="54"/>
-      <c r="Q127" s="54"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="53"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="53"/>
+      <c r="K127" s="53"/>
+      <c r="L127" s="53"/>
+      <c r="M127" s="53"/>
+      <c r="N127" s="53"/>
+      <c r="O127" s="53"/>
+      <c r="P127" s="53"/>
+      <c r="Q127" s="53"/>
     </row>
     <row r="128" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C128" s="53">
+      <c r="C128" s="52">
         <f t="shared" si="3"/>
         <v>183.36030786849156</v>
       </c>
-      <c r="D128" s="17">
+      <c r="D128" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C128,fw_,Pb_)</f>
         <v>39.319962454073703</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D128,fw_,Pb_)</f>
         <v>183.36030786848633</v>
       </c>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-      <c r="O128" s="54"/>
-      <c r="P128" s="54"/>
-      <c r="Q128" s="54"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="53"/>
+      <c r="K128" s="53"/>
+      <c r="L128" s="53"/>
+      <c r="M128" s="53"/>
+      <c r="N128" s="53"/>
+      <c r="O128" s="53"/>
+      <c r="P128" s="53"/>
+      <c r="Q128" s="53"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C129" s="53">
+      <c r="C129" s="52">
         <f t="shared" si="3"/>
         <v>191.33249516712164</v>
       </c>
-      <c r="D129" s="17">
+      <c r="D129" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C129,fw_,Pb_)</f>
         <v>24.391676146544469</v>
       </c>
-      <c r="E129" s="17">
+      <c r="E129" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D129,fw_,Pb_)</f>
         <v>191.33249516712831</v>
       </c>
-      <c r="F129" s="54"/>
-      <c r="G129" s="54"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
-      <c r="N129" s="54"/>
-      <c r="O129" s="54"/>
-      <c r="P129" s="54"/>
-      <c r="Q129" s="54"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="53"/>
+      <c r="K129" s="53"/>
+      <c r="L129" s="53"/>
+      <c r="M129" s="53"/>
+      <c r="N129" s="53"/>
+      <c r="O129" s="53"/>
+      <c r="P129" s="53"/>
+      <c r="Q129" s="53"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C130" s="53">
+      <c r="C130" s="52">
         <f t="shared" si="3"/>
         <v>199.30468246575171</v>
       </c>
-      <c r="D130" s="17">
+      <c r="D130" s="16">
         <f>[1]!IPR_Pwf_atma(PI_,Pres_,C130,fw_,Pb_)</f>
         <v>0</v>
       </c>
-      <c r="E130" s="17">
+      <c r="E130" s="16">
         <f>[1]!IPR_Qliq_sm3Day(PI_,Pres_,D130,fw_,Pb_)</f>
         <v>199.30468246575165</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D134" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E134" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F134" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G134" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D134" t="s">
-        <v>110</v>
-      </c>
-      <c r="F134" t="s">
-        <v>112</v>
-      </c>
-      <c r="G134" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C136" t="str">
+      <c r="C136" s="68" t="str">
         <f>C68</f>
         <v>H</v>
       </c>
-      <c r="D136" t="s">
-        <v>111</v>
-      </c>
-      <c r="E136" t="s">
-        <v>111</v>
-      </c>
-      <c r="F136" t="s">
-        <v>111</v>
-      </c>
-      <c r="G136" t="s">
-        <v>111</v>
-      </c>
+      <c r="D136" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="69"/>
+      <c r="F136" s="69"/>
+      <c r="G136" s="69"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C137">
+      <c r="C137" s="57">
         <f t="shared" ref="C137:C163" si="4">C69</f>
         <v>0</v>
       </c>
-      <c r="D137" s="59">
+      <c r="D137" s="70">
         <f>M69</f>
         <v>36.577710077539486</v>
       </c>
-      <c r="E137" s="59">
+      <c r="E137" s="70">
         <f>Q69</f>
         <v>52.65737430622481</v>
       </c>
-      <c r="F137" s="59">
+      <c r="F137" s="70">
         <f>S69</f>
         <v>35</v>
       </c>
-      <c r="G137" s="59">
+      <c r="G137" s="70">
         <f>U69</f>
         <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C138">
+      <c r="C138" s="57">
         <f t="shared" si="4"/>
         <v>75.52</v>
       </c>
-      <c r="D138" s="59">
+      <c r="D138" s="70">
         <f t="shared" ref="D138:D160" si="5">M70</f>
         <v>40.579388524205001</v>
       </c>
-      <c r="E138" s="59">
+      <c r="E138" s="70">
         <f t="shared" ref="E138:E160" si="6">Q70</f>
         <v>54.114873109414077</v>
       </c>
-      <c r="F138" s="59">
+      <c r="F138" s="70">
         <f t="shared" ref="F138:F160" si="7">S70</f>
         <v>36.160146867682002</v>
       </c>
-      <c r="G138" s="59">
+      <c r="G138" s="70">
         <f t="shared" ref="G138:G162" si="8">U70</f>
         <v>36.886835479293495</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C139">
+      <c r="C139" s="57">
         <f t="shared" si="4"/>
         <v>151.04</v>
       </c>
-      <c r="D139" s="59">
+      <c r="D139" s="70">
         <f t="shared" si="5"/>
         <v>44.789374102308528</v>
       </c>
-      <c r="E139" s="59">
+      <c r="E139" s="70">
         <f t="shared" si="6"/>
         <v>55.585072142926819</v>
       </c>
-      <c r="F139" s="59">
+      <c r="F139" s="70">
         <f t="shared" si="7"/>
         <v>37.303800171146939</v>
       </c>
-      <c r="G139" s="59">
+      <c r="G139" s="70">
         <f t="shared" si="8"/>
         <v>38.679980482938056</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C140">
+      <c r="C140" s="57">
         <f t="shared" si="4"/>
         <v>226.56</v>
       </c>
-      <c r="D140" s="59">
+      <c r="D140" s="70">
         <f t="shared" si="5"/>
         <v>49.198812704115035</v>
       </c>
-      <c r="E140" s="59">
+      <c r="E140" s="70">
         <f t="shared" si="6"/>
         <v>57.06933968016191</v>
       </c>
-      <c r="F140" s="59">
+      <c r="F140" s="70">
         <f t="shared" si="7"/>
         <v>38.439214226147868</v>
       </c>
-      <c r="G140" s="59">
+      <c r="G140" s="70">
         <f t="shared" si="8"/>
         <v>40.411714892395302</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C141">
+      <c r="C141" s="57">
         <f t="shared" si="4"/>
         <v>302.08</v>
       </c>
-      <c r="D141" s="59">
+      <c r="D141" s="70">
         <f t="shared" si="5"/>
         <v>53.799132021723409</v>
       </c>
-      <c r="E141" s="59">
+      <c r="E141" s="70">
         <f t="shared" si="6"/>
         <v>58.568492791918572</v>
       </c>
-      <c r="F141" s="59">
+      <c r="F141" s="70">
         <f t="shared" si="7"/>
         <v>39.571508418698741</v>
       </c>
-      <c r="G141" s="59">
+      <c r="G141" s="70">
         <f t="shared" si="8"/>
         <v>42.101691540237574</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C142">
+      <c r="C142" s="57">
         <f t="shared" si="4"/>
         <v>377.59999999999997</v>
       </c>
-      <c r="D142" s="59">
+      <c r="D142" s="70">
         <f t="shared" si="5"/>
         <v>58.581220391191245</v>
       </c>
-      <c r="E142" s="59">
+      <c r="E142" s="70">
         <f t="shared" si="6"/>
         <v>60.083028961936847</v>
       </c>
-      <c r="F142" s="59">
+      <c r="F142" s="70">
         <f t="shared" si="7"/>
         <v>40.704048719298328</v>
       </c>
-      <c r="G142" s="59">
+      <c r="G142" s="70">
         <f t="shared" si="8"/>
         <v>43.762696313942598</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C143">
+      <c r="C143" s="57">
         <f t="shared" si="4"/>
         <v>453.11999999999995</v>
       </c>
-      <c r="D143" s="59">
+      <c r="D143" s="70">
         <f t="shared" si="5"/>
         <v>63.535710943398179</v>
       </c>
-      <c r="E143" s="59">
+      <c r="E143" s="70">
         <f t="shared" si="6"/>
         <v>61.613248042741503</v>
       </c>
-      <c r="F143" s="59">
+      <c r="F143" s="70">
         <f t="shared" si="7"/>
         <v>41.839149092173834</v>
       </c>
-      <c r="G143" s="59">
+      <c r="G143" s="70">
         <f t="shared" si="8"/>
         <v>45.40347778715013</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C144">
+      <c r="C144" s="57">
         <f t="shared" si="4"/>
         <v>528.64</v>
       </c>
-      <c r="D144" s="59">
+      <c r="D144" s="70">
         <f t="shared" si="5"/>
         <v>68.652254359901335</v>
       </c>
-      <c r="E144" s="59">
+      <c r="E144" s="70">
         <f t="shared" si="6"/>
         <v>63.159321140728018</v>
       </c>
-      <c r="F144" s="59">
+      <c r="F144" s="70">
         <f t="shared" si="7"/>
         <v>42.978456656015922</v>
       </c>
-      <c r="G144" s="59">
+      <c r="G144" s="70">
         <f t="shared" si="8"/>
         <v>47.030263623864791</v>
       </c>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C145">
+      <c r="C145" s="57">
         <f t="shared" si="4"/>
         <v>604.16</v>
       </c>
-      <c r="D145" s="59">
+      <c r="D145" s="70">
         <f t="shared" si="5"/>
         <v>73.911073063387562</v>
       </c>
-      <c r="E145" s="59">
+      <c r="E145" s="70">
         <f t="shared" si="6"/>
         <v>64.721331755278115</v>
       </c>
-      <c r="F145" s="59">
+      <c r="F145" s="70">
         <f t="shared" si="7"/>
         <v>44.12317662805156</v>
       </c>
-      <c r="G145" s="59">
+      <c r="G145" s="70">
         <f t="shared" si="8"/>
         <v>48.647629967673112</v>
       </c>
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C146">
+      <c r="C146" s="57">
         <f t="shared" si="4"/>
         <v>679.68</v>
       </c>
-      <c r="D146" s="59">
+      <c r="D146" s="70">
         <f t="shared" si="5"/>
         <v>79.317520938934564</v>
       </c>
-      <c r="E146" s="59">
+      <c r="E146" s="70">
         <f t="shared" si="6"/>
         <v>66.299301487217193</v>
       </c>
-      <c r="F146" s="59">
+      <c r="F146" s="70">
         <f t="shared" si="7"/>
         <v>45.274210398614208</v>
       </c>
-      <c r="G146" s="59">
+      <c r="G146" s="70">
         <f t="shared" si="8"/>
         <v>50.259027559124085</v>
       </c>
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C147">
+      <c r="C147" s="57">
         <f t="shared" si="4"/>
         <v>755.19999999999993</v>
       </c>
-      <c r="D147" s="59">
+      <c r="D147" s="70">
         <f t="shared" si="5"/>
         <v>84.859317218567682</v>
       </c>
-      <c r="E147" s="59">
+      <c r="E147" s="70">
         <f t="shared" si="6"/>
         <v>67.893206721573932</v>
       </c>
-      <c r="F147" s="59">
+      <c r="F147" s="70">
         <f t="shared" si="7"/>
         <v>46.432243837935104</v>
       </c>
-      <c r="G147" s="59">
+      <c r="G147" s="70">
         <f t="shared" si="8"/>
         <v>51.867114560742706</v>
       </c>
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C148">
+      <c r="C148" s="57">
         <f t="shared" si="4"/>
         <v>830.71999999999991</v>
       </c>
-      <c r="D148" s="59">
+      <c r="D148" s="70">
         <f t="shared" si="5"/>
         <v>90.528442166674054</v>
       </c>
-      <c r="E148" s="59">
+      <c r="E148" s="70">
         <f t="shared" si="6"/>
         <v>69.502989805401981</v>
       </c>
-      <c r="F148" s="59">
+      <c r="F148" s="70">
         <f t="shared" si="7"/>
         <v>47.59780576069582</v>
       </c>
-      <c r="G148" s="59">
+      <c r="G148" s="70">
         <f t="shared" si="8"/>
         <v>53.473975075683562</v>
       </c>
     </row>
     <row r="149" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C149">
+      <c r="C149" s="57">
         <f t="shared" si="4"/>
         <v>906.2399999999999</v>
       </c>
-      <c r="D149" s="59">
+      <c r="D149" s="70">
         <f t="shared" si="5"/>
         <v>96.317504847455112</v>
       </c>
-      <c r="E149" s="59">
+      <c r="E149" s="70">
         <f t="shared" si="6"/>
         <v>71.128566747846563</v>
       </c>
-      <c r="F149" s="59">
+      <c r="F149" s="70">
         <f t="shared" si="7"/>
         <v>48.77130779588655</v>
       </c>
-      <c r="G149" s="59">
+      <c r="G149" s="70">
         <f t="shared" si="8"/>
         <v>55.081267232781876</v>
       </c>
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C150">
+      <c r="C150" s="57">
         <f t="shared" si="4"/>
         <v>981.75999999999988</v>
       </c>
-      <c r="D150" s="59">
+      <c r="D150" s="70">
         <f t="shared" si="5"/>
         <v>102.21961922187499</v>
       </c>
-      <c r="E150" s="59">
+      <c r="E150" s="70">
         <f t="shared" si="6"/>
         <v>72.769832656480276</v>
       </c>
-      <c r="F150" s="59">
+      <c r="F150" s="70">
         <f t="shared" si="7"/>
         <v>49.953072283811515</v>
       </c>
-      <c r="G150" s="59">
+      <c r="G150" s="70">
         <f t="shared" si="8"/>
         <v>56.69032632335243</v>
       </c>
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C151">
+      <c r="C151" s="57">
         <f t="shared" si="4"/>
         <v>1057.28</v>
       </c>
-      <c r="D151" s="59">
+      <c r="D151" s="70">
         <f t="shared" si="5"/>
         <v>108.22842982902787</v>
       </c>
-      <c r="E151" s="59">
+      <c r="E151" s="70">
         <f t="shared" si="6"/>
         <v>74.426665661882907</v>
       </c>
-      <c r="F151" s="59">
+      <c r="F151" s="70">
         <f t="shared" si="7"/>
         <v>51.143352241771431</v>
       </c>
-      <c r="G151" s="59">
+      <c r="G151" s="70">
         <f t="shared" si="8"/>
         <v>58.302238371136788</v>
       </c>
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C152">
+      <c r="C152" s="57">
         <f t="shared" si="4"/>
         <v>1132.8</v>
       </c>
-      <c r="D152" s="59">
+      <c r="D152" s="70">
         <f t="shared" si="5"/>
         <v>114.33812624613876</v>
       </c>
-      <c r="E152" s="59">
+      <c r="E152" s="70">
         <f t="shared" si="6"/>
         <v>76.098929810020806</v>
       </c>
-      <c r="F152" s="59">
+      <c r="F152" s="70">
         <f t="shared" si="7"/>
         <v>52.342345943322428</v>
       </c>
-      <c r="G152" s="59">
+      <c r="G152" s="70">
         <f t="shared" si="8"/>
         <v>59.917893730980829</v>
       </c>
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C153">
+      <c r="C153" s="57">
         <f t="shared" si="4"/>
         <v>1208.32</v>
       </c>
-      <c r="D153" s="59">
+      <c r="D153" s="70">
         <f t="shared" si="5"/>
         <v>120.54344884428109</v>
       </c>
-      <c r="E153" s="59">
+      <c r="E153" s="70">
         <f t="shared" si="6"/>
         <v>77.786477236111153</v>
       </c>
-      <c r="F153" s="59">
+      <c r="F153" s="70">
         <f t="shared" si="7"/>
         <v>53.550207758020562</v>
       </c>
-      <c r="G153" s="59">
+      <c r="G153" s="70">
         <f t="shared" si="8"/>
         <v>61.538026878242285</v>
       </c>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C154">
+      <c r="C154" s="57">
         <f t="shared" si="4"/>
         <v>1283.8399999999999</v>
       </c>
-      <c r="D154" s="59">
+      <c r="D154" s="70">
         <f t="shared" si="5"/>
         <v>126.83969010382674</v>
       </c>
-      <c r="E154" s="59">
+      <c r="E154" s="70">
         <f t="shared" si="6"/>
         <v>79.489149829761843</v>
       </c>
-      <c r="F154" s="59">
+      <c r="F154" s="70">
         <f t="shared" si="7"/>
         <v>54.76705634351444</v>
       </c>
-      <c r="G154" s="59">
+      <c r="G154" s="70">
         <f t="shared" si="8"/>
         <v>63.163246448546751</v>
       </c>
     </row>
     <row r="155" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C155">
+      <c r="C155" s="57">
         <f t="shared" si="4"/>
         <v>1359.36</v>
       </c>
-      <c r="D155" s="59">
+      <c r="D155" s="70">
         <f t="shared" si="5"/>
         <v>133.22270969560535</v>
       </c>
-      <c r="E155" s="59">
+      <c r="E155" s="70">
         <f t="shared" si="6"/>
         <v>81.206780534443908</v>
       </c>
-      <c r="F155" s="59">
+      <c r="F155" s="70">
         <f t="shared" si="7"/>
         <v>55.992980929638492</v>
       </c>
-      <c r="G155" s="59">
+      <c r="G155" s="70">
         <f t="shared" si="8"/>
         <v>64.794058264135444</v>
       </c>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C156">
+      <c r="C156" s="57">
         <f t="shared" si="4"/>
         <v>1434.8799999999999</v>
       </c>
-      <c r="D156" s="59">
+      <c r="D156" s="70">
         <f t="shared" si="5"/>
         <v>139.66722286524171</v>
       </c>
-      <c r="E156" s="59">
+      <c r="E156" s="70">
         <f t="shared" si="6"/>
         <v>82.939194380522281</v>
       </c>
-      <c r="F156" s="59">
+      <c r="F156" s="70">
         <f t="shared" si="7"/>
         <v>57.22804620536094</v>
       </c>
-      <c r="G156" s="59">
+      <c r="G156" s="70">
         <f t="shared" si="8"/>
         <v>66.430883229236727</v>
       </c>
     </row>
     <row r="157" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C157">
+      <c r="C157" s="57">
         <f t="shared" si="4"/>
         <v>1510.3999999999999</v>
       </c>
-      <c r="D157" s="59">
+      <c r="D157" s="70">
         <f t="shared" si="5"/>
         <v>146.11645422890436</v>
       </c>
-      <c r="E157" s="59">
+      <c r="E157" s="70">
         <f t="shared" si="6"/>
         <v>84.686209321695443</v>
       </c>
-      <c r="F157" s="59">
+      <c r="F157" s="70">
         <f t="shared" si="7"/>
         <v>58.472296167647976</v>
       </c>
-      <c r="G157" s="59">
+      <c r="G157" s="70">
         <f t="shared" si="8"/>
         <v>68.074071413697624</v>
       </c>
     </row>
     <row r="158" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C158">
+      <c r="C158" s="57">
         <f t="shared" si="4"/>
         <v>1585.9199999999998</v>
       </c>
-      <c r="D158" s="59">
+      <c r="D158" s="70">
         <f>M90</f>
         <v>152.56799823476953</v>
       </c>
-      <c r="E158" s="59">
+      <c r="E158" s="70">
         <f t="shared" si="6"/>
         <v>86.447636924654788</v>
       </c>
-      <c r="F158" s="59">
+      <c r="F158" s="70">
         <f t="shared" si="7"/>
         <v>59.725757188664886</v>
       </c>
-      <c r="G158" s="59">
+      <c r="G158" s="70">
         <f t="shared" si="8"/>
         <v>69.723913265095263</v>
       </c>
     </row>
     <row r="159" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C159">
+      <c r="C159" s="57">
         <f t="shared" si="4"/>
         <v>1661.4399999999998</v>
       </c>
-      <c r="D159" s="59">
+      <c r="D159" s="70">
         <f t="shared" si="5"/>
         <v>159.02155168569101</v>
       </c>
-      <c r="E159" s="59">
+      <c r="E159" s="70">
         <f t="shared" si="6"/>
         <v>88.223282947877337</v>
       </c>
-      <c r="F159" s="59">
+      <c r="F159" s="70">
         <f t="shared" si="7"/>
         <v>60.988440487117522</v>
       </c>
-      <c r="G159" s="59">
+      <c r="G159" s="70">
         <f t="shared" si="8"/>
         <v>71.380648629789661</v>
       </c>
     </row>
     <row r="160" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C160">
+      <c r="C160" s="57">
         <f t="shared" si="4"/>
         <v>1736.9599999999998</v>
       </c>
-      <c r="D160" s="59">
+      <c r="D160" s="70">
         <f t="shared" si="5"/>
         <v>165.47684551001419</v>
       </c>
-      <c r="E160" s="59">
+      <c r="E160" s="70">
         <f t="shared" si="6"/>
         <v>90.012947835693382</v>
       </c>
-      <c r="F160" s="59">
+      <c r="F160" s="70">
         <f t="shared" si="7"/>
         <v>62.260344140177573</v>
       </c>
-      <c r="G160" s="59">
+      <c r="G160" s="70">
         <f t="shared" si="8"/>
         <v>73.044474082363507</v>
       </c>
     </row>
     <row r="161" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C161">
+      <c r="C161" s="57">
         <f t="shared" si="4"/>
         <v>1812.4799999999998</v>
       </c>
-      <c r="D161" s="59"/>
-      <c r="E161" s="59">
+      <c r="D161" s="70"/>
+      <c r="E161" s="70">
         <f>F93</f>
         <v>95.752907921750307</v>
       </c>
-      <c r="F161" s="59">
+      <c r="F161" s="70">
         <f>T93</f>
         <v>65.622035052583101</v>
       </c>
-      <c r="G161" s="59">
+      <c r="G161" s="70">
         <f>V93</f>
         <v>76.163566484058208</v>
       </c>
     </row>
     <row r="162" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C162">
+      <c r="C162" s="57">
         <f t="shared" si="4"/>
         <v>1887.9999999999998</v>
       </c>
-      <c r="D162" s="59"/>
-      <c r="E162" s="59">
+      <c r="D162" s="70"/>
+      <c r="E162" s="70">
         <f>F94</f>
         <v>101.55</v>
       </c>
-      <c r="F162" s="59">
+      <c r="F162" s="70">
         <f>T94</f>
         <v>68.956782768131518</v>
       </c>
-      <c r="G162" s="59">
+      <c r="G162" s="70">
         <f>V94</f>
         <v>79.279412720342748</v>
       </c>
@@ -10501,7 +11141,14 @@
       <c r="N197" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="G50:U50"/>
+    <mergeCell ref="G47:U47"/>
+    <mergeCell ref="G44:U44"/>
+    <mergeCell ref="G43:U43"/>
+    <mergeCell ref="G46:U46"/>
+    <mergeCell ref="G49:U49"/>
     <mergeCell ref="F65:R65"/>
     <mergeCell ref="J66:M66"/>
     <mergeCell ref="S65:T65"/>
